--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_passes.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_passes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,8 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Diff Moyennes
-(données normalisées)</t>
+          <t>Diff. Top 5 avec Bottom 15 en %</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -484,3435 +483,3435 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>count_pass_attempts_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.971717171717172</v>
+        <v>0.01161616161616162</v>
       </c>
       <c r="C2" t="n">
-        <v>6.141240623640004</v>
+        <v>0.003659147869674185</v>
       </c>
       <c r="D2" t="n">
-        <v>1.772572461713186</v>
+        <v>217.46</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9369148019345326</v>
+        <v>0.01593112151069445</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8179205206053947</v>
+        <v>0.009665870957924205</v>
       </c>
       <c r="G2" t="n">
-        <v>6.921052631578948</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.969696969696969</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J2" t="n">
-        <v>8.375</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0249845826687932</v>
+        <v>0.01161616161616162</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01546452783372288</v>
+        <v>0.003659147869674185</v>
       </c>
       <c r="D3" t="n">
-        <v>1.594037102148935</v>
+        <v>217.46</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00689241493404291</v>
+        <v>0.01593112151069445</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003770201556407527</v>
+        <v>0.009665870957924205</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01657894736842105</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009411764705882354</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03363636363636364</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02216216216216216</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_runs_ahead_of_the_ball_threat_per_match</t>
+          <t>count_completed_pass_to_pulling_wide_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5475552897395003</v>
+        <v>0.01658692185007974</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4383853420664566</v>
+        <v>0.005455455455455455</v>
       </c>
       <c r="D4" t="n">
-        <v>1.590021525785719</v>
+        <v>204.04</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08250663531520426</v>
+        <v>0.02404540946696574</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0446394349023931</v>
+        <v>0.01129505392611557</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4444736842105264</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3677142857142857</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6512121212121212</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5391666666666667</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_coming_short_runs_in_sample</t>
+          <t>count_completed_pass_to_overlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.75704412546518</v>
+        <v>0.09463051568314726</v>
       </c>
       <c r="C5" t="n">
-        <v>14.45409842922227</v>
+        <v>0.04062892767227132</v>
       </c>
       <c r="D5" t="n">
-        <v>1.555294429691287</v>
+        <v>132.91</v>
       </c>
       <c r="E5" t="n">
-        <v>4.1352418021065</v>
+        <v>0.0444429817961492</v>
       </c>
       <c r="F5" t="n">
-        <v>2.58094224284664</v>
+        <v>0.02992670135405195</v>
       </c>
       <c r="G5" t="n">
-        <v>15.3421052631579</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="H5" t="n">
-        <v>8.735294117647058</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>25.52777777777778</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="J5" t="n">
-        <v>18.71052631578947</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_coming_short_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.75704412546518</v>
+        <v>0.02769803296119085</v>
       </c>
       <c r="C6" t="n">
-        <v>14.45409842922227</v>
+        <v>0.01303019959366709</v>
       </c>
       <c r="D6" t="n">
-        <v>1.555294429691287</v>
+        <v>112.57</v>
       </c>
       <c r="E6" t="n">
-        <v>4.1352418021065</v>
+        <v>0.01867927645136839</v>
       </c>
       <c r="F6" t="n">
-        <v>2.58094224284664</v>
+        <v>0.01443483951284623</v>
       </c>
       <c r="G6" t="n">
-        <v>15.3421052631579</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>8.735294117647058</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25.52777777777778</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J6" t="n">
-        <v>18.71052631578947</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_by_teammate_per_match</t>
+          <t>count_completed_pass_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.92259436469963</v>
+        <v>0.04925571504518873</v>
       </c>
       <c r="C7" t="n">
-        <v>15.2472849835853</v>
+        <v>0.02358433621591516</v>
       </c>
       <c r="D7" t="n">
-        <v>1.552529507872845</v>
+        <v>108.85</v>
       </c>
       <c r="E7" t="n">
-        <v>4.559836611056546</v>
+        <v>0.03925712581767262</v>
       </c>
       <c r="F7" t="n">
-        <v>2.723656701221386</v>
+        <v>0.0304526207478957</v>
       </c>
       <c r="G7" t="n">
-        <v>16.21052631578947</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>8.970588235294118</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>27.16666666666667</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J7" t="n">
-        <v>19.78947368421053</v>
+        <v>0.1081081081081081</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_per_match</t>
+          <t>count_pass_attempts_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.437347155768208</v>
+        <v>0.07060074428495482</v>
       </c>
       <c r="C8" t="n">
-        <v>5.40289738195311</v>
+        <v>0.03388992043790805</v>
       </c>
       <c r="D8" t="n">
-        <v>1.533944474623018</v>
+        <v>108.32</v>
       </c>
       <c r="E8" t="n">
-        <v>2.55028669106786</v>
+        <v>0.04660292585056978</v>
       </c>
       <c r="F8" t="n">
-        <v>1.129626321362922</v>
+        <v>0.03298310000100904</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="H8" t="n">
-        <v>3.352941176470588</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11.36363636363636</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="J8" t="n">
-        <v>7.5</v>
+        <v>0.1081081081081081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dropping_off_runs_per_match</t>
+          <t>dropping_off_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.191121743753323</v>
+        <v>0.003520467836257311</v>
       </c>
       <c r="C9" t="n">
-        <v>2.650711473900329</v>
+        <v>0.001752589683549436</v>
       </c>
       <c r="D9" t="n">
-        <v>1.518107041402334</v>
+        <v>100.87</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7585107540081897</v>
+        <v>0.001146817770589489</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7680617114713238</v>
+        <v>0.001092939133417643</v>
       </c>
       <c r="G9" t="n">
-        <v>3.194444444444445</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1.617647058823529</v>
+        <v>0.0002777777777777778</v>
       </c>
       <c r="I9" t="n">
-        <v>5.083333333333333</v>
+        <v>0.004473684210526316</v>
       </c>
       <c r="J9" t="n">
-        <v>4.921052631578948</v>
+        <v>0.004210526315789474</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_coming_short_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.075757575757576</v>
+        <v>0.04875066454013822</v>
       </c>
       <c r="C10" t="n">
-        <v>6.059656173030786</v>
+        <v>0.02497574310267809</v>
       </c>
       <c r="D10" t="n">
-        <v>1.510593487830896</v>
+        <v>95.19</v>
       </c>
       <c r="E10" t="n">
-        <v>2.490030413485051</v>
+        <v>0.03863926903285281</v>
       </c>
       <c r="F10" t="n">
-        <v>1.184447046706225</v>
+        <v>0.02782009459311079</v>
       </c>
       <c r="G10" t="n">
-        <v>5.684210526315789</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.911764705882353</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>11.87878787878788</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J10" t="n">
-        <v>8.131578947368421</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dropping_off_runs_per_match</t>
+          <t>dropping_off_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.0103668261563</v>
+        <v>0.002927698032961191</v>
       </c>
       <c r="C11" t="n">
-        <v>2.532985294177245</v>
+        <v>0.001511505211195614</v>
       </c>
       <c r="D11" t="n">
-        <v>1.507396129932755</v>
+        <v>93.69</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7262466722109239</v>
+        <v>0.001156371028136139</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7585116511196296</v>
+        <v>0.001079289357633894</v>
       </c>
       <c r="G11" t="n">
-        <v>3.027777777777778</v>
+        <v>0.001666666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.805555555555555</v>
+        <v>0.004210526315789474</v>
       </c>
       <c r="J11" t="n">
-        <v>4.763157894736842</v>
+        <v>0.00368421052631579</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_coming_short_runs_threat_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06135007974481659</v>
+        <v>0.02264752791068581</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04183112218979092</v>
+        <v>0.01214882950177068</v>
       </c>
       <c r="D12" t="n">
-        <v>1.503058926396702</v>
+        <v>86.42</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01325164454762792</v>
+        <v>0.02496789704353155</v>
       </c>
       <c r="F12" t="n">
-        <v>0.009822745952378727</v>
+        <v>0.0157599146511331</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04105263157894737</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02205882352941177</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07696969696969697</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05918918918918919</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02135911749069644</v>
+        <v>0.01687931951089846</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01283249248636246</v>
+        <v>0.009117237538290168</v>
       </c>
       <c r="D13" t="n">
-        <v>1.50077720237629</v>
+        <v>85.14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.007870498155058579</v>
+        <v>0.01547451310773831</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003447565955380636</v>
+        <v>0.01665352644916904</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01131578947368421</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.007647058823529412</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03242424242424242</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01918918918918919</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>count_dropping_off_runs_by_teammate_per_match</t>
+          <t>count_completed_pass_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.069670388091442</v>
+        <v>0.4206539074960127</v>
       </c>
       <c r="C14" t="n">
-        <v>5.935412179947784</v>
+        <v>0.240555738775553</v>
       </c>
       <c r="D14" t="n">
-        <v>1.457138982613057</v>
+        <v>74.87</v>
       </c>
       <c r="E14" t="n">
-        <v>1.618519954051086</v>
+        <v>0.1825155830001036</v>
       </c>
       <c r="F14" t="n">
-        <v>1.660969912847941</v>
+        <v>0.08261599303136892</v>
       </c>
       <c r="G14" t="n">
-        <v>7.027777777777778</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H14" t="n">
-        <v>3.705882352941177</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="I14" t="n">
-        <v>11.33333333333333</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="J14" t="n">
-        <v>10.78947368421053</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_dropping_off_runs_in_sample</t>
+          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.685592769803296</v>
+        <v>0.1609250398724083</v>
       </c>
       <c r="C15" t="n">
-        <v>5.716916677675191</v>
+        <v>0.09349660363592253</v>
       </c>
       <c r="D15" t="n">
-        <v>1.451504406622664</v>
+        <v>72.12</v>
       </c>
       <c r="E15" t="n">
-        <v>1.638785598172046</v>
+        <v>0.01852587257434432</v>
       </c>
       <c r="F15" t="n">
-        <v>1.567946526198054</v>
+        <v>0.07025673482309791</v>
       </c>
       <c r="G15" t="n">
-        <v>6.583333333333333</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="H15" t="n">
-        <v>3.441176470588236</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.97222222222222</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="J15" t="n">
-        <v>10.23684210526316</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_dropping_off_runs_per_match</t>
+          <t>count_pass_attempts_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.685592769803296</v>
+        <v>0.6920786815523657</v>
       </c>
       <c r="C16" t="n">
-        <v>5.716916677675191</v>
+        <v>0.4133120489931635</v>
       </c>
       <c r="D16" t="n">
-        <v>1.451504406622664</v>
+        <v>67.45</v>
       </c>
       <c r="E16" t="n">
-        <v>1.638785598172046</v>
+        <v>0.2766301309044565</v>
       </c>
       <c r="F16" t="n">
-        <v>1.567946526198054</v>
+        <v>0.1317519576410871</v>
       </c>
       <c r="G16" t="n">
-        <v>6.583333333333333</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="H16" t="n">
-        <v>3.441176470588236</v>
+        <v>0.25</v>
       </c>
       <c r="I16" t="n">
-        <v>10.97222222222222</v>
+        <v>1.078947368421053</v>
       </c>
       <c r="J16" t="n">
-        <v>10.23684210526316</v>
+        <v>0.6388888888888888</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>coming_short_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.160287081339713</v>
+        <v>0.02135911749069644</v>
       </c>
       <c r="C17" t="n">
-        <v>1.69675131634884</v>
+        <v>0.01283249248636246</v>
       </c>
       <c r="D17" t="n">
-        <v>1.419904585617662</v>
+        <v>66.45</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3694673443946401</v>
+        <v>0.007870498155058579</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3600007275425254</v>
+        <v>0.003447565955380636</v>
       </c>
       <c r="G17" t="n">
-        <v>1.611111111111111</v>
+        <v>0.01131578947368421</v>
       </c>
       <c r="H17" t="n">
-        <v>1.028571428571428</v>
+        <v>0.007647058823529412</v>
       </c>
       <c r="I17" t="n">
-        <v>2.555555555555555</v>
+        <v>0.03242424242424242</v>
       </c>
       <c r="J17" t="n">
-        <v>2.583333333333333</v>
+        <v>0.01918918918918919</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_leading_to_goal_per_match</t>
+          <t>count_completed_pass_to_support_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.09463051568314726</v>
+        <v>0.1321371610845295</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04062892767227133</v>
+        <v>0.07986529822443135</v>
       </c>
       <c r="D18" t="n">
-        <v>1.417762410016672</v>
+        <v>65.45</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0444429817961492</v>
+        <v>0.08510527662611968</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02992670135405195</v>
+        <v>0.05627161492235732</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>underlap_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.139606592238171</v>
+        <v>0.0250776182881446</v>
       </c>
       <c r="C19" t="n">
-        <v>2.562089867229186</v>
+        <v>0.01531176609195185</v>
       </c>
       <c r="D19" t="n">
-        <v>1.414040960485301</v>
+        <v>63.78</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5171623132421171</v>
+        <v>0.009839165245293525</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3946994386337258</v>
+        <v>0.005358975728870571</v>
       </c>
       <c r="G19" t="n">
-        <v>2.444444444444445</v>
+        <v>0.01472222222222222</v>
       </c>
       <c r="H19" t="n">
-        <v>1.685714285714286</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="I19" t="n">
-        <v>3.833333333333333</v>
+        <v>0.03606060606060606</v>
       </c>
       <c r="J19" t="n">
-        <v>3.416666666666667</v>
+        <v>0.02947368421052632</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_runs_in_behind_threat_per_match</t>
+          <t>pass_opportunities_to_dropping_off_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7324946836788943</v>
+        <v>0.007707336523125996</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5840615768543013</v>
+        <v>0.004719135229197148</v>
       </c>
       <c r="D20" t="n">
-        <v>1.406514895440906</v>
+        <v>63.32</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08211390507039952</v>
+        <v>0.002510373356148318</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07699856364071146</v>
+        <v>0.001639216316435377</v>
       </c>
       <c r="G20" t="n">
-        <v>0.64</v>
+        <v>0.004722222222222222</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4526923076923077</v>
+        <v>0.001538461538461538</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8442424242424242</v>
+        <v>0.01157894736842105</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7044736842105263</v>
+        <v>0.007894736842105263</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_wide_runs_per_match</t>
+          <t>coming_short_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.201169590643275</v>
+        <v>0.0249845826687932</v>
       </c>
       <c r="C21" t="n">
-        <v>4.747585306532676</v>
+        <v>0.01546452783372288</v>
       </c>
       <c r="D21" t="n">
-        <v>1.405070237390428</v>
+        <v>61.56</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2916320385722768</v>
+        <v>0.00689241493404291</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8480400210466086</v>
+        <v>0.003770201556407527</v>
       </c>
       <c r="G21" t="n">
-        <v>5.763157894736842</v>
+        <v>0.01657894736842105</v>
       </c>
       <c r="H21" t="n">
-        <v>3.307692307692307</v>
+        <v>0.009411764705882354</v>
       </c>
       <c r="I21" t="n">
-        <v>6.555555555555555</v>
+        <v>0.03363636363636364</v>
       </c>
       <c r="J21" t="n">
-        <v>6.815789473684211</v>
+        <v>0.02216216216216216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_overlap_runs_per_match</t>
+          <t>underlap_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.293328017012227</v>
+        <v>0.03908054226475279</v>
       </c>
       <c r="C22" t="n">
-        <v>3.676710593661058</v>
+        <v>0.02456981966827169</v>
       </c>
       <c r="D22" t="n">
-        <v>1.401420391125402</v>
+        <v>59.06</v>
       </c>
       <c r="E22" t="n">
-        <v>1.298377862216179</v>
+        <v>0.01478348891510124</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7793220484574219</v>
+        <v>0.007151419289498103</v>
       </c>
       <c r="G22" t="n">
-        <v>3.736842105263158</v>
+        <v>0.025</v>
       </c>
       <c r="H22" t="n">
-        <v>1.794117647058824</v>
+        <v>0.01722222222222222</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>0.0568421052631579</v>
       </c>
       <c r="J22" t="n">
-        <v>5.083333333333333</v>
+        <v>0.04105263157894737</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_runs_in_behind_per_match</t>
+          <t>count_completed_pass_to_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12.99269005847953</v>
+        <v>4.0103668261563</v>
       </c>
       <c r="C23" t="n">
-        <v>10.39697044661441</v>
+        <v>2.532985294177245</v>
       </c>
       <c r="D23" t="n">
-        <v>1.399065614003683</v>
+        <v>58.33</v>
       </c>
       <c r="E23" t="n">
-        <v>1.773999765622277</v>
+        <v>0.7262466722109239</v>
       </c>
       <c r="F23" t="n">
-        <v>1.455802489423242</v>
+        <v>0.7585116511196296</v>
       </c>
       <c r="G23" t="n">
-        <v>11.08333333333333</v>
+        <v>3.027777777777778</v>
       </c>
       <c r="H23" t="n">
-        <v>8.384615384615385</v>
+        <v>1.5</v>
       </c>
       <c r="I23" t="n">
-        <v>15</v>
+        <v>4.805555555555555</v>
       </c>
       <c r="J23" t="n">
-        <v>12.81578947368421</v>
+        <v>4.763157894736842</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_underlap_runs_per_match</t>
+          <t>count_pass_attempts_to_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4206539074960127</v>
+        <v>4.191121743753323</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2405557387755531</v>
+        <v>2.650711473900328</v>
       </c>
       <c r="D24" t="n">
-        <v>1.369299839460808</v>
+        <v>58.11</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1825155830001036</v>
+        <v>0.7585107540081897</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08261599303136892</v>
+        <v>0.7680617114713238</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2222222222222222</v>
+        <v>3.194444444444445</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1388888888888889</v>
+        <v>1.617647058823529</v>
       </c>
       <c r="I24" t="n">
-        <v>0.631578947368421</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3888888888888889</v>
+        <v>4.921052631578948</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_dropping_off_runs</t>
+          <t>count_completed_pass_to_cross_receiver_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>272.8403636363636</v>
+        <v>0.2559808612440191</v>
       </c>
       <c r="C25" t="n">
-        <v>193.9277470225848</v>
+        <v>0.1633710293153018</v>
       </c>
       <c r="D25" t="n">
-        <v>1.366709079957472</v>
+        <v>56.69</v>
       </c>
       <c r="E25" t="n">
-        <v>33.38506099686889</v>
+        <v>0.09708642583547565</v>
       </c>
       <c r="F25" t="n">
-        <v>49.93513520523717</v>
+        <v>0.09880447201513673</v>
       </c>
       <c r="G25" t="n">
-        <v>225.6944444444445</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="H25" t="n">
-        <v>122.0588235294118</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="I25" t="n">
-        <v>308.7038888888889</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="J25" t="n">
-        <v>329.8247368421053</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_underlap_runs_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6920786815523657</v>
+        <v>8.437347155768208</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4133120489931635</v>
+        <v>5.40289738195311</v>
       </c>
       <c r="D26" t="n">
-        <v>1.356858270172759</v>
+        <v>56.16</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2766301309044565</v>
+        <v>2.55028669106786</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1317519576410871</v>
+        <v>1.129626321362922</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3157894736842105</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
-        <v>0.25</v>
+        <v>3.352941176470588</v>
       </c>
       <c r="I26" t="n">
-        <v>1.078947368421053</v>
+        <v>11.36363636363636</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6388888888888888</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_pulling_wide_runs_in_sample</t>
+          <t>count_completed_pass_to_coming_short_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.17809675704413</v>
+        <v>0.2353003721424774</v>
       </c>
       <c r="C27" t="n">
-        <v>11.16443559863064</v>
+        <v>0.1517649177091902</v>
       </c>
       <c r="D27" t="n">
-        <v>1.335435000734745</v>
+        <v>55.04</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9406842430761921</v>
+        <v>0.1253309874930358</v>
       </c>
       <c r="F27" t="n">
-        <v>1.871268119446379</v>
+        <v>0.08752001070411219</v>
       </c>
       <c r="G27" t="n">
-        <v>12.66666666666667</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H27" t="n">
-        <v>7.676470588235294</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="I27" t="n">
-        <v>15.21052631578947</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="J27" t="n">
-        <v>15.3421052631579</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_pulling_wide_runs_per_match</t>
+          <t>count_completed_pass_to_overlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14.17809675704413</v>
+        <v>0.5725412014885699</v>
       </c>
       <c r="C28" t="n">
-        <v>11.16443559863064</v>
+        <v>0.3707704109716494</v>
       </c>
       <c r="D28" t="n">
-        <v>1.335435000734745</v>
+        <v>54.42</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9406842430761921</v>
+        <v>0.1624745707147808</v>
       </c>
       <c r="F28" t="n">
-        <v>1.871268119446379</v>
+        <v>0.1596458673489209</v>
       </c>
       <c r="G28" t="n">
-        <v>12.66666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H28" t="n">
-        <v>7.676470588235294</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="I28" t="n">
-        <v>15.21052631578947</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="J28" t="n">
-        <v>15.3421052631579</v>
+        <v>0.6052631578947368</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_dropping_off_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.003520467836257311</v>
+        <v>9.069670388091442</v>
       </c>
       <c r="C29" t="n">
-        <v>0.001752589683549436</v>
+        <v>5.935412179947783</v>
       </c>
       <c r="D29" t="n">
-        <v>1.327253350294876</v>
+        <v>52.81</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001146817770589489</v>
+        <v>1.618519954051086</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001092939133417643</v>
+        <v>1.660969912847941</v>
       </c>
       <c r="G29" t="n">
-        <v>0.001666666666666667</v>
+        <v>7.027777777777778</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0002777777777777778</v>
+        <v>3.705882352941177</v>
       </c>
       <c r="I29" t="n">
-        <v>0.004473684210526316</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="J29" t="n">
-        <v>0.004210526315789474</v>
+        <v>10.78947368421053</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_overlap_runs_in_sample</t>
+          <t>count_opportunities_to_pass_to_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.76576289207868</v>
+        <v>8.685592769803296</v>
       </c>
       <c r="C30" t="n">
-        <v>7.033932277631968</v>
+        <v>5.716916677675191</v>
       </c>
       <c r="D30" t="n">
-        <v>1.322133003530447</v>
+        <v>51.93</v>
       </c>
       <c r="E30" t="n">
-        <v>2.510649100167856</v>
+        <v>1.638785598172046</v>
       </c>
       <c r="F30" t="n">
-        <v>1.444755714892453</v>
+        <v>1.567946526198054</v>
       </c>
       <c r="G30" t="n">
-        <v>6.763157894736842</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>3.617647058823529</v>
+        <v>3.441176470588236</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>10.97222222222222</v>
       </c>
       <c r="J30" t="n">
-        <v>9.026315789473685</v>
+        <v>10.23684210526316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_overlap_runs_per_match</t>
+          <t>count_pass_attempts_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.76576289207868</v>
+        <v>9.075757575757576</v>
       </c>
       <c r="C31" t="n">
-        <v>7.033932277631967</v>
+        <v>6.059656173030786</v>
       </c>
       <c r="D31" t="n">
-        <v>1.322133003530447</v>
+        <v>49.77</v>
       </c>
       <c r="E31" t="n">
-        <v>2.510649100167856</v>
+        <v>2.490030413485051</v>
       </c>
       <c r="F31" t="n">
-        <v>1.444755714892453</v>
+        <v>1.184447046706225</v>
       </c>
       <c r="G31" t="n">
-        <v>6.763157894736842</v>
+        <v>5.684210526315789</v>
       </c>
       <c r="H31" t="n">
-        <v>3.617647058823529</v>
+        <v>3.911764705882353</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>11.87878787878788</v>
       </c>
       <c r="J31" t="n">
-        <v>9.026315789473685</v>
+        <v>8.131578947368421</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_wide_runs_by_teammate_per_match</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14.56326422115896</v>
+        <v>0.1902179691653376</v>
       </c>
       <c r="C32" t="n">
-        <v>11.48337532357656</v>
+        <v>0.1277860516250609</v>
       </c>
       <c r="D32" t="n">
-        <v>1.320537053796114</v>
+        <v>48.86</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9438480824826646</v>
+        <v>0.08358728402233906</v>
       </c>
       <c r="F32" t="n">
-        <v>1.973549312288972</v>
+        <v>0.09594763253194165</v>
       </c>
       <c r="G32" t="n">
-        <v>13.02777777777778</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H32" t="n">
-        <v>7.882352941176471</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>15.57894736842105</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="J32" t="n">
-        <v>15.81578947368421</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_by_teammate_per_match</t>
+          <t>pass_opportunities_to_coming_short_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.909223817118555</v>
+        <v>0.06135007974481659</v>
       </c>
       <c r="C33" t="n">
-        <v>7.134457910262864</v>
+        <v>0.04183112218979092</v>
       </c>
       <c r="D33" t="n">
-        <v>1.318040775854424</v>
+        <v>46.66</v>
       </c>
       <c r="E33" t="n">
-        <v>2.558864270249696</v>
+        <v>0.01325164454762792</v>
       </c>
       <c r="F33" t="n">
-        <v>1.47160142984801</v>
+        <v>0.009822745952378727</v>
       </c>
       <c r="G33" t="n">
-        <v>6.868421052631579</v>
+        <v>0.04105263157894737</v>
       </c>
       <c r="H33" t="n">
-        <v>3.617647058823529</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="I33" t="n">
-        <v>13.21052631578947</v>
+        <v>0.07696969696969697</v>
       </c>
       <c r="J33" t="n">
-        <v>9.184210526315789</v>
+        <v>0.05918918918918919</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_to_which_pass_attempted_threat_per_match</t>
+          <t>pass_opportunities_to_underlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3569954811270601</v>
+        <v>0.07815523657628923</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2836865269447312</v>
+        <v>0.05362083613569682</v>
       </c>
       <c r="D34" t="n">
-        <v>1.314080706827038</v>
+        <v>45.76</v>
       </c>
       <c r="E34" t="n">
-        <v>0.055015202699941</v>
+        <v>0.03998705912514466</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04490121791396214</v>
+        <v>0.0124422308366066</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3113157894736842</v>
+        <v>0.03842105263157895</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2103846153846154</v>
+        <v>0.03555555555555556</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4406060606060606</v>
+        <v>0.1357894736842105</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3744444444444445</v>
+        <v>0.08416666666666667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0250776182881446</v>
+        <v>1.251780967570441</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01531176609195185</v>
+        <v>0.861705097401692</v>
       </c>
       <c r="D35" t="n">
-        <v>1.312510950720391</v>
+        <v>45.27</v>
       </c>
       <c r="E35" t="n">
-        <v>0.009839165245293525</v>
+        <v>0.5687485755662852</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005358975728870571</v>
+        <v>0.3391248091827965</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01472222222222222</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="H35" t="n">
-        <v>0.008888888888888889</v>
+        <v>0.5</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03606060606060606</v>
+        <v>1.878787878787879</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02947368421052632</v>
+        <v>1.842105263157895</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_to_which_pass_attempted_threat_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2340180754917597</v>
+        <v>1.315816055289739</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1928400670871259</v>
+        <v>0.9083208008130608</v>
       </c>
       <c r="D36" t="n">
-        <v>1.310485652945291</v>
+        <v>44.86</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04185769988797056</v>
+        <v>0.6732986118292963</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02652012705821316</v>
+        <v>0.2403253800581451</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1888888888888889</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1322857142857143</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2809090909090909</v>
+        <v>2.342105263157895</v>
       </c>
       <c r="J36" t="n">
-        <v>0.24</v>
+        <v>1.361111111111111</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_pass_attempts_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.03908054226475279</v>
+        <v>5.293328017012227</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02456981966827169</v>
+        <v>3.676710593661058</v>
       </c>
       <c r="D37" t="n">
-        <v>1.309603454506618</v>
+        <v>43.97</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01478348891510124</v>
+        <v>1.298377862216179</v>
       </c>
       <c r="F37" t="n">
-        <v>0.007151419289498103</v>
+        <v>0.7793220484574219</v>
       </c>
       <c r="G37" t="n">
-        <v>0.025</v>
+        <v>3.736842105263158</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01722222222222222</v>
+        <v>1.794117647058824</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0568421052631579</v>
+        <v>7</v>
       </c>
       <c r="J37" t="n">
-        <v>0.04105263157894737</v>
+        <v>5.083333333333333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_per_match</t>
+          <t>count_coming_short_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.137320574162679</v>
+        <v>21.92259436469963</v>
       </c>
       <c r="C38" t="n">
-        <v>2.912222158537948</v>
+        <v>15.24728498358529</v>
       </c>
       <c r="D38" t="n">
-        <v>1.307464492378136</v>
+        <v>43.78</v>
       </c>
       <c r="E38" t="n">
-        <v>1.193543786461426</v>
+        <v>4.559836611056546</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6437641101682281</v>
+        <v>2.723656701221386</v>
       </c>
       <c r="G38" t="n">
-        <v>2.657894736842105</v>
+        <v>16.21052631578947</v>
       </c>
       <c r="H38" t="n">
-        <v>1.264705882352941</v>
+        <v>8.970588235294118</v>
       </c>
       <c r="I38" t="n">
-        <v>5.710526315789473</v>
+        <v>27.16666666666667</v>
       </c>
       <c r="J38" t="n">
-        <v>3.833333333333333</v>
+        <v>19.78947368421053</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_to_which_pass_completed_threat_per_match</t>
+          <t>count_opportunities_to_pass_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1703508771929825</v>
+        <v>20.75704412546518</v>
       </c>
       <c r="C39" t="n">
-        <v>0.128257151549876</v>
+        <v>14.45409842922227</v>
       </c>
       <c r="D39" t="n">
-        <v>1.303408088408664</v>
+        <v>43.61</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03241676791050085</v>
+        <v>4.1352418021065</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02527464306668938</v>
+        <v>2.58094224284664</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1363157894736842</v>
+        <v>15.3421052631579</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09351351351351352</v>
+        <v>8.735294117647058</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2133333333333333</v>
+        <v>25.52777777777778</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1816216216216216</v>
+        <v>18.71052631578947</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_dropping_off_runs_threat_per_match</t>
+          <t>pass_completion_ratio_to_dropping_off_runs</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.007707336523125996</v>
+        <v>21.01837023079407</v>
       </c>
       <c r="C40" t="n">
-        <v>0.004719135229197148</v>
+        <v>14.76803803694954</v>
       </c>
       <c r="D40" t="n">
-        <v>1.299595063846032</v>
+        <v>42.32</v>
       </c>
       <c r="E40" t="n">
-        <v>0.002510373356148318</v>
+        <v>2.763509334991506</v>
       </c>
       <c r="F40" t="n">
-        <v>0.001639216316435377</v>
+        <v>3.80662895122379</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004722222222222222</v>
+        <v>16.79432450265784</v>
       </c>
       <c r="H40" t="n">
-        <v>0.001538461538461538</v>
+        <v>9.158782394076511</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01157894736842105</v>
+        <v>23.53001531363374</v>
       </c>
       <c r="J40" t="n">
-        <v>0.007894736842105263</v>
+        <v>24.79931198187777</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_overlap_runs_threat_per_match</t>
+          <t>count_completed_pass_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1261562998405104</v>
+        <v>4.137320574162679</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09090690446340602</v>
+        <v>2.912222158537948</v>
       </c>
       <c r="D41" t="n">
-        <v>1.296777857845777</v>
+        <v>42.07</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03388403707017947</v>
+        <v>1.193543786461426</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02083702382423889</v>
+        <v>0.6437641101682281</v>
       </c>
       <c r="G41" t="n">
-        <v>0.08263157894736843</v>
+        <v>2.657894736842105</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04823529411764706</v>
+        <v>1.264705882352941</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1742105263157895</v>
+        <v>5.710526315789473</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1213157894736842</v>
+        <v>3.833333333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>pass_completion_ratio_to_underlap_runs</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.06679718234981394</v>
+        <v>8.030508624195228</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04861688470016644</v>
+        <v>5.699320521379111</v>
       </c>
       <c r="D42" t="n">
-        <v>1.294900492402796</v>
+        <v>40.9</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01539676269851974</v>
+        <v>3.333732385933883</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01219744123268287</v>
+        <v>1.902630130248079</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04447368421052631</v>
+        <v>5.119040496540497</v>
       </c>
       <c r="H42" t="n">
-        <v>0.02264705882352941</v>
+        <v>3.588590896283204</v>
       </c>
       <c r="I42" t="n">
-        <v>0.08605263157894737</v>
+        <v>12.53867422051633</v>
       </c>
       <c r="J42" t="n">
-        <v>0.06736842105263158</v>
+        <v>10.38232600732601</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_to_which_pass_completed_threat_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1680417331206805</v>
+        <v>1.415364167995747</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1346827798590957</v>
+        <v>1.009944966740632</v>
       </c>
       <c r="D43" t="n">
-        <v>1.287382682560353</v>
+        <v>40.14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03727744254124315</v>
+        <v>0.4346533618383672</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02393215019938939</v>
+        <v>0.2625587391707159</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1278947368421053</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="H43" t="n">
-        <v>0.08657142857142856</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="I43" t="n">
-        <v>0.213030303030303</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1854166666666667</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_runs_in_behind_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.05258904837852206</v>
+        <v>0.2245614035087719</v>
       </c>
       <c r="C44" t="n">
-        <v>0.03783609767866734</v>
+        <v>0.16074123369789</v>
       </c>
       <c r="D44" t="n">
-        <v>1.247616300833527</v>
+        <v>39.7</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01408770508782789</v>
+        <v>0.09375324168215329</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01036590595022292</v>
+        <v>0.07816888951910041</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03263157894736842</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01558823529411765</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="I44" t="n">
-        <v>0.07026315789473685</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J44" t="n">
-        <v>0.05352941176470588</v>
+        <v>0.2972972972972973</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_pulling_wide_runs_per_match</t>
+          <t>count_pass_attempts_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6.948936735778841</v>
+        <v>0.772461456671983</v>
       </c>
       <c r="C45" t="n">
-        <v>5.657527439493384</v>
+        <v>0.554121639415757</v>
       </c>
       <c r="D45" t="n">
-        <v>1.239423131724661</v>
+        <v>39.4</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3398735610758218</v>
+        <v>0.2090990724852695</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8969355587174642</v>
+        <v>0.1617233594834925</v>
       </c>
       <c r="G45" t="n">
-        <v>6.447368421052632</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H45" t="n">
-        <v>3.846153846153846</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="I45" t="n">
-        <v>7.333333333333333</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="J45" t="n">
-        <v>7.684210526315789</v>
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_runs_in_behind_per_match</t>
+          <t>overlap_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6.136842105263158</v>
+        <v>0.05258904837852206</v>
       </c>
       <c r="C46" t="n">
-        <v>4.968884861965356</v>
+        <v>0.03783609767866734</v>
       </c>
       <c r="D46" t="n">
-        <v>1.222643748710103</v>
+        <v>38.99</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9164839582130793</v>
+        <v>0.01408770508782789</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9320900922517436</v>
+        <v>0.01036590595022292</v>
       </c>
       <c r="G46" t="n">
-        <v>5.052631578947368</v>
+        <v>0.03263157894736842</v>
       </c>
       <c r="H46" t="n">
-        <v>3.769230769230769</v>
+        <v>0.01558823529411765</v>
       </c>
       <c r="I46" t="n">
-        <v>7.333333333333333</v>
+        <v>0.07026315789473685</v>
       </c>
       <c r="J46" t="n">
-        <v>6.416666666666667</v>
+        <v>0.05352941176470588</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_overlap_runs_per_match</t>
+          <t>count_completed_pass_to_underlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.415364167995747</v>
+        <v>0.1987772461456672</v>
       </c>
       <c r="C47" t="n">
-        <v>1.009944966740632</v>
+        <v>0.1430112819586503</v>
       </c>
       <c r="D47" t="n">
-        <v>1.213321782170546</v>
+        <v>38.99</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4346533618383672</v>
+        <v>0.09238076473647858</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2625587391707159</v>
+        <v>0.08875550393671731</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="H47" t="n">
-        <v>0.6764705882352942</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.916666666666667</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="J47" t="n">
-        <v>1.5</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_overlap_runs_per_match</t>
+          <t>count_overlap_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.772461456671983</v>
+        <v>9.909223817118555</v>
       </c>
       <c r="C48" t="n">
-        <v>0.554121639415757</v>
+        <v>7.134457910262864</v>
       </c>
       <c r="D48" t="n">
-        <v>1.198060956627603</v>
+        <v>38.89</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2090990724852695</v>
+        <v>2.558864270249696</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1617233594834925</v>
+        <v>1.47160142984801</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4736842105263158</v>
+        <v>6.868421052631579</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3076923076923077</v>
+        <v>3.617647058823529</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9722222222222222</v>
+        <v>13.21052631578947</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8157894736842105</v>
+        <v>9.184210526315789</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_coming_short_runs</t>
+          <t>count_opportunities_to_pass_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>422.2920451887294</v>
+        <v>9.76576289207868</v>
       </c>
       <c r="C49" t="n">
-        <v>339.7402386079901</v>
+        <v>7.033932277631968</v>
       </c>
       <c r="D49" t="n">
-        <v>1.191261667824141</v>
+        <v>38.84</v>
       </c>
       <c r="E49" t="n">
-        <v>83.63047363236633</v>
+        <v>2.510649100167856</v>
       </c>
       <c r="F49" t="n">
-        <v>55.51390187546353</v>
+        <v>1.444755714892453</v>
       </c>
       <c r="G49" t="n">
-        <v>289.0573684210526</v>
+        <v>6.763157894736842</v>
       </c>
       <c r="H49" t="n">
-        <v>225.9805882352941</v>
+        <v>3.617647058823529</v>
       </c>
       <c r="I49" t="n">
-        <v>519.6972727272727</v>
+        <v>13</v>
       </c>
       <c r="J49" t="n">
-        <v>421.645</v>
+        <v>9.026315789473685</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_ahead_of_the_ball_per_match</t>
+          <t>pass_opportunities_to_overlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>41.0829346092504</v>
+        <v>0.1261562998405104</v>
       </c>
       <c r="C50" t="n">
-        <v>35.34740188032757</v>
+        <v>0.09090690446340602</v>
       </c>
       <c r="D50" t="n">
-        <v>1.189997365581827</v>
+        <v>38.78</v>
       </c>
       <c r="E50" t="n">
-        <v>7.894947265823874</v>
+        <v>0.03388403707017947</v>
       </c>
       <c r="F50" t="n">
-        <v>2.889248277923943</v>
+        <v>0.02083702382423889</v>
       </c>
       <c r="G50" t="n">
-        <v>29.5</v>
+        <v>0.08263157894736843</v>
       </c>
       <c r="H50" t="n">
-        <v>31.37142857142857</v>
+        <v>0.04823529411764706</v>
       </c>
       <c r="I50" t="n">
-        <v>50.81818181818182</v>
+        <v>0.1742105263157895</v>
       </c>
       <c r="J50" t="n">
-        <v>41.89473684210526</v>
+        <v>0.1213157894736842</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_ahead_of_the_ball_in_sample</t>
+          <t>count_completed_pass_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>41.0829346092504</v>
+        <v>0.5838383838383838</v>
       </c>
       <c r="C51" t="n">
-        <v>35.34740188032757</v>
+        <v>0.4219985424474588</v>
       </c>
       <c r="D51" t="n">
-        <v>1.189997365581827</v>
+        <v>38.35</v>
       </c>
       <c r="E51" t="n">
-        <v>7.894947265823874</v>
+        <v>0.1371095085784541</v>
       </c>
       <c r="F51" t="n">
-        <v>2.889248277923943</v>
+        <v>0.1269475425694791</v>
       </c>
       <c r="G51" t="n">
-        <v>29.5</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="H51" t="n">
-        <v>31.37142857142857</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="I51" t="n">
-        <v>50.81818181818182</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="J51" t="n">
-        <v>41.89473684210526</v>
+        <v>0.6052631578947368</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_in_behind_per_match</t>
+          <t>overlap_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>25.49572036150984</v>
+        <v>0.06679718234981394</v>
       </c>
       <c r="C52" t="n">
-        <v>21.0119266805335</v>
+        <v>0.04861688470016644</v>
       </c>
       <c r="D52" t="n">
-        <v>1.181629917715004</v>
+        <v>37.4</v>
       </c>
       <c r="E52" t="n">
-        <v>2.334168368089303</v>
+        <v>0.01539676269851974</v>
       </c>
       <c r="F52" t="n">
-        <v>3.140645698433149</v>
+        <v>0.01219744123268287</v>
       </c>
       <c r="G52" t="n">
-        <v>22.75</v>
+        <v>0.04447368421052631</v>
       </c>
       <c r="H52" t="n">
-        <v>14.53846153846154</v>
+        <v>0.02264705882352941</v>
       </c>
       <c r="I52" t="n">
-        <v>28.51515151515152</v>
+        <v>0.08605263157894737</v>
       </c>
       <c r="J52" t="n">
-        <v>26.10526315789474</v>
+        <v>0.06736842105263158</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_in_behind_in_sample</t>
+          <t>count_pass_attempts_to_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>25.49572036150984</v>
+        <v>1.874109516214779</v>
       </c>
       <c r="C53" t="n">
-        <v>21.01192668053349</v>
+        <v>1.36515960011316</v>
       </c>
       <c r="D53" t="n">
-        <v>1.181629917715004</v>
+        <v>37.28</v>
       </c>
       <c r="E53" t="n">
-        <v>2.334168368089303</v>
+        <v>0.8149169058290308</v>
       </c>
       <c r="F53" t="n">
-        <v>3.140645698433149</v>
+        <v>0.4221810782229654</v>
       </c>
       <c r="G53" t="n">
-        <v>22.75</v>
+        <v>1.138888888888889</v>
       </c>
       <c r="H53" t="n">
-        <v>14.53846153846154</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="I53" t="n">
-        <v>28.51515151515152</v>
+        <v>2.763157894736842</v>
       </c>
       <c r="J53" t="n">
-        <v>26.10526315789474</v>
+        <v>2.421052631578947</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_pulling_wide_runs</t>
+          <t>count_completed_pass_to_pulling_wide_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>383.0961810207337</v>
+        <v>0.2382509303561935</v>
       </c>
       <c r="C54" t="n">
-        <v>320.1601082474166</v>
+        <v>0.1759954574041261</v>
       </c>
       <c r="D54" t="n">
-        <v>1.170994661095265</v>
+        <v>35.37</v>
       </c>
       <c r="E54" t="n">
-        <v>20.30083352221527</v>
+        <v>0.05894793922278726</v>
       </c>
       <c r="F54" t="n">
-        <v>48.24177131407948</v>
+        <v>0.07611795573018633</v>
       </c>
       <c r="G54" t="n">
-        <v>351.5728947368421</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="H54" t="n">
-        <v>230.1284615384616</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="I54" t="n">
-        <v>405.4545454545454</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J54" t="n">
-        <v>433.9036842105263</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_opportunities_to_pass_to_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01481632110579479</v>
+        <v>3.854492291334397</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01139389391603014</v>
+        <v>2.87751236419967</v>
       </c>
       <c r="D55" t="n">
-        <v>1.170498514052079</v>
+        <v>33.95</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002588378020452084</v>
+        <v>1.755132211642269</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002649874107172696</v>
+        <v>0.783211066934259</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01138888888888889</v>
+        <v>1.947368421052632</v>
       </c>
       <c r="H55" t="n">
-        <v>0.005</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="I55" t="n">
-        <v>0.01757575757575757</v>
+        <v>5.921052631578948</v>
       </c>
       <c r="J55" t="n">
-        <v>0.016</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_overlap_runs_per_match</t>
+          <t>count_underlap_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.5838383838383838</v>
+        <v>3.91347687400319</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4219985424474588</v>
+        <v>2.935170938297873</v>
       </c>
       <c r="D56" t="n">
-        <v>1.166308308070333</v>
+        <v>33.33</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1371095085784541</v>
+        <v>1.754844870546226</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1269475425694791</v>
+        <v>0.8003134823506522</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3947368421052632</v>
+        <v>2.078947368421053</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2307692307692308</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7222222222222222</v>
+        <v>6.026315789473684</v>
       </c>
       <c r="J56" t="n">
-        <v>0.6052631578947368</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_by_teammate_per_match</t>
+          <t>runs_in_behind_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>28.62674109516215</v>
+        <v>0.1703508771929825</v>
       </c>
       <c r="C57" t="n">
-        <v>23.62952434062341</v>
+        <v>0.128257151549876</v>
       </c>
       <c r="D57" t="n">
-        <v>1.16560621854946</v>
+        <v>32.82</v>
       </c>
       <c r="E57" t="n">
-        <v>2.63073088535929</v>
+        <v>0.03241676791050085</v>
       </c>
       <c r="F57" t="n">
-        <v>3.644748328855818</v>
+        <v>0.02527464306668938</v>
       </c>
       <c r="G57" t="n">
-        <v>25.30555555555556</v>
+        <v>0.1363157894736842</v>
       </c>
       <c r="H57" t="n">
-        <v>16.38461538461538</v>
+        <v>0.09351351351351352</v>
       </c>
       <c r="I57" t="n">
-        <v>32.06060606060606</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="J57" t="n">
-        <v>29.11111111111111</v>
+        <v>0.1816216216216216</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_support_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.002927698032961191</v>
+        <v>1.179053694843168</v>
       </c>
       <c r="C58" t="n">
-        <v>0.001511505211195613</v>
+        <v>0.8925146324836727</v>
       </c>
       <c r="D58" t="n">
-        <v>1.154030430048839</v>
+        <v>32.1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001156371028136139</v>
+        <v>0.4101147361485835</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001079289357633894</v>
+        <v>0.2738250933187529</v>
       </c>
       <c r="G58" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="I58" t="n">
-        <v>0.004210526315789474</v>
+        <v>1.868421052631579</v>
       </c>
       <c r="J58" t="n">
-        <v>0.00368421052631579</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.5725412014885699</v>
+        <v>6.201169590643275</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3707704109716494</v>
+        <v>4.747585306532676</v>
       </c>
       <c r="D59" t="n">
-        <v>1.137747113583899</v>
+        <v>30.62</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1624745707147808</v>
+        <v>0.2916320385722768</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1596458673489209</v>
+        <v>0.8480400210466086</v>
       </c>
       <c r="G59" t="n">
-        <v>0.4444444444444444</v>
+        <v>5.763157894736842</v>
       </c>
       <c r="H59" t="n">
-        <v>0.02941176470588235</v>
+        <v>3.307692307692307</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8421052631578947</v>
+        <v>6.555555555555555</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6052631578947368</v>
+        <v>6.815789473684211</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_by_teammate_per_match</t>
+          <t>pulling_wide_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>47.69989367357788</v>
+        <v>0.01481632110579479</v>
       </c>
       <c r="C60" t="n">
-        <v>41.73955136165662</v>
+        <v>0.01139389391603014</v>
       </c>
       <c r="D60" t="n">
-        <v>1.132429377798983</v>
+        <v>30.04</v>
       </c>
       <c r="E60" t="n">
-        <v>9.140860466962945</v>
+        <v>0.002588378020452085</v>
       </c>
       <c r="F60" t="n">
-        <v>3.449195528286039</v>
+        <v>0.002649874107172696</v>
       </c>
       <c r="G60" t="n">
-        <v>34.10526315789474</v>
+        <v>0.01138888888888889</v>
       </c>
       <c r="H60" t="n">
-        <v>36.57142857142857</v>
+        <v>0.005</v>
       </c>
       <c r="I60" t="n">
-        <v>59.15151515151515</v>
+        <v>0.01757575757575758</v>
       </c>
       <c r="J60" t="n">
-        <v>49.1578947368421</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_in_behind_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>6.234077618288145</v>
+        <v>7.971717171717172</v>
       </c>
       <c r="C61" t="n">
-        <v>5.058724723941442</v>
+        <v>6.141240623640005</v>
       </c>
       <c r="D61" t="n">
-        <v>1.128240780570627</v>
+        <v>29.81</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8614962274943924</v>
+        <v>0.9369148019345326</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8565877024306049</v>
+        <v>0.8179205206053947</v>
       </c>
       <c r="G61" t="n">
-        <v>5.361111111111111</v>
+        <v>6.921052631578948</v>
       </c>
       <c r="H61" t="n">
-        <v>3.269230769230769</v>
+        <v>5</v>
       </c>
       <c r="I61" t="n">
-        <v>7.606060606060606</v>
+        <v>8.969696969696969</v>
       </c>
       <c r="J61" t="n">
-        <v>6.648648648648648</v>
+        <v>8.375</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_pulling_wide_runs_threat_per_match</t>
+          <t>count_completed_pass_to_runs_in_behind_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.04223790536948432</v>
+        <v>1.271690590111643</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03311035833915091</v>
+        <v>0.9854171697979747</v>
       </c>
       <c r="D62" t="n">
-        <v>1.119106616612835</v>
+        <v>29.05</v>
       </c>
       <c r="E62" t="n">
-        <v>0.007041173184908361</v>
+        <v>0.3374039900815267</v>
       </c>
       <c r="F62" t="n">
-        <v>0.007156383585813325</v>
+        <v>0.2547489201182062</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03277777777777777</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="H62" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="I62" t="n">
-        <v>0.04921052631578948</v>
+        <v>1.757575757575758</v>
       </c>
       <c r="J62" t="n">
-        <v>0.042</v>
+        <v>1.432432432432432</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_support_runs_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2684702286018076</v>
+        <v>0.06730462519936205</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2206244617222945</v>
+        <v>0.0942594084234951</v>
       </c>
       <c r="D63" t="n">
-        <v>1.106049869322786</v>
+        <v>-28.6</v>
       </c>
       <c r="E63" t="n">
-        <v>0.05226615813498027</v>
+        <v>0.04779966583816886</v>
       </c>
       <c r="F63" t="n">
-        <v>0.03463815295081613</v>
+        <v>0.06168800765294646</v>
       </c>
       <c r="G63" t="n">
-        <v>0.195</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1688461538461538</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3224242424242424</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2936842105263158</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_support_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3.893035619351409</v>
+        <v>0.5112440191387559</v>
       </c>
       <c r="C64" t="n">
-        <v>3.086553582126337</v>
+        <v>0.3997322757384677</v>
       </c>
       <c r="D64" t="n">
-        <v>1.073747185417149</v>
+        <v>27.9</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7217914169377956</v>
+        <v>0.1709578967577173</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6638248325216249</v>
+        <v>0.1329702557499557</v>
       </c>
       <c r="G64" t="n">
-        <v>2.894736842105263</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H64" t="n">
-        <v>2.162162162162162</v>
+        <v>0.2</v>
       </c>
       <c r="I64" t="n">
-        <v>4.757575757575758</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="J64" t="n">
-        <v>4.447368421052632</v>
+        <v>0.5945945945945946</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_runs_in_behind_per_match</t>
+          <t>pass_opportunities_to_pulling_wide_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>12.67323232323232</v>
+        <v>0.04223790536948432</v>
       </c>
       <c r="C65" t="n">
-        <v>10.78180223822639</v>
+        <v>0.03311035833915091</v>
       </c>
       <c r="D65" t="n">
-        <v>1.072649360694781</v>
+        <v>27.57</v>
       </c>
       <c r="E65" t="n">
-        <v>1.329563680032534</v>
+        <v>0.007041173184908361</v>
       </c>
       <c r="F65" t="n">
-        <v>1.463959353540492</v>
+        <v>0.007156383585813325</v>
       </c>
       <c r="G65" t="n">
-        <v>11.60526315789474</v>
+        <v>0.03277777777777777</v>
       </c>
       <c r="H65" t="n">
-        <v>7.230769230769231</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="I65" t="n">
-        <v>14.72727272727273</v>
+        <v>0.04921052631578948</v>
       </c>
       <c r="J65" t="n">
-        <v>13.30555555555556</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_underlap_runs_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.07815523657628923</v>
+        <v>2.160287081339713</v>
       </c>
       <c r="C66" t="n">
-        <v>0.05362083613569681</v>
+        <v>1.69675131634884</v>
       </c>
       <c r="D66" t="n">
-        <v>1.063089825971959</v>
+        <v>27.32</v>
       </c>
       <c r="E66" t="n">
-        <v>0.03998705912514466</v>
+        <v>0.3694673443946401</v>
       </c>
       <c r="F66" t="n">
-        <v>0.01244223083660661</v>
+        <v>0.3600007275425254</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03842105263157895</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="H66" t="n">
-        <v>0.03555555555555556</v>
+        <v>1.028571428571428</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1357894736842105</v>
+        <v>2.555555555555555</v>
       </c>
       <c r="J66" t="n">
-        <v>0.08416666666666667</v>
+        <v>2.583333333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_runs_in_behind_per_match</t>
+          <t>count_opportunities_to_pass_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.888463583200426</v>
+        <v>14.17809675704413</v>
       </c>
       <c r="C67" t="n">
-        <v>2.284618137512874</v>
+        <v>11.16443559863064</v>
       </c>
       <c r="D67" t="n">
-        <v>1.040416315274497</v>
+        <v>26.99</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6097956633147544</v>
+        <v>0.9406842430761921</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5673305018799231</v>
+        <v>1.871268119446379</v>
       </c>
       <c r="G67" t="n">
-        <v>2.184210526315789</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="H67" t="n">
-        <v>1.571428571428571</v>
+        <v>7.676470588235294</v>
       </c>
       <c r="I67" t="n">
-        <v>3.606060606060606</v>
+        <v>15.21052631578947</v>
       </c>
       <c r="J67" t="n">
-        <v>3.351351351351351</v>
+        <v>15.3421052631579</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_underlap_runs_per_match</t>
+          <t>count_pulling_wide_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.315816055289739</v>
+        <v>14.56326422115896</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9083208008130608</v>
+        <v>11.48337532357656</v>
       </c>
       <c r="D68" t="n">
-        <v>1.018086527159976</v>
+        <v>26.82</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6732986118292963</v>
+        <v>0.9438480824826646</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2403253800581451</v>
+        <v>1.973549312288972</v>
       </c>
       <c r="G68" t="n">
-        <v>0.5526315789473685</v>
+        <v>13.02777777777778</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5277777777777778</v>
+        <v>7.882352941176471</v>
       </c>
       <c r="I68" t="n">
-        <v>2.342105263157895</v>
+        <v>15.57894736842105</v>
       </c>
       <c r="J68" t="n">
-        <v>1.361111111111111</v>
+        <v>15.81578947368421</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_overlap_runs</t>
+          <t>count_completed_pass_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>264.708490430622</v>
+        <v>2.888463583200426</v>
       </c>
       <c r="C69" t="n">
-        <v>218.4010052358145</v>
+        <v>2.284618137512874</v>
       </c>
       <c r="D69" t="n">
-        <v>1.013499351242612</v>
+        <v>26.43</v>
       </c>
       <c r="E69" t="n">
-        <v>49.25891206969994</v>
+        <v>0.6097956633147544</v>
       </c>
       <c r="F69" t="n">
-        <v>42.19154603723831</v>
+        <v>0.5673305018799231</v>
       </c>
       <c r="G69" t="n">
-        <v>198.6842105263158</v>
+        <v>2.184210526315789</v>
       </c>
       <c r="H69" t="n">
-        <v>104.4117647058823</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="I69" t="n">
-        <v>317.2371052631579</v>
+        <v>3.606060606060606</v>
       </c>
       <c r="J69" t="n">
-        <v>271.4913157894737</v>
+        <v>3.351351351351351</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_shot_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1609250398724083</v>
+        <v>0.1317650186071239</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09349660363592253</v>
+        <v>0.1042780818787011</v>
       </c>
       <c r="D70" t="n">
-        <v>1.011447253995833</v>
+        <v>26.36</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01852587257434432</v>
+        <v>0.06210813605285252</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07025673482309791</v>
+        <v>0.06291899445918324</v>
       </c>
       <c r="G70" t="n">
-        <v>0.131578947368421</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_in_behind_leading_to_shot_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1.271690590111643</v>
+        <v>3.893035619351409</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9854171697979749</v>
+        <v>3.086553582126338</v>
       </c>
       <c r="D71" t="n">
-        <v>1.010602159744117</v>
+        <v>26.13</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3374039900815267</v>
+        <v>0.7217914169377956</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2547489201182062</v>
+        <v>0.6638248325216249</v>
       </c>
       <c r="G71" t="n">
-        <v>0.868421052631579</v>
+        <v>2.894736842105263</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5135135135135135</v>
+        <v>2.162162162162162</v>
       </c>
       <c r="I71" t="n">
-        <v>1.757575757575758</v>
+        <v>4.757575757575758</v>
       </c>
       <c r="J71" t="n">
-        <v>1.432432432432432</v>
+        <v>4.447368421052632</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_pulling_half_space_runs_threat_per_match</t>
+          <t>support_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.07507363104731526</v>
+        <v>0.09279479000531633</v>
       </c>
       <c r="C72" t="n">
-        <v>0.06136862725345697</v>
+        <v>0.07372414583978051</v>
       </c>
       <c r="D72" t="n">
-        <v>1.008629535840561</v>
+        <v>25.87</v>
       </c>
       <c r="E72" t="n">
-        <v>0.009867693549027581</v>
+        <v>0.0252986844558563</v>
       </c>
       <c r="F72" t="n">
-        <v>0.01299923450511425</v>
+        <v>0.0152818683670421</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06526315789473684</v>
+        <v>0.06131578947368421</v>
       </c>
       <c r="H72" t="n">
-        <v>0.03615384615384615</v>
+        <v>0.05</v>
       </c>
       <c r="I72" t="n">
-        <v>0.08947368421052632</v>
+        <v>0.1307894736842105</v>
       </c>
       <c r="J72" t="n">
-        <v>0.08111111111111111</v>
+        <v>0.1094736842105263</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>support_runs_to_which_pass_completed_threat_per_match</t>
+          <t>runs_in_behind_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.09279479000531632</v>
+        <v>0.3569954811270601</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07372414583978051</v>
+        <v>0.2836865269447313</v>
       </c>
       <c r="D73" t="n">
-        <v>1.004024022368575</v>
+        <v>25.84</v>
       </c>
       <c r="E73" t="n">
-        <v>0.02529868445585629</v>
+        <v>0.055015202699941</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0152818683670421</v>
+        <v>0.04490121791396212</v>
       </c>
       <c r="G73" t="n">
-        <v>0.06131578947368421</v>
+        <v>0.3113157894736842</v>
       </c>
       <c r="H73" t="n">
-        <v>0.05</v>
+        <v>0.2103846153846154</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1307894736842105</v>
+        <v>0.4406060606060606</v>
       </c>
       <c r="J73" t="n">
-        <v>0.1094736842105263</v>
+        <v>0.3744444444444445</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_runs_in_behind</t>
+          <t>pass_completion_ratio_to_coming_short_runs</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>322.2522371079213</v>
+        <v>32.2916615388938</v>
       </c>
       <c r="C74" t="n">
-        <v>282.0437340460864</v>
+        <v>25.71185356452228</v>
       </c>
       <c r="D74" t="n">
-        <v>1.003200260814897</v>
+        <v>25.59</v>
       </c>
       <c r="E74" t="n">
-        <v>37.83403382156922</v>
+        <v>6.012205785730768</v>
       </c>
       <c r="F74" t="n">
-        <v>32.82466347127906</v>
+        <v>4.051534694216945</v>
       </c>
       <c r="G74" t="n">
-        <v>273.5680555555556</v>
+        <v>23.10157611978665</v>
       </c>
       <c r="H74" t="n">
-        <v>205.1919230769231</v>
+        <v>16.97986429257017</v>
       </c>
       <c r="I74" t="n">
-        <v>379.2454545454545</v>
+        <v>39.35260571751481</v>
       </c>
       <c r="J74" t="n">
-        <v>334.8219444444445</v>
+        <v>31.39541642567958</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_cross_receiver_runs_in_sample</t>
+          <t>pass_opportunities_to_runs_in_behind_threat_per_match</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>11.08607123870282</v>
+        <v>0.7324946836788943</v>
       </c>
       <c r="C75" t="n">
-        <v>9.223705224463737</v>
+        <v>0.5840615768543013</v>
       </c>
       <c r="D75" t="n">
-        <v>0.993504251674739</v>
+        <v>25.41</v>
       </c>
       <c r="E75" t="n">
-        <v>1.931986322586868</v>
+        <v>0.08211390507039952</v>
       </c>
       <c r="F75" t="n">
-        <v>1.662902232878674</v>
+        <v>0.07699856364071148</v>
       </c>
       <c r="G75" t="n">
-        <v>8.026315789473685</v>
+        <v>0.64</v>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>0.4526923076923077</v>
       </c>
       <c r="I75" t="n">
-        <v>13.18181818181818</v>
+        <v>0.8442424242424242</v>
       </c>
       <c r="J75" t="n">
-        <v>11.81578947368421</v>
+        <v>0.7044736842105263</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_cross_receiver_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>11.08607123870282</v>
+        <v>12.99269005847953</v>
       </c>
       <c r="C76" t="n">
-        <v>9.223705224463739</v>
+        <v>10.39697044661441</v>
       </c>
       <c r="D76" t="n">
-        <v>0.993504251674739</v>
+        <v>24.97</v>
       </c>
       <c r="E76" t="n">
-        <v>1.931986322586868</v>
+        <v>1.773999765622277</v>
       </c>
       <c r="F76" t="n">
-        <v>1.662902232878674</v>
+        <v>1.455802489423242</v>
       </c>
       <c r="G76" t="n">
-        <v>8.026315789473685</v>
+        <v>11.08333333333333</v>
       </c>
       <c r="H76" t="n">
-        <v>6</v>
+        <v>8.384615384615385</v>
       </c>
       <c r="I76" t="n">
-        <v>13.18181818181818</v>
+        <v>15</v>
       </c>
       <c r="J76" t="n">
-        <v>11.81578947368421</v>
+        <v>12.81578947368421</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_per_match</t>
+          <t>pass_opportunities_to_runs_ahead_of_the_ball_threat_per_match</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>14.27546517809676</v>
+        <v>0.5475552897395003</v>
       </c>
       <c r="C77" t="n">
-        <v>12.23444039146825</v>
+        <v>0.4383853420664566</v>
       </c>
       <c r="D77" t="n">
-        <v>0.989562245583596</v>
+        <v>24.9</v>
       </c>
       <c r="E77" t="n">
-        <v>3.925689644010172</v>
+        <v>0.08250663531520426</v>
       </c>
       <c r="F77" t="n">
-        <v>1.733131668999674</v>
+        <v>0.0446394349023931</v>
       </c>
       <c r="G77" t="n">
-        <v>8.921052631578947</v>
+        <v>0.4444736842105264</v>
       </c>
       <c r="H77" t="n">
-        <v>8.657142857142857</v>
+        <v>0.3677142857142857</v>
       </c>
       <c r="I77" t="n">
-        <v>19.54545454545455</v>
+        <v>0.6512121212121212</v>
       </c>
       <c r="J77" t="n">
-        <v>15.81578947368421</v>
+        <v>0.5391666666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_support_runs</t>
+          <t>runs_ahead_of_the_ball_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>515.2957756512494</v>
+        <v>0.1680417331206805</v>
       </c>
       <c r="C78" t="n">
-        <v>455.4833562086514</v>
+        <v>0.1346827798590956</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9801608178818507</v>
+        <v>24.77</v>
       </c>
       <c r="E78" t="n">
-        <v>77.37749452229102</v>
+        <v>0.03727744254124315</v>
       </c>
       <c r="F78" t="n">
-        <v>53.95894307403557</v>
+        <v>0.02393215019938939</v>
       </c>
       <c r="G78" t="n">
-        <v>410.3515789473684</v>
+        <v>0.1278947368421053</v>
       </c>
       <c r="H78" t="n">
-        <v>359.1176470588235</v>
+        <v>0.08657142857142858</v>
       </c>
       <c r="I78" t="n">
-        <v>627.0930303030303</v>
+        <v>0.213030303030303</v>
       </c>
       <c r="J78" t="n">
-        <v>548.5451428571429</v>
+        <v>0.1854166666666667</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_coming_short_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.07060074428495482</v>
+        <v>1.161111111111111</v>
       </c>
       <c r="C79" t="n">
-        <v>0.03388992043790805</v>
+        <v>0.9315374001906509</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9783991809404569</v>
+        <v>24.64</v>
       </c>
       <c r="E79" t="n">
-        <v>0.04660292585056978</v>
+        <v>0.2207854057915824</v>
       </c>
       <c r="F79" t="n">
-        <v>0.03298310000100904</v>
+        <v>0.2533362582684691</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="I79" t="n">
-        <v>0.131578947368421</v>
+        <v>1.526315789473684</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1081081081081081</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_cross_receiver_runs</t>
+          <t>count_pass_attempts_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>147.7042612971823</v>
+        <v>0.1242158426368953</v>
       </c>
       <c r="C80" t="n">
-        <v>124.4814064390267</v>
+        <v>0.163447131512147</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9757223998002349</v>
+        <v>-24</v>
       </c>
       <c r="E80" t="n">
-        <v>15.94813020662249</v>
+        <v>0.07299177711471423</v>
       </c>
       <c r="F80" t="n">
-        <v>24.07318422894345</v>
+        <v>0.09714542085205485</v>
       </c>
       <c r="G80" t="n">
-        <v>124.7805263157895</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="H80" t="n">
-        <v>93.26923076923077</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="I80" t="n">
-        <v>168.935</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="J80" t="n">
-        <v>189.255</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_cross_receiver_runs_per_match</t>
+          <t>count_pass_attempts_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>10.54306220095694</v>
+        <v>6.136842105263158</v>
       </c>
       <c r="C81" t="n">
-        <v>8.799279008706256</v>
+        <v>4.968884861965356</v>
       </c>
       <c r="D81" t="n">
-        <v>0.9718019925963806</v>
+        <v>23.51</v>
       </c>
       <c r="E81" t="n">
-        <v>1.810373707869774</v>
+        <v>0.9164839582130793</v>
       </c>
       <c r="F81" t="n">
-        <v>1.630089637113462</v>
+        <v>0.9320900922517436</v>
       </c>
       <c r="G81" t="n">
-        <v>7.736842105263158</v>
+        <v>5.052631578947368</v>
       </c>
       <c r="H81" t="n">
-        <v>5.653846153846154</v>
+        <v>3.769230769230769</v>
       </c>
       <c r="I81" t="n">
-        <v>12.63636363636364</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="J81" t="n">
-        <v>11.5</v>
+        <v>6.416666666666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_runs_ahead_of_the_ball</t>
+          <t>pass_completion_ratio_to_overlap_runs</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>637.9240098351941</v>
+        <v>20.21804970748136</v>
       </c>
       <c r="C82" t="n">
-        <v>588.2208792495331</v>
+        <v>16.3998533682045</v>
       </c>
       <c r="D82" t="n">
-        <v>0.9709612641261853</v>
+        <v>23.28</v>
       </c>
       <c r="E82" t="n">
-        <v>101.3101264842732</v>
+        <v>3.881318065808832</v>
       </c>
       <c r="F82" t="n">
-        <v>50.19359546565494</v>
+        <v>3.175849043326482</v>
       </c>
       <c r="G82" t="n">
-        <v>493.3960526315789</v>
+        <v>15.98777002237529</v>
       </c>
       <c r="H82" t="n">
-        <v>505.3805714285714</v>
+        <v>7.935446906035143</v>
       </c>
       <c r="I82" t="n">
-        <v>773.4751515151515</v>
+        <v>25.33295745920746</v>
       </c>
       <c r="J82" t="n">
-        <v>687.9120833333333</v>
+        <v>20.20998372241793</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_cross_receiver_runs_per_match</t>
+          <t>count_completed_pass_to_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2.223710792131845</v>
+        <v>6.234077618288145</v>
       </c>
       <c r="C83" t="n">
-        <v>1.841712796047161</v>
+        <v>5.058724723941443</v>
       </c>
       <c r="D83" t="n">
-        <v>0.9621491619707145</v>
+        <v>23.23</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4226107300108091</v>
+        <v>0.8614962274943924</v>
       </c>
       <c r="F83" t="n">
-        <v>0.3708260891772009</v>
+        <v>0.8565877024306049</v>
       </c>
       <c r="G83" t="n">
-        <v>1.657894736842105</v>
+        <v>5.361111111111111</v>
       </c>
       <c r="H83" t="n">
-        <v>1.269230769230769</v>
+        <v>3.269230769230769</v>
       </c>
       <c r="I83" t="n">
-        <v>2.722222222222222</v>
+        <v>7.606060606060606</v>
       </c>
       <c r="J83" t="n">
-        <v>2.736842105263158</v>
+        <v>6.648648648648648</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_per_match</t>
+          <t>count_pass_attempts_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>9.749840510366827</v>
+        <v>6.948936735778841</v>
       </c>
       <c r="C84" t="n">
-        <v>8.181918405323978</v>
+        <v>5.657527439493384</v>
       </c>
       <c r="D84" t="n">
-        <v>0.9611743507654663</v>
+        <v>22.83</v>
       </c>
       <c r="E84" t="n">
-        <v>2.296493115525232</v>
+        <v>0.3398735610758218</v>
       </c>
       <c r="F84" t="n">
-        <v>1.336894984634964</v>
+        <v>0.8969355587174642</v>
       </c>
       <c r="G84" t="n">
-        <v>6.842105263157895</v>
+        <v>6.447368421052632</v>
       </c>
       <c r="H84" t="n">
-        <v>5.617647058823529</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="I84" t="n">
-        <v>12.39393939393939</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="J84" t="n">
-        <v>10.36842105263158</v>
+        <v>7.684210526315789</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_underlap_runs</t>
+          <t>count_pass_attempts_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>104.7891182881446</v>
+        <v>0.01687931951089846</v>
       </c>
       <c r="C85" t="n">
-        <v>76.66869091502961</v>
+        <v>0.0137468671679198</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9610546700261879</v>
+        <v>22.79</v>
       </c>
       <c r="E85" t="n">
-        <v>40.48802230798996</v>
+        <v>0.01547451310773831</v>
       </c>
       <c r="F85" t="n">
-        <v>26.10464095027551</v>
+        <v>0.02129033999860699</v>
       </c>
       <c r="G85" t="n">
-        <v>71.05263157894737</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>48.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>157.0176315789474</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J85" t="n">
-        <v>143.421052631579</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_underlap_runs_per_match</t>
+          <t>count_pass_attempts_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1.251780967570441</v>
+        <v>3.139606592238171</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8617050974016917</v>
+        <v>2.562089867229186</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9580680146357914</v>
+        <v>22.54</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5687485755662852</v>
+        <v>0.5171623132421171</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3391248091827965</v>
+        <v>0.3946994386337258</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7894736842105263</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5</v>
+        <v>1.685714285714286</v>
       </c>
       <c r="I86" t="n">
-        <v>1.878787878787879</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="J86" t="n">
-        <v>1.842105263157895</v>
+        <v>3.416666666666667</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_support_runs_per_match</t>
+          <t>pass_opportunities_to_pulling_half_space_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>23.85486443381181</v>
+        <v>0.07507363104731526</v>
       </c>
       <c r="C87" t="n">
-        <v>20.76773857329585</v>
+        <v>0.06136862725345697</v>
       </c>
       <c r="D87" t="n">
-        <v>0.9533310531585216</v>
+        <v>22.33</v>
       </c>
       <c r="E87" t="n">
-        <v>4.617908968421725</v>
+        <v>0.009867693549027581</v>
       </c>
       <c r="F87" t="n">
-        <v>2.556961577506765</v>
+        <v>0.01299923450511425</v>
       </c>
       <c r="G87" t="n">
-        <v>18.28947368421053</v>
+        <v>0.06526315789473684</v>
       </c>
       <c r="H87" t="n">
-        <v>15.69230769230769</v>
+        <v>0.03615384615384615</v>
       </c>
       <c r="I87" t="n">
-        <v>30.48484848484848</v>
+        <v>0.08947368421052632</v>
       </c>
       <c r="J87" t="n">
-        <v>24.84210526315789</v>
+        <v>0.08111111111111111</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_support_runs_in_sample</t>
+          <t>pass_opportunities_to_support_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>23.85486443381181</v>
+        <v>0.2684702286018076</v>
       </c>
       <c r="C88" t="n">
-        <v>20.76773857329585</v>
+        <v>0.2206244617222945</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9533310531585216</v>
+        <v>21.69</v>
       </c>
       <c r="E88" t="n">
-        <v>4.617908968421725</v>
+        <v>0.05226615813498027</v>
       </c>
       <c r="F88" t="n">
-        <v>2.556961577506765</v>
+        <v>0.03463815295081612</v>
       </c>
       <c r="G88" t="n">
-        <v>18.28947368421053</v>
+        <v>0.195</v>
       </c>
       <c r="H88" t="n">
-        <v>15.69230769230769</v>
+        <v>0.1688461538461539</v>
       </c>
       <c r="I88" t="n">
-        <v>30.48484848484848</v>
+        <v>0.3224242424242424</v>
       </c>
       <c r="J88" t="n">
-        <v>24.84210526315789</v>
+        <v>0.2936842105263158</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_runs_ahead_of_the_ball_per_match</t>
+          <t>runs_ahead_of_the_ball_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>18.66222753854333</v>
+        <v>0.2340180754917597</v>
       </c>
       <c r="C89" t="n">
-        <v>16.53122797345707</v>
+        <v>0.1928400670871259</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9337682723332843</v>
+        <v>21.35</v>
       </c>
       <c r="E89" t="n">
-        <v>4.293509446234657</v>
+        <v>0.04185769988797056</v>
       </c>
       <c r="F89" t="n">
-        <v>1.926995096454771</v>
+        <v>0.02652012705821316</v>
       </c>
       <c r="G89" t="n">
-        <v>12.8421052631579</v>
+        <v>0.1888888888888889</v>
       </c>
       <c r="H89" t="n">
-        <v>12.48571428571429</v>
+        <v>0.1322857142857143</v>
       </c>
       <c r="I89" t="n">
-        <v>24.24242424242424</v>
+        <v>0.2809090909090909</v>
       </c>
       <c r="J89" t="n">
-        <v>20.73684210526316</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_cross_receiver_runs_per_match</t>
+          <t>count_opportunities_to_pass_to_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5.735725677830941</v>
+        <v>25.49572036150984</v>
       </c>
       <c r="C90" t="n">
-        <v>4.905530811831121</v>
+        <v>21.01192668053349</v>
       </c>
       <c r="D90" t="n">
-        <v>0.929081572156757</v>
+        <v>21.34</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8147371509941732</v>
+        <v>2.334168368089303</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8802044637766423</v>
+        <v>3.140645698433149</v>
       </c>
       <c r="G90" t="n">
-        <v>4.894736842105263</v>
+        <v>22.75</v>
       </c>
       <c r="H90" t="n">
-        <v>3.115384615384615</v>
+        <v>14.53846153846154</v>
       </c>
       <c r="I90" t="n">
-        <v>6.757575757575758</v>
+        <v>28.51515151515152</v>
       </c>
       <c r="J90" t="n">
-        <v>6.6</v>
+        <v>26.10526315789474</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_underlap_runs_per_match</t>
+          <t>count_runs_in_behind_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1.874109516214779</v>
+        <v>28.62674109516215</v>
       </c>
       <c r="C91" t="n">
-        <v>1.36515960011316</v>
+        <v>23.62952434062341</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9268668559949816</v>
+        <v>21.15</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8149169058290308</v>
+        <v>2.63073088535929</v>
       </c>
       <c r="F91" t="n">
-        <v>0.4221810782229654</v>
+        <v>3.644748328855818</v>
       </c>
       <c r="G91" t="n">
-        <v>1.138888888888889</v>
+        <v>25.30555555555556</v>
       </c>
       <c r="H91" t="n">
-        <v>0.9166666666666666</v>
+        <v>16.38461538461538</v>
       </c>
       <c r="I91" t="n">
-        <v>2.763157894736842</v>
+        <v>32.06060606060606</v>
       </c>
       <c r="J91" t="n">
-        <v>2.421052631578947</v>
+        <v>29.11111111111111</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_dropping_off_runs_per_match</t>
+          <t>count_completed_pass_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02769803296119085</v>
+        <v>2.223710792131845</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01303019959366709</v>
+        <v>1.841712796047162</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9146591207600471</v>
+        <v>20.74</v>
       </c>
       <c r="E92" t="n">
-        <v>0.01867927645136839</v>
+        <v>0.4226107300108091</v>
       </c>
       <c r="F92" t="n">
-        <v>0.01443483951284623</v>
+        <v>0.3708260891772009</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1.657894736842105</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1.269230769230769</v>
       </c>
       <c r="I92" t="n">
-        <v>0.05263157894736842</v>
+        <v>2.722222222222222</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02941176470588235</v>
+        <v>2.736842105263158</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_wide_runs_leading_to_shot_per_match</t>
+          <t>pass_completion_ratio_to_pulling_wide_runs</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.2382509303561935</v>
+        <v>29.37793669029151</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1759954574041261</v>
+        <v>24.38589495125144</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9075315207621786</v>
+        <v>20.47</v>
       </c>
       <c r="E93" t="n">
-        <v>0.05894793922278726</v>
+        <v>1.537649093729627</v>
       </c>
       <c r="F93" t="n">
-        <v>0.07611795573018633</v>
+        <v>3.197209366153767</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1842105263157895</v>
+        <v>28.00427143032406</v>
       </c>
       <c r="H93" t="n">
-        <v>0.03846153846153846</v>
+        <v>19.39360475309005</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3333333333333333</v>
+        <v>31.35255845032161</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2647058823529412</v>
+        <v>32.41392049434484</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_cross_receiver_runs_leading_to_goal_per_match</t>
+          <t>count_opportunities_to_pass_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.2559808612440191</v>
+        <v>11.08607123870282</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1633710293153018</v>
+        <v>9.223705224463737</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9029492525224136</v>
+        <v>20.19</v>
       </c>
       <c r="E94" t="n">
-        <v>0.09708642583547565</v>
+        <v>1.931986322586868</v>
       </c>
       <c r="F94" t="n">
-        <v>0.09880447201513673</v>
+        <v>1.662902232878674</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1388888888888889</v>
+        <v>8.026315789473685</v>
       </c>
       <c r="H94" t="n">
-        <v>0.02857142857142857</v>
+        <v>6</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3939393939393939</v>
+        <v>13.18181818181818</v>
       </c>
       <c r="J94" t="n">
-        <v>0.4210526315789473</v>
+        <v>11.81578947368421</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_underlap_runs_per_match</t>
+          <t>pass_completion_ratio_to_cross_receiver_runs</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3.854492291334397</v>
+        <v>11.21789437050633</v>
       </c>
       <c r="C95" t="n">
-        <v>2.87751236419967</v>
+        <v>9.351953240837268</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9004396427982517</v>
+        <v>19.95</v>
       </c>
       <c r="E95" t="n">
-        <v>1.755132211642269</v>
+        <v>1.101020655446361</v>
       </c>
       <c r="F95" t="n">
-        <v>0.783211066934259</v>
+        <v>1.607677292566216</v>
       </c>
       <c r="G95" t="n">
-        <v>1.947368421052632</v>
+        <v>9.732209128590707</v>
       </c>
       <c r="H95" t="n">
-        <v>1.833333333333333</v>
+        <v>7.296396897220427</v>
       </c>
       <c r="I95" t="n">
-        <v>5.921052631578948</v>
+        <v>12.26859177859178</v>
       </c>
       <c r="J95" t="n">
-        <v>4.75</v>
+        <v>13.72743028243686</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_underlap_runs_in_sample</t>
+          <t>count_pass_opportunities_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3.854492291334397</v>
+        <v>10.54306220095694</v>
       </c>
       <c r="C96" t="n">
-        <v>2.87751236419967</v>
+        <v>8.799279008706256</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9004396427982517</v>
+        <v>19.82</v>
       </c>
       <c r="E96" t="n">
-        <v>1.755132211642269</v>
+        <v>1.810373707869774</v>
       </c>
       <c r="F96" t="n">
-        <v>0.783211066934259</v>
+        <v>1.630089637113462</v>
       </c>
       <c r="G96" t="n">
-        <v>1.947368421052632</v>
+        <v>7.736842105263158</v>
       </c>
       <c r="H96" t="n">
-        <v>1.833333333333333</v>
+        <v>5.653846153846154</v>
       </c>
       <c r="I96" t="n">
-        <v>5.921052631578948</v>
+        <v>12.63636363636364</v>
       </c>
       <c r="J96" t="n">
-        <v>4.75</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.179053694843168</v>
+        <v>1.517437533227007</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8925146324836727</v>
+        <v>1.266745264299444</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8970445210774722</v>
+        <v>19.79</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4101147361485835</v>
+        <v>0.4133863832551441</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2738250933187529</v>
+        <v>0.302164738136412</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7894736842105263</v>
+        <v>1.052631578947368</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="I97" t="n">
-        <v>1.868421052631579</v>
+        <v>2.151515151515151</v>
       </c>
       <c r="J97" t="n">
-        <v>1.5</v>
+        <v>1.815789473684211</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>count_underlap_runs_by_teammate_per_match</t>
+          <t>count_completed_pass_to_support_runs_per_match</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3.91347687400319</v>
+        <v>9.749840510366827</v>
       </c>
       <c r="C98" t="n">
-        <v>2.935170938297873</v>
+        <v>8.181918405323978</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8930909159770433</v>
+        <v>19.16</v>
       </c>
       <c r="E98" t="n">
-        <v>1.754844870546226</v>
+        <v>2.296493115525232</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8003134823506522</v>
+        <v>1.336894984634964</v>
       </c>
       <c r="G98" t="n">
-        <v>2.078947368421053</v>
+        <v>6.842105263157895</v>
       </c>
       <c r="H98" t="n">
-        <v>1.888888888888889</v>
+        <v>5.617647058823529</v>
       </c>
       <c r="I98" t="n">
-        <v>6.026315789473684</v>
+        <v>12.39393939393939</v>
       </c>
       <c r="J98" t="n">
-        <v>4.833333333333333</v>
+        <v>10.36842105263158</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_support_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1.161111111111111</v>
+        <v>2.079160021265285</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9315374001906509</v>
+        <v>1.750732991181908</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8908078684931635</v>
+        <v>18.76</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2207854057915824</v>
+        <v>0.3880653771298014</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2533362582684691</v>
+        <v>0.3751997978782409</v>
       </c>
       <c r="G99" t="n">
-        <v>0.9736842105263158</v>
+        <v>1.605263157894737</v>
       </c>
       <c r="H99" t="n">
-        <v>0.5675675675675675</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="I99" t="n">
-        <v>1.526315789473684</v>
+        <v>2.555555555555555</v>
       </c>
       <c r="J99" t="n">
-        <v>1.5</v>
+        <v>2.657894736842105</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_cross_receiver_runs_per_match</t>
+          <t>count_completed_pass_to_cross_receiver_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5.509888357256779</v>
+        <v>1.042503987240829</v>
       </c>
       <c r="C100" t="n">
-        <v>4.72050912920882</v>
+        <v>0.8809580301221167</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8893330052501488</v>
+        <v>18.34</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8329548177270555</v>
+        <v>0.122731276886913</v>
       </c>
       <c r="F100" t="n">
-        <v>0.901592200140979</v>
+        <v>0.2997064964491624</v>
       </c>
       <c r="G100" t="n">
-        <v>4.552631578947368</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="I100" t="n">
-        <v>6.575757575757576</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="J100" t="n">
-        <v>6.428571428571429</v>
+        <v>1.526315789473684</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_cross_receiver_runs_per_match</t>
+          <t>pass_opportunities_to_cross_receiver_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2.079160021265285</v>
+        <v>0.790531100478469</v>
       </c>
       <c r="C101" t="n">
-        <v>1.750732991181908</v>
+        <v>0.6687463552825783</v>
       </c>
       <c r="D101" t="n">
-        <v>0.8790164569618406</v>
+        <v>18.21</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3880653771298014</v>
+        <v>0.196629067840156</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3751997978782409</v>
+        <v>0.1524475829188356</v>
       </c>
       <c r="G101" t="n">
-        <v>1.605263157894737</v>
+        <v>0.5694736842105264</v>
       </c>
       <c r="H101" t="n">
-        <v>1.230769230769231</v>
+        <v>0.4303846153846154</v>
       </c>
       <c r="I101" t="n">
-        <v>2.555555555555555</v>
+        <v>1.081515151515152</v>
       </c>
       <c r="J101" t="n">
-        <v>2.657894736842105</v>
+        <v>0.9763157894736842</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_support_runs_per_match</t>
+          <t>pulling_wide_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>11.49970760233918</v>
+        <v>0.01847102604997342</v>
       </c>
       <c r="C102" t="n">
-        <v>9.97858960123666</v>
+        <v>0.01562685586617475</v>
       </c>
       <c r="D102" t="n">
-        <v>0.873182128149864</v>
+        <v>18.2</v>
       </c>
       <c r="E102" t="n">
-        <v>2.339593439567457</v>
+        <v>0.003013882669579191</v>
       </c>
       <c r="F102" t="n">
-        <v>1.545674176590114</v>
+        <v>0.003540703606744128</v>
       </c>
       <c r="G102" t="n">
-        <v>8.605263157894736</v>
+        <v>0.01416666666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>7.192307692307693</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="I102" t="n">
-        <v>14.33333333333333</v>
+        <v>0.02212121212121212</v>
       </c>
       <c r="J102" t="n">
-        <v>12.21052631578947</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="103">
@@ -3928,7 +3927,7 @@
         <v>14.09788737160254</v>
       </c>
       <c r="D103" t="n">
-        <v>0.8713761131065149</v>
+        <v>17.94</v>
       </c>
       <c r="E103" t="n">
         <v>3.373897299657252</v>
@@ -3952,941 +3951,941 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>support_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.01847102604997342</v>
+        <v>0.1212301967038809</v>
       </c>
       <c r="C104" t="n">
-        <v>0.01562685586617475</v>
+        <v>0.1030939038926655</v>
       </c>
       <c r="D104" t="n">
-        <v>0.8707870359849549</v>
+        <v>17.59</v>
       </c>
       <c r="E104" t="n">
-        <v>0.003013882669579191</v>
+        <v>0.02423231197125125</v>
       </c>
       <c r="F104" t="n">
-        <v>0.003540703606744128</v>
+        <v>0.02192183192376168</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01416666666666667</v>
+        <v>0.08921052631578948</v>
       </c>
       <c r="H104" t="n">
-        <v>0.007692307692307693</v>
+        <v>0.06538461538461539</v>
       </c>
       <c r="I104" t="n">
-        <v>0.02212121212121212</v>
+        <v>0.1555263157894737</v>
       </c>
       <c r="J104" t="n">
-        <v>0.022</v>
+        <v>0.1418421052631579</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_leading_to_shot_per_match</t>
+          <t>count_pass_attempts_to_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.2353003721424774</v>
+        <v>12.67323232323232</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1517649177091902</v>
+        <v>10.78180223822639</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8642784961224972</v>
+        <v>17.54</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1253309874930358</v>
+        <v>1.329563680032534</v>
       </c>
       <c r="F105" t="n">
-        <v>0.08752001070411219</v>
+        <v>1.463959353540492</v>
       </c>
       <c r="G105" t="n">
-        <v>0.05263157894736842</v>
+        <v>11.60526315789474</v>
       </c>
       <c r="H105" t="n">
-        <v>0.02941176470588235</v>
+        <v>7.230769230769231</v>
       </c>
       <c r="I105" t="n">
-        <v>0.3636363636363636</v>
+        <v>14.72727272727273</v>
       </c>
       <c r="J105" t="n">
-        <v>0.3333333333333333</v>
+        <v>13.30555555555556</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>count_support_runs_by_teammate_per_match</t>
+          <t>count_opportunities_to_pass_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>26.72671451355662</v>
+        <v>9.312094630515682</v>
       </c>
       <c r="C106" t="n">
-        <v>23.63210502664063</v>
+        <v>7.934444194645433</v>
       </c>
       <c r="D106" t="n">
-        <v>0.8612375499836906</v>
+        <v>17.36</v>
       </c>
       <c r="E106" t="n">
-        <v>5.158440698700184</v>
+        <v>1.508688492372259</v>
       </c>
       <c r="F106" t="n">
-        <v>2.937656398005756</v>
+        <v>1.602553851798389</v>
       </c>
       <c r="G106" t="n">
-        <v>20.65789473684211</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="H106" t="n">
-        <v>17.73076923076923</v>
+        <v>4.647058823529412</v>
       </c>
       <c r="I106" t="n">
-        <v>34.18181818181818</v>
+        <v>11.44444444444444</v>
       </c>
       <c r="J106" t="n">
-        <v>28</v>
+        <v>10.45714285714286</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
+          <t>count_pass_attempts_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1.517437533227007</v>
+        <v>5.735725677830941</v>
       </c>
       <c r="C107" t="n">
-        <v>1.266745264299444</v>
+        <v>4.905530811831122</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8569331582471784</v>
+        <v>16.92</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4133863832551441</v>
+        <v>0.8147371509941732</v>
       </c>
       <c r="F107" t="n">
-        <v>0.302164738136412</v>
+        <v>0.8802044637766423</v>
       </c>
       <c r="G107" t="n">
-        <v>1.052631578947368</v>
+        <v>4.894736842105263</v>
       </c>
       <c r="H107" t="n">
-        <v>0.7428571428571429</v>
+        <v>3.115384615384615</v>
       </c>
       <c r="I107" t="n">
-        <v>2.151515151515151</v>
+        <v>6.757575757575758</v>
       </c>
       <c r="J107" t="n">
-        <v>1.815789473684211</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_leading_to_goal_per_match</t>
+          <t>count_pass_attempts_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.1321371610845295</v>
+        <v>5.509888357256779</v>
       </c>
       <c r="C108" t="n">
-        <v>0.07986529822443135</v>
+        <v>4.72050912920882</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8517359429640849</v>
+        <v>16.72</v>
       </c>
       <c r="E108" t="n">
-        <v>0.08510527662611968</v>
+        <v>0.8329548177270555</v>
       </c>
       <c r="F108" t="n">
-        <v>0.05627161492235732</v>
+        <v>0.901592200140979</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02631578947368421</v>
+        <v>4.552631578947368</v>
       </c>
       <c r="H108" t="n">
-        <v>0.02702702702702703</v>
+        <v>3</v>
       </c>
       <c r="I108" t="n">
-        <v>0.2631578947368421</v>
+        <v>6.575757575757576</v>
       </c>
       <c r="J108" t="n">
-        <v>0.2368421052631579</v>
+        <v>6.428571428571429</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_pulling_half_space_runs_per_match</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9.312094630515682</v>
+        <v>14.27546517809676</v>
       </c>
       <c r="C109" t="n">
-        <v>7.934444194645433</v>
+        <v>12.23444039146826</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8500468590834479</v>
+        <v>16.68</v>
       </c>
       <c r="E109" t="n">
-        <v>1.508688492372259</v>
+        <v>3.925689644010172</v>
       </c>
       <c r="F109" t="n">
-        <v>1.602553851798389</v>
+        <v>1.733131668999674</v>
       </c>
       <c r="G109" t="n">
-        <v>7.894736842105263</v>
+        <v>8.921052631578947</v>
       </c>
       <c r="H109" t="n">
-        <v>4.647058823529412</v>
+        <v>8.657142857142857</v>
       </c>
       <c r="I109" t="n">
-        <v>11.44444444444444</v>
+        <v>19.54545454545455</v>
       </c>
       <c r="J109" t="n">
-        <v>10.45714285714286</v>
+        <v>15.81578947368421</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_pulling_half_space_runs_in_sample</t>
+          <t>cross_receiver_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>9.312094630515682</v>
+        <v>0.4495013290802765</v>
       </c>
       <c r="C110" t="n">
-        <v>7.934444194645433</v>
+        <v>0.3859165695532569</v>
       </c>
       <c r="D110" t="n">
-        <v>0.8500468590834479</v>
+        <v>16.48</v>
       </c>
       <c r="E110" t="n">
-        <v>1.508688492372259</v>
+        <v>0.1219690905414599</v>
       </c>
       <c r="F110" t="n">
-        <v>1.602553851798389</v>
+        <v>0.09964279579611722</v>
       </c>
       <c r="G110" t="n">
-        <v>7.894736842105263</v>
+        <v>0.3015789473684211</v>
       </c>
       <c r="H110" t="n">
-        <v>4.647058823529412</v>
+        <v>0.2188461538461539</v>
       </c>
       <c r="I110" t="n">
-        <v>11.44444444444444</v>
+        <v>0.6172727272727273</v>
       </c>
       <c r="J110" t="n">
-        <v>10.45714285714286</v>
+        <v>0.5782857142857143</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_pulling_half_space_runs_per_match</t>
+          <t>count_opportunities_to_pass_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.5112440191387559</v>
+        <v>41.0829346092504</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3997322757384676</v>
+        <v>35.34740188032757</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8432740427115677</v>
+        <v>16.23</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1709578967577173</v>
+        <v>7.894947265823874</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1329702557499557</v>
+        <v>2.889248277923943</v>
       </c>
       <c r="G111" t="n">
-        <v>0.3333333333333333</v>
+        <v>29.5</v>
       </c>
       <c r="H111" t="n">
-        <v>0.2</v>
+        <v>31.37142857142857</v>
       </c>
       <c r="I111" t="n">
-        <v>0.7272727272727273</v>
+        <v>50.81818181818182</v>
       </c>
       <c r="J111" t="n">
-        <v>0.5945945945945946</v>
+        <v>41.89473684210526</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_pulling_wide_runs_per_match</t>
+          <t>pass_completion_ratio_to_runs_in_behind</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.04875066454013822</v>
+        <v>24.69225654937095</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02497574310267809</v>
+        <v>21.24557409050115</v>
       </c>
       <c r="D112" t="n">
-        <v>0.8217541792372489</v>
+        <v>16.22</v>
       </c>
       <c r="E112" t="n">
-        <v>0.03863926903285281</v>
+        <v>2.99978711887871</v>
       </c>
       <c r="F112" t="n">
-        <v>0.02782009459311079</v>
+        <v>2.222018354028797</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>20.31320948804282</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>16.74492667588822</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1052631578947368</v>
+        <v>28.64156924893289</v>
       </c>
       <c r="J112" t="n">
-        <v>0.08333333333333333</v>
+        <v>25.60170782149949</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_in_behind_leading_to_goal_per_match</t>
+          <t>count_pulling_half_space_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.2245614035087719</v>
+        <v>9.498484848484848</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1607412336978901</v>
+        <v>8.190893012224283</v>
       </c>
       <c r="D113" t="n">
-        <v>0.8155531992367018</v>
+        <v>15.96</v>
       </c>
       <c r="E113" t="n">
-        <v>0.09375324168215329</v>
+        <v>1.594373888824295</v>
       </c>
       <c r="F113" t="n">
-        <v>0.07816888951910041</v>
+        <v>1.678882831370662</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1052631578947368</v>
+        <v>8.026315789473685</v>
       </c>
       <c r="H113" t="n">
-        <v>0.03846153846153846</v>
+        <v>4.794117647058823</v>
       </c>
       <c r="I113" t="n">
-        <v>0.3333333333333333</v>
+        <v>11.77777777777778</v>
       </c>
       <c r="J113" t="n">
-        <v>0.2972972972972973</v>
+        <v>10.74285714285714</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>support_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>cross_receiver_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.1212301967038809</v>
+        <v>0.1612916002126528</v>
       </c>
       <c r="C114" t="n">
-        <v>0.1030939038926655</v>
+        <v>0.139126270260326</v>
       </c>
       <c r="D114" t="n">
-        <v>0.814896431812078</v>
+        <v>15.93</v>
       </c>
       <c r="E114" t="n">
-        <v>0.02423231197125125</v>
+        <v>0.03893324676864831</v>
       </c>
       <c r="F114" t="n">
-        <v>0.02192183192376168</v>
+        <v>0.04136865290964695</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08921052631578948</v>
+        <v>0.1181578947368421</v>
       </c>
       <c r="H114" t="n">
-        <v>0.06538461538461539</v>
+        <v>0.09346153846153847</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1555263157894737</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1418421052631579</v>
+        <v>0.2318421052631579</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>count_pulling_half_space_runs_by_teammate_per_match</t>
+          <t>count_pass_attempts_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>9.498484848484848</v>
+        <v>1.649441786283891</v>
       </c>
       <c r="C115" t="n">
-        <v>8.190893012224283</v>
+        <v>1.428765620994723</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7933574936013168</v>
+        <v>15.45</v>
       </c>
       <c r="E115" t="n">
-        <v>1.594373888824295</v>
+        <v>0.1941031900215543</v>
       </c>
       <c r="F115" t="n">
-        <v>1.678882831370662</v>
+        <v>0.3861335147896592</v>
       </c>
       <c r="G115" t="n">
-        <v>8.026315789473685</v>
+        <v>1.447368421052632</v>
       </c>
       <c r="H115" t="n">
-        <v>4.794117647058823</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="I115" t="n">
-        <v>11.77777777777778</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="J115" t="n">
-        <v>10.74285714285714</v>
+        <v>2.105263157894737</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_cross_receiver_runs_threat_per_match</t>
+          <t>count_pass_attempts_to_support_runs_per_match</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.790531100478469</v>
+        <v>11.49970760233918</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6687463552825783</v>
+        <v>9.978589601236658</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7661675979777489</v>
+        <v>15.24</v>
       </c>
       <c r="E116" t="n">
-        <v>0.196629067840156</v>
+        <v>2.339593439567457</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1524475829188356</v>
+        <v>1.545674176590114</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5694736842105264</v>
+        <v>8.605263157894736</v>
       </c>
       <c r="H116" t="n">
-        <v>0.4303846153846154</v>
+        <v>7.192307692307693</v>
       </c>
       <c r="I116" t="n">
-        <v>1.081515151515152</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="J116" t="n">
-        <v>0.9763157894736842</v>
+        <v>12.21052631578947</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_coming_short_runs_per_match</t>
+          <t>count_opportunities_to_pass_to_support_runs_per_match</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.04925571504518873</v>
+        <v>23.85486443381181</v>
       </c>
       <c r="C117" t="n">
-        <v>0.02358433621591516</v>
+        <v>20.76773857329585</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7646164591511044</v>
+        <v>14.87</v>
       </c>
       <c r="E117" t="n">
-        <v>0.03925712581767262</v>
+        <v>4.617908968421725</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0304526207478957</v>
+        <v>2.556961577506765</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>18.28947368421053</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>15.69230769230769</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1052631578947368</v>
+        <v>30.48484848484848</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1081081081081081</v>
+        <v>24.84210526315789</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_wide_runs_leading_to_goal_per_match</t>
+          <t>pass_completion_ratio_to_support_runs</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.01658692185007974</v>
+        <v>39.305134817203</v>
       </c>
       <c r="C118" t="n">
-        <v>0.005455455455455455</v>
+        <v>34.36203264556487</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7184212081070998</v>
+        <v>14.39</v>
       </c>
       <c r="E118" t="n">
-        <v>0.02404540946696574</v>
+        <v>5.86922566258893</v>
       </c>
       <c r="F118" t="n">
-        <v>0.01129505392611557</v>
+        <v>3.87914215502784</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>32.26337116830538</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>26.73423744392862</v>
       </c>
       <c r="I118" t="n">
-        <v>0.05263157894736842</v>
+        <v>47.74719148528239</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02777777777777778</v>
+        <v>40.90977432091718</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
+          <t>count_runs_ahead_of_the_ball_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1902179691653376</v>
+        <v>47.69989367357788</v>
       </c>
       <c r="C119" t="n">
-        <v>0.1277860516250609</v>
+        <v>41.73955136165662</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6957429020620168</v>
+        <v>14.28</v>
       </c>
       <c r="E119" t="n">
-        <v>0.08358728402233906</v>
+        <v>9.140860466962945</v>
       </c>
       <c r="F119" t="n">
-        <v>0.09594763253194165</v>
+        <v>3.449195528286039</v>
       </c>
       <c r="G119" t="n">
-        <v>0.05263157894736842</v>
+        <v>34.10526315789474</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>36.57142857142857</v>
       </c>
       <c r="I119" t="n">
-        <v>0.2727272727272727</v>
+        <v>59.15151515151515</v>
       </c>
       <c r="J119" t="n">
-        <v>0.3428571428571429</v>
+        <v>49.1578947368421</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_underlap_runs_leading_to_shot_per_match</t>
+          <t>count_support_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1987772461456672</v>
+        <v>26.72671451355662</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1430112819586503</v>
+        <v>23.63210502664063</v>
       </c>
       <c r="D120" t="n">
-        <v>0.6839194633336947</v>
+        <v>13.09</v>
       </c>
       <c r="E120" t="n">
-        <v>0.09238076473647858</v>
+        <v>5.158440698700184</v>
       </c>
       <c r="F120" t="n">
-        <v>0.08875550393671731</v>
+        <v>2.937656398005756</v>
       </c>
       <c r="G120" t="n">
-        <v>0.131578947368421</v>
+        <v>20.65789473684211</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>17.73076923076923</v>
       </c>
       <c r="I120" t="n">
-        <v>0.3421052631578947</v>
+        <v>34.18181818181818</v>
       </c>
       <c r="J120" t="n">
-        <v>0.2647058823529412</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_leading_to_goal_per_match</t>
+          <t>count_pass_attempts_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.02264752791068581</v>
+        <v>18.66222753854333</v>
       </c>
       <c r="C121" t="n">
-        <v>0.01214882950177068</v>
+        <v>16.53122797345707</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6761234037828134</v>
+        <v>12.89</v>
       </c>
       <c r="E121" t="n">
-        <v>0.02496789704353155</v>
+        <v>4.293509446234657</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0157599146511331</v>
+        <v>1.926995096454771</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>12.8421052631579</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>12.48571428571429</v>
       </c>
       <c r="I121" t="n">
-        <v>0.06060606060606061</v>
+        <v>24.24242424242424</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04166666666666666</v>
+        <v>20.73684210526316</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_cross_receiver_runs_leading_to_shot_per_match</t>
+          <t>pass_completion_ratio_to_pulling_half_space_runs</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1.042503987240829</v>
+        <v>12.54784503255325</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8809580301221167</v>
+        <v>11.41096479281354</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6697797965399901</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>0.122731276886913</v>
+        <v>2.594375181120105</v>
       </c>
       <c r="F122" t="n">
-        <v>0.2997064964491624</v>
+        <v>2.255417273083699</v>
       </c>
       <c r="G122" t="n">
-        <v>0.8947368421052632</v>
+        <v>9.670131462105147</v>
       </c>
       <c r="H122" t="n">
-        <v>0.4705882352941176</v>
+        <v>8.093817946759124</v>
       </c>
       <c r="I122" t="n">
-        <v>1.181818181818182</v>
+        <v>15.73244393569394</v>
       </c>
       <c r="J122" t="n">
-        <v>1.526315789473684</v>
+        <v>15.14505138380138</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_dropping_off_runs_per_match</t>
+          <t>pass_completion_ratio_to_runs_ahead_of_the_ball</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.01161616161616162</v>
+        <v>48.78791290712506</v>
       </c>
       <c r="C123" t="n">
-        <v>0.003659147869674185</v>
+        <v>44.39259856822326</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6666666666666665</v>
+        <v>9.9</v>
       </c>
       <c r="E123" t="n">
-        <v>0.01593112151069445</v>
+        <v>7.269190238884624</v>
       </c>
       <c r="F123" t="n">
-        <v>0.009665870957924205</v>
+        <v>3.520974159749989</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>39.53600906549591</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>37.48174980257837</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0303030303030303</v>
+        <v>58.22417655072201</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02857142857142857</v>
+        <v>51.06240541056166</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_dropping_off_runs_per_match</t>
+          <t>count_completed_pass_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.01161616161616162</v>
+        <v>2.123657628920787</v>
       </c>
       <c r="C124" t="n">
-        <v>0.003659147869674185</v>
+        <v>1.941730762845314</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6666666666666665</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>0.01593112151069445</v>
+        <v>0.5640030617943346</v>
       </c>
       <c r="F124" t="n">
-        <v>0.009665870957924205</v>
+        <v>0.4741819586366319</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0303030303030303</v>
+        <v>2.861111111111111</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02857142857142857</v>
+        <v>2.805555555555555</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_support_runs_per_match</t>
+          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1.649441786283891</v>
+        <v>0.01687931951089846</v>
       </c>
       <c r="C125" t="n">
-        <v>1.428765620994723</v>
+        <v>0.0183908233753435</v>
       </c>
       <c r="D125" t="n">
-        <v>0.665242214213197</v>
+        <v>-8.220000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>0.1941031900215543</v>
+        <v>0.01547451310773831</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3861335147896592</v>
+        <v>0.02188008093373701</v>
       </c>
       <c r="G125" t="n">
-        <v>1.447368421052632</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0.7567567567567568</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1.921052631578947</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J125" t="n">
-        <v>2.105263157894737</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_pass_attempts_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.4495013290802764</v>
+        <v>2.575332270069112</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3859165695532569</v>
+        <v>2.441076328088712</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6504159620364924</v>
+        <v>5.5</v>
       </c>
       <c r="E126" t="n">
-        <v>0.1219690905414599</v>
+        <v>0.582010880209799</v>
       </c>
       <c r="F126" t="n">
-        <v>0.09964279579611722</v>
+        <v>0.5316010318472384</v>
       </c>
       <c r="G126" t="n">
-        <v>0.3015789473684211</v>
+        <v>1.921052631578947</v>
       </c>
       <c r="H126" t="n">
-        <v>0.2188461538461539</v>
+        <v>1.617647058823529</v>
       </c>
       <c r="I126" t="n">
-        <v>0.6172727272727273</v>
+        <v>3.305555555555555</v>
       </c>
       <c r="J126" t="n">
-        <v>0.5782857142857143</v>
+        <v>3.277777777777778</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_underlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.1612916002126528</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="C127" t="n">
-        <v>0.139126270260326</v>
+        <v>0.01272944771396784</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6011504178501718</v>
+        <v>-4.78</v>
       </c>
       <c r="E127" t="n">
-        <v>0.03893324676864831</v>
+        <v>0.02710385427272472</v>
       </c>
       <c r="F127" t="n">
-        <v>0.04136865290964695</v>
+        <v>0.02020246296458674</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1181578947368421</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>0.09346153846153847</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.196969696969697</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="J127" t="n">
-        <v>0.2318421052631579</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_coming_short_runs_per_match</t>
+          <t>count_completed_pass_to_dropping_off_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.1317650186071239</v>
+        <v>0.06852737905369485</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1042780818787011</v>
+        <v>0.07180293517754818</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5952962028906476</v>
+        <v>-4.56</v>
       </c>
       <c r="E128" t="n">
-        <v>0.06210813605285252</v>
+        <v>0.07450064618233364</v>
       </c>
       <c r="F128" t="n">
-        <v>0.06291899445918324</v>
+        <v>0.04622752224387967</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="J128" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_pulling_half_space_runs</t>
+          <t>pulling_half_space_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>164.6012796384902</v>
+        <v>0.01848724082934609</v>
       </c>
       <c r="C129" t="n">
-        <v>151.4079523238477</v>
+        <v>0.01891145802353233</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5354489982593309</v>
+        <v>-2.24</v>
       </c>
       <c r="E129" t="n">
-        <v>37.19677180915575</v>
+        <v>0.004632509484687489</v>
       </c>
       <c r="F129" t="n">
-        <v>30.18879621104936</v>
+        <v>0.005437960567837122</v>
       </c>
       <c r="G129" t="n">
-        <v>121.4913157894737</v>
+        <v>0.01342105263157895</v>
       </c>
       <c r="H129" t="n">
-        <v>110.2941176470588</v>
+        <v>0.008571428571428572</v>
       </c>
       <c r="I129" t="n">
-        <v>217.5927777777778</v>
+        <v>0.025</v>
       </c>
       <c r="J129" t="n">
-        <v>203.0702631578947</v>
+        <v>0.02972222222222222</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_half_space_runs_per_match</t>
+          <t>pulling_half_space_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2.123657628920787</v>
+        <v>0.01357469431153642</v>
       </c>
       <c r="C130" t="n">
-        <v>1.941730762845314</v>
+        <v>0.01331661603766867</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4700601836901109</v>
+        <v>1.94</v>
       </c>
       <c r="E130" t="n">
-        <v>0.5640030617943346</v>
+        <v>0.004748625609360703</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4741819586366319</v>
+        <v>0.004170198488322049</v>
       </c>
       <c r="G130" t="n">
-        <v>1.5</v>
+        <v>0.007894736842105263</v>
       </c>
       <c r="H130" t="n">
-        <v>1.235294117647059</v>
+        <v>0.006285714285714286</v>
       </c>
       <c r="I130" t="n">
-        <v>2.861111111111111</v>
+        <v>0.01947368421052632</v>
       </c>
       <c r="J130" t="n">
-        <v>2.805555555555555</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_pulling_wide_runs_per_match</t>
+          <t>count_completed_pass_to_dropping_off_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.01687931951089846</v>
+        <v>0.005555555555555555</v>
       </c>
       <c r="C131" t="n">
-        <v>0.009117237538290168</v>
+        <v>0.005510999721526037</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4573295603800235</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01547451310773831</v>
+        <v>0.01242259987499883</v>
       </c>
       <c r="F131" t="n">
-        <v>0.01665352644916904</v>
+        <v>0.01141704701484088</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -4895,349 +4894,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="J131" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>count_completed_pass_to_dangerous_pulling_half_space_runs_per_match</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0.06730462519936205</v>
-      </c>
-      <c r="C132" t="n">
-        <v>0.0942594084234951</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.4216370213557838</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.04779966583816886</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.06168800765294646</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.2083333333333333</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>count_pass_attempts_to_dangerous_pulling_half_space_runs_per_match</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>0.1242158426368953</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0.163447131512147</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.391188819983285</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.07299177711471423</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.09714542085205485</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.2424242424242424</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>count_pass_attempts_to_pulling_half_space_runs_per_match</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>2.575332270069112</v>
-      </c>
-      <c r="C134" t="n">
-        <v>2.441076328088712</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.3645908281729984</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.582010880209799</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.5316010318472384</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1.921052631578947</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1.617647058823529</v>
-      </c>
-      <c r="I134" t="n">
-        <v>3.305555555555555</v>
-      </c>
-      <c r="J134" t="n">
-        <v>3.277777777777778</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>count_pass_attempts_to_dangerous_pulling_wide_runs_per_match</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>0.01687931951089846</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0.0137468671679198</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.1987615979999813</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.01547451310773831</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.02129033999860699</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.05555555555555555</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>pulling_half_space_runs_to_which_pass_completed_threat_per_match</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0.01357469431153642</v>
-      </c>
-      <c r="C136" t="n">
-        <v>0.01331661603766867</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.1887772772147097</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.004748625609360703</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.004170198488322049</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.007894736842105263</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.006285714285714286</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.01947368421052632</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_goal_per_match</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0.01687931951089846</v>
-      </c>
-      <c r="C137" t="n">
-        <v>0.0183908233753435</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.09179045210953524</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.01547451310773831</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.02188008093373701</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.07894736842105263</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>count_completed_pass_to_underlap_runs_leading_to_goal_per_match</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.01212121212121212</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0.01272944771396784</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.09009831711993141</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.02710385427272472</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.02020246296458674</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.05555555555555555</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>count_completed_pass_to_dropping_off_runs_leading_to_shot_per_match</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0.06852737905369485</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0.07180293517754818</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.07284778196108706</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.07450064618233364</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.04622752224387967</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.1578947368421053</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>pulling_half_space_runs_to_which_pass_attempted_threat_per_match</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0.01848724082934609</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0.01891145802353233</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.05254069374927337</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.004632509484687488</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.005437960567837122</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.01342105263157895</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.008571428571428572</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.025</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.02972222222222222</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>count_completed_pass_to_dropping_off_runs_leading_to_goal_per_match</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0.005555555555555555</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0.005510999721526037</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.01242259987499883</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.01141704701484088</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="J141" t="n">
         <v>0.02857142857142857</v>
       </c>
     </row>

--- a/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_passes.xlsx
+++ b/Tableau métriques/moyenne/2021_2022/Skill Corner/moyenne_passes.xlsx
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01161616161616162</v>
+        <v>0.0108615328227313</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003659147869674185</v>
+        <v>0.003433857524291165</v>
       </c>
       <c r="D2" t="n">
-        <v>217.46</v>
+        <v>216.31</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01593112151069445</v>
+        <v>0.01488712507852638</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009665870957924205</v>
+        <v>0.009071833310878515</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -508,10 +508,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02807829351363342</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02687529861442905</v>
       </c>
     </row>
     <row r="3">
@@ -521,19 +521,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01161616161616162</v>
+        <v>0.0108615328227313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003659147869674185</v>
+        <v>0.003433857524291165</v>
       </c>
       <c r="D3" t="n">
-        <v>217.46</v>
+        <v>216.31</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01593112151069445</v>
+        <v>0.01488712507852638</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009665870957924205</v>
+        <v>0.009071833310878515</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02807829351363342</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02687529861442905</v>
       </c>
     </row>
     <row r="4">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01658692185007974</v>
+        <v>0.01555592387259319</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005455455455455455</v>
+        <v>0.005113523198342155</v>
       </c>
       <c r="D4" t="n">
-        <v>204.04</v>
+        <v>204.21</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02404540946696574</v>
+        <v>0.02235542068578485</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01129505392611557</v>
+        <v>0.01059075295256958</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04848560510654568</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02651675859142979</v>
       </c>
     </row>
     <row r="5">
@@ -589,167 +589,167 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09463051568314726</v>
+        <v>0.09080802867043396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04062892767227132</v>
+        <v>0.03911402289270984</v>
       </c>
       <c r="D5" t="n">
-        <v>132.91</v>
+        <v>132.16</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0444429817961492</v>
+        <v>0.04230489851761014</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02992670135405195</v>
+        <v>0.02863648518821433</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05294801220479008</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1448647693040279</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1103649688371581</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_dropping_off_runs_per_match</t>
+          <t>dropping_off_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02769803296119085</v>
+        <v>0.003560885650169507</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01303019959366709</v>
+        <v>0.001667742267042811</v>
       </c>
       <c r="D6" t="n">
-        <v>112.57</v>
+        <v>113.52</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01867927645136839</v>
+        <v>0.001277881884910345</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01443483951284623</v>
+        <v>0.001056192708367406</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.001670977627195294</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.0002650214137302294</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.004931546914717387</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.004102179140533454</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_coming_short_runs_per_match</t>
+          <t>count_pass_attempts_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04925571504518873</v>
+        <v>0.06910892943505173</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02358433621591516</v>
+        <v>0.03277466205305869</v>
       </c>
       <c r="D7" t="n">
-        <v>108.85</v>
+        <v>110.86</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03925712581767262</v>
+        <v>0.04567631633505805</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0304526207478957</v>
+        <v>0.0316779543385664</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.02658669389144121</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1248312226959437</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1038228288626704</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_coming_short_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07060074428495482</v>
+        <v>0.0472233172996896</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03388992043790805</v>
+        <v>0.02286206120222241</v>
       </c>
       <c r="D8" t="n">
-        <v>108.32</v>
+        <v>106.56</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04660292585056978</v>
+        <v>0.03741845801076487</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03298310000100904</v>
+        <v>0.02929699167910257</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02777777777777778</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1002019884516754</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1038228288626704</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>dropping_off_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003520467836257311</v>
+        <v>0.002951332365674969</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001752589683549436</v>
+        <v>0.00143775932474975</v>
       </c>
       <c r="D9" t="n">
-        <v>100.87</v>
+        <v>105.27</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001146817770589489</v>
+        <v>0.00125171946405937</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001092939133417643</v>
+        <v>0.00103612952925539</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001666666666666667</v>
+        <v>0.001670977627195294</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002777777777777778</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004473684210526316</v>
+        <v>0.004403283975397371</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004210526315789474</v>
+        <v>0.003610000583706633</v>
       </c>
     </row>
     <row r="10">
@@ -759,19 +759,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04875066454013822</v>
+        <v>0.04658817332795834</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02497574310267809</v>
+        <v>0.02401819525254442</v>
       </c>
       <c r="D10" t="n">
-        <v>95.19</v>
+        <v>93.97</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03863926903285281</v>
+        <v>0.03643437192240318</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02782009459311079</v>
+        <v>0.02621186165669561</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -780,44 +780,44 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.09873827165058077</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07890944703321522</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>dropping_off_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.002927698032961191</v>
+        <v>0.02603899717900932</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001511505211195614</v>
+        <v>0.01356592391327798</v>
       </c>
       <c r="D11" t="n">
-        <v>93.69</v>
+        <v>91.94</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001156371028136139</v>
+        <v>0.01765995695255225</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001079289357633894</v>
+        <v>0.01517662721980182</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004210526315789474</v>
+        <v>0.04981442195347121</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00368421052631579</v>
+        <v>0.0347448090290177</v>
       </c>
     </row>
     <row r="12">
@@ -827,19 +827,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02264752791068581</v>
+        <v>0.02169735854045725</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01214882950177068</v>
+        <v>0.01188876673224297</v>
       </c>
       <c r="D12" t="n">
-        <v>86.42</v>
+        <v>82.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02496789704353155</v>
+        <v>0.02387767090245377</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0157599146511331</v>
+        <v>0.01537243071109601</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05793299324250028</v>
       </c>
       <c r="J12" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.03923373892300771</v>
       </c>
     </row>
     <row r="13">
@@ -861,19 +861,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01687931951089846</v>
+        <v>0.01628943236514609</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009117237538290168</v>
+        <v>0.009212937810109848</v>
       </c>
       <c r="D13" t="n">
-        <v>85.14</v>
+        <v>76.81</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01547451310773831</v>
+        <v>0.0148846001233821</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01665352644916904</v>
+        <v>0.01654131985349729</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02821248515317969</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04925718938017782</v>
       </c>
     </row>
     <row r="14">
@@ -895,31 +895,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4206539074960127</v>
+        <v>0.3997141501798182</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240555738775553</v>
+        <v>0.2303276979809194</v>
       </c>
       <c r="D14" t="n">
-        <v>74.87</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1825155830001036</v>
+        <v>0.1739473300127745</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08261599303136892</v>
+        <v>0.07959646111045619</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2099827692682384</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1324346401582476</v>
       </c>
       <c r="I14" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6035479272524541</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3815487799651596</v>
       </c>
     </row>
     <row r="15">
@@ -929,31 +929,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1609250398724083</v>
+        <v>0.1533342641755257</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09349660363592253</v>
+        <v>0.08996931900077904</v>
       </c>
       <c r="D15" t="n">
-        <v>72.12</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01852587257434432</v>
+        <v>0.01731736435794207</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07025673482309791</v>
+        <v>0.06686978286259729</v>
       </c>
       <c r="G15" t="n">
-        <v>0.131578947368421</v>
+        <v>0.1268711052221529</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1738896540316879</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2209230704328839</v>
       </c>
     </row>
     <row r="16">
@@ -963,167 +963,167 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6920786815523657</v>
+        <v>0.6648777488876877</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4133120489931635</v>
+        <v>0.3948181974246338</v>
       </c>
       <c r="D16" t="n">
-        <v>67.45</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2766301309044565</v>
+        <v>0.2689815079618715</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1317519576410871</v>
+        <v>0.1252809199401266</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3093594861819149</v>
       </c>
       <c r="H16" t="n">
-        <v>0.25</v>
+        <v>0.2422237657401339</v>
       </c>
       <c r="I16" t="n">
-        <v>1.078947368421053</v>
+        <v>1.052304439775276</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.6183960055078134</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>coming_short_runs_to_which_pass_completed_threat_per_match</t>
+          <t>pass_opportunities_to_dropping_off_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02135911749069644</v>
+        <v>0.007587683022869713</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01283249248636246</v>
+        <v>0.004536411222834055</v>
       </c>
       <c r="D17" t="n">
-        <v>66.45</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>0.007870498155058579</v>
+        <v>0.002434849678075529</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003447565955380636</v>
+        <v>0.001600331283404315</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01131578947368421</v>
+        <v>0.004631362156657101</v>
       </c>
       <c r="H17" t="n">
-        <v>0.007647058823529412</v>
+        <v>0.001598880738106116</v>
       </c>
       <c r="I17" t="n">
-        <v>0.03242424242424242</v>
+        <v>0.01126497061636215</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01918918918918919</v>
+        <v>0.007739898793607358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_leading_to_goal_per_match</t>
+          <t>coming_short_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1321371610845295</v>
+        <v>0.02055043254702389</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07986529822443135</v>
+        <v>0.01232293835073677</v>
       </c>
       <c r="D18" t="n">
-        <v>65.45</v>
+        <v>66.77</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08510527662611968</v>
+        <v>0.007525008675811857</v>
       </c>
       <c r="F18" t="n">
-        <v>0.05627161492235732</v>
+        <v>0.003396473597085334</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.01091290262640751</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.007159587594770382</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.03102258037859823</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.01831972170820373</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>underlap_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_support_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0250776182881446</v>
+        <v>0.1268876336270588</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01531176609195185</v>
+        <v>0.07632899990419037</v>
       </c>
       <c r="D19" t="n">
-        <v>63.78</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.009839165245293525</v>
+        <v>0.08144957433749614</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005358975728870571</v>
+        <v>0.05262064488195492</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01472222222222222</v>
+        <v>0.02526208004598821</v>
       </c>
       <c r="H19" t="n">
-        <v>0.008888888888888889</v>
+        <v>0.02419127232652842</v>
       </c>
       <c r="I19" t="n">
-        <v>0.03606060606060606</v>
+        <v>0.252361210306705</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02947368421052632</v>
+        <v>0.2223843233498421</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_dropping_off_runs_threat_per_match</t>
+          <t>underlap_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.007707336523125996</v>
+        <v>0.02390525535688708</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004719135229197148</v>
+        <v>0.01465565887193764</v>
       </c>
       <c r="D20" t="n">
-        <v>63.32</v>
+        <v>63.11</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002510373356148318</v>
+        <v>0.00937744204214664</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001639216316435377</v>
+        <v>0.005035103084919328</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004722222222222222</v>
+        <v>0.01395995792568138</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001538461538461538</v>
+        <v>0.008611043834900092</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01157894736842105</v>
+        <v>0.03433214193461422</v>
       </c>
       <c r="J20" t="n">
-        <v>0.007894736842105263</v>
+        <v>0.02766541979333542</v>
       </c>
     </row>
     <row r="21">
@@ -1133,31 +1133,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0249845826687932</v>
+        <v>0.02409366366991745</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01546452783372288</v>
+        <v>0.01484993426150237</v>
       </c>
       <c r="D21" t="n">
-        <v>61.56</v>
+        <v>62.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00689241493404291</v>
+        <v>0.006476473658059878</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003770201556407527</v>
+        <v>0.003656962215748424</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01657894736842105</v>
+        <v>0.0163571380850581</v>
       </c>
       <c r="H21" t="n">
-        <v>0.009411764705882354</v>
+        <v>0.00880565832502774</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03363636363636364</v>
+        <v>0.03220935319542573</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02216216216216216</v>
+        <v>0.02114532452058952</v>
       </c>
     </row>
     <row r="22">
@@ -1167,235 +1167,235 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.03908054226475279</v>
+        <v>0.03767141367323098</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02456981966827169</v>
+        <v>0.02349692687915178</v>
       </c>
       <c r="D22" t="n">
-        <v>59.06</v>
+        <v>60.32</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01478348891510124</v>
+        <v>0.01431486316841196</v>
       </c>
       <c r="F22" t="n">
-        <v>0.007151419289498103</v>
+        <v>0.006829086538749184</v>
       </c>
       <c r="G22" t="n">
-        <v>0.025</v>
+        <v>0.02456850145292221</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01722222222222222</v>
+        <v>0.01643830452911202</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0568421052631579</v>
+        <v>0.05561035503631808</v>
       </c>
       <c r="J22" t="n">
-        <v>0.04105263157894737</v>
+        <v>0.03883025231594089</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dropping_off_runs_per_match</t>
+          <t>count_pass_attempts_to_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.0103668261563</v>
+        <v>4.085244943193706</v>
       </c>
       <c r="C23" t="n">
-        <v>2.532985294177245</v>
+        <v>2.570499679775331</v>
       </c>
       <c r="D23" t="n">
-        <v>58.33</v>
+        <v>58.93</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7262466722109239</v>
+        <v>0.7505065313022662</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7585116511196296</v>
+        <v>0.7492337455503411</v>
       </c>
       <c r="G23" t="n">
-        <v>3.027777777777778</v>
+        <v>3.141022492024539</v>
       </c>
       <c r="H23" t="n">
-        <v>1.5</v>
+        <v>1.540624846476252</v>
       </c>
       <c r="I23" t="n">
-        <v>4.805555555555555</v>
+        <v>4.996949701931744</v>
       </c>
       <c r="J23" t="n">
-        <v>4.763157894736842</v>
+        <v>4.739237516297357</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dropping_off_runs_per_match</t>
+          <t>count_completed_pass_to_dropping_off_runs_per_match</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.191121743753323</v>
+        <v>3.905986278189685</v>
       </c>
       <c r="C24" t="n">
-        <v>2.650711473900328</v>
+        <v>2.458753473327641</v>
       </c>
       <c r="D24" t="n">
-        <v>58.11</v>
+        <v>58.86</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7585107540081897</v>
+        <v>0.7160254695359444</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7680617114713238</v>
+        <v>0.7426543332360664</v>
       </c>
       <c r="G24" t="n">
-        <v>3.194444444444445</v>
+        <v>2.971256197490668</v>
       </c>
       <c r="H24" t="n">
-        <v>1.617647058823529</v>
+        <v>1.431511663856089</v>
       </c>
       <c r="I24" t="n">
-        <v>5.083333333333333</v>
+        <v>4.731126989400723</v>
       </c>
       <c r="J24" t="n">
-        <v>4.921052631578948</v>
+        <v>4.587963058951962</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_cross_receiver_runs_leading_to_goal_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2559808612440191</v>
+        <v>0.2283584228980305</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1633710293153018</v>
+        <v>0.144909556963849</v>
       </c>
       <c r="D25" t="n">
-        <v>56.69</v>
+        <v>57.59</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09708642583547565</v>
+        <v>0.1219100079781161</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09880447201513673</v>
+        <v>0.08539503524513538</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.05011758759666116</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.02772660336785809</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.3506337760659241</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.3327593842896405</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_per_match</t>
+          <t>count_completed_pass_to_cross_receiver_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.437347155768208</v>
+        <v>0.2449696103958894</v>
       </c>
       <c r="C26" t="n">
-        <v>5.40289738195311</v>
+        <v>0.1560078124699033</v>
       </c>
       <c r="D26" t="n">
-        <v>56.16</v>
+        <v>57.02</v>
       </c>
       <c r="E26" t="n">
-        <v>2.55028669106786</v>
+        <v>0.09333126319291025</v>
       </c>
       <c r="F26" t="n">
-        <v>1.129626321362922</v>
+        <v>0.09070828226588624</v>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>0.1346528290757615</v>
       </c>
       <c r="H26" t="n">
-        <v>3.352941176470588</v>
+        <v>0.02658219436014443</v>
       </c>
       <c r="I26" t="n">
-        <v>11.36363636363636</v>
+        <v>0.3787641257991615</v>
       </c>
       <c r="J26" t="n">
-        <v>7.5</v>
+        <v>0.3903931134024621</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_coming_short_runs_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_overlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2353003721424774</v>
+        <v>0.5575991081869865</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1517649177091902</v>
+        <v>0.3571147840086834</v>
       </c>
       <c r="D27" t="n">
-        <v>55.04</v>
+        <v>56.14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1253309874930358</v>
+        <v>0.1689437675708794</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08752001070411219</v>
+        <v>0.1521473697930233</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.4242862332515241</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02751620398679222</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.8458070938726712</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5768570784541197</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5725412014885699</v>
+        <v>8.157995237275056</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3707704109716494</v>
+        <v>5.235768881869623</v>
       </c>
       <c r="D28" t="n">
-        <v>54.42</v>
+        <v>55.81</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1624745707147808</v>
+        <v>2.395921352457999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1596458673489209</v>
+        <v>1.069071777709742</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4444444444444444</v>
+        <v>4.897606367308373</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02941176470588235</v>
+        <v>3.180028037241432</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8421052631578947</v>
+        <v>10.86052931921749</v>
       </c>
       <c r="J28" t="n">
-        <v>0.6052631578947368</v>
+        <v>7.140569052731667</v>
       </c>
     </row>
     <row r="29">
@@ -1405,31 +1405,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.069670388091442</v>
+        <v>8.869622011168085</v>
       </c>
       <c r="C29" t="n">
-        <v>5.935412179947783</v>
+        <v>5.750755044381526</v>
       </c>
       <c r="D29" t="n">
-        <v>52.81</v>
+        <v>54.23</v>
       </c>
       <c r="E29" t="n">
-        <v>1.618519954051086</v>
+        <v>1.643740722799085</v>
       </c>
       <c r="F29" t="n">
-        <v>1.660969912847941</v>
+        <v>1.606543557146876</v>
       </c>
       <c r="G29" t="n">
-        <v>7.027777777777778</v>
+        <v>6.889927673087935</v>
       </c>
       <c r="H29" t="n">
-        <v>3.705882352941177</v>
+        <v>3.508852488662624</v>
       </c>
       <c r="I29" t="n">
-        <v>11.33333333333333</v>
+        <v>11.2297474424226</v>
       </c>
       <c r="J29" t="n">
-        <v>10.78947368421053</v>
+        <v>10.40807329384458</v>
       </c>
     </row>
     <row r="30">
@@ -1439,99 +1439,99 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.685592769803296</v>
+        <v>8.499422793683062</v>
       </c>
       <c r="C30" t="n">
-        <v>5.716916677675191</v>
+        <v>5.541411258771247</v>
       </c>
       <c r="D30" t="n">
-        <v>51.93</v>
+        <v>53.38</v>
       </c>
       <c r="E30" t="n">
-        <v>1.638785598172046</v>
+        <v>1.662022446594458</v>
       </c>
       <c r="F30" t="n">
-        <v>1.567946526198054</v>
+        <v>1.512832018678046</v>
       </c>
       <c r="G30" t="n">
-        <v>6.583333333333333</v>
+        <v>6.457684673653015</v>
       </c>
       <c r="H30" t="n">
-        <v>3.441176470588236</v>
+        <v>3.257550369092344</v>
       </c>
       <c r="I30" t="n">
-        <v>10.97222222222222</v>
+        <v>10.88382186742943</v>
       </c>
       <c r="J30" t="n">
-        <v>10.23684210526316</v>
+        <v>9.856335144671414</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_coming_short_runs_per_match</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.075757575757576</v>
+        <v>0.184952495748985</v>
       </c>
       <c r="C31" t="n">
-        <v>6.059656173030786</v>
+        <v>0.1222286928146423</v>
       </c>
       <c r="D31" t="n">
-        <v>49.77</v>
+        <v>51.32</v>
       </c>
       <c r="E31" t="n">
-        <v>2.490030413485051</v>
+        <v>0.08435066313887157</v>
       </c>
       <c r="F31" t="n">
-        <v>1.184447046706225</v>
+        <v>0.09108124958184288</v>
       </c>
       <c r="G31" t="n">
-        <v>5.684210526315789</v>
+        <v>0.04895025224307911</v>
       </c>
       <c r="H31" t="n">
-        <v>3.911764705882353</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>11.87878787878788</v>
+        <v>0.2616559131388164</v>
       </c>
       <c r="J31" t="n">
-        <v>8.131578947368421</v>
+        <v>0.3288538784093079</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_goal_per_match</t>
+          <t>count_pass_attempts_to_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1902179691653376</v>
+        <v>8.773789364961896</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1277860516250609</v>
+        <v>5.86586232959398</v>
       </c>
       <c r="D32" t="n">
-        <v>48.86</v>
+        <v>49.57</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08358728402233906</v>
+        <v>2.328272891383802</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09594763253194165</v>
+        <v>1.114109169321313</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05263157894736842</v>
+        <v>5.580437145168144</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3.713899897535831</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2727272727272727</v>
+        <v>11.3568774844013</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3428571428571429</v>
+        <v>7.739180990366454</v>
       </c>
     </row>
     <row r="33">
@@ -1541,31 +1541,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.06135007974481659</v>
+        <v>0.05917123083334212</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04183112218979092</v>
+        <v>0.04027810823199373</v>
       </c>
       <c r="D33" t="n">
-        <v>46.66</v>
+        <v>46.91</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01325164454762792</v>
+        <v>0.01220437878395226</v>
       </c>
       <c r="F33" t="n">
-        <v>0.009822745952378727</v>
+        <v>0.009482524072940706</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04105263157894737</v>
+        <v>0.04032084995394392</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02205882352941177</v>
+        <v>0.02074902372213551</v>
       </c>
       <c r="I33" t="n">
-        <v>0.07696969696969697</v>
+        <v>0.07332635509740441</v>
       </c>
       <c r="J33" t="n">
-        <v>0.05918918918918919</v>
+        <v>0.05660900269370861</v>
       </c>
     </row>
     <row r="34">
@@ -1575,167 +1575,167 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.07815523657628923</v>
+        <v>0.07531528533851939</v>
       </c>
       <c r="C34" t="n">
-        <v>0.05362083613569682</v>
+        <v>0.05128053490721929</v>
       </c>
       <c r="D34" t="n">
-        <v>45.76</v>
+        <v>46.87</v>
       </c>
       <c r="E34" t="n">
-        <v>0.03998705912514466</v>
+        <v>0.03857006829349388</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0124422308366066</v>
+        <v>0.01176052894018601</v>
       </c>
       <c r="G34" t="n">
-        <v>0.03842105263157895</v>
+        <v>0.03796819289901271</v>
       </c>
       <c r="H34" t="n">
-        <v>0.03555555555555556</v>
+        <v>0.0336974192507806</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1357894736842105</v>
+        <v>0.1319187279501547</v>
       </c>
       <c r="J34" t="n">
-        <v>0.08416666666666667</v>
+        <v>0.08085325701748022</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_underlap_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.251780967570441</v>
+        <v>1.269446801612804</v>
       </c>
       <c r="C35" t="n">
-        <v>0.861705097401692</v>
+        <v>0.8680516521855248</v>
       </c>
       <c r="D35" t="n">
-        <v>45.27</v>
+        <v>46.24</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5687485755662852</v>
+        <v>0.6550717774177038</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3391248091827965</v>
+        <v>0.2290473170121266</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.5564068721664563</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5</v>
+        <v>0.5013386979654584</v>
       </c>
       <c r="I35" t="n">
-        <v>1.878787878787879</v>
+        <v>2.290096893199252</v>
       </c>
       <c r="J35" t="n">
-        <v>1.842105263157895</v>
+        <v>1.306012043748825</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_underlap_runs_per_match</t>
+          <t>count_completed_pass_to_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.315816055289739</v>
+        <v>1.193799887113551</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9083208008130608</v>
+        <v>0.8212564334056714</v>
       </c>
       <c r="D36" t="n">
-        <v>44.86</v>
+        <v>45.36</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6732986118292963</v>
+        <v>0.5405004172524045</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2403253800581451</v>
+        <v>0.3184957176323253</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5526315789473685</v>
+        <v>0.7677476088860316</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.4776787415683896</v>
       </c>
       <c r="I36" t="n">
-        <v>2.342105263157895</v>
+        <v>1.787347375605616</v>
       </c>
       <c r="J36" t="n">
-        <v>1.361111111111111</v>
+        <v>1.731050295536107</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_overlap_runs_per_match</t>
+          <t>count_coming_short_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.293328017012227</v>
+        <v>21.21879814129641</v>
       </c>
       <c r="C37" t="n">
-        <v>3.676710593661058</v>
+        <v>14.76223903002133</v>
       </c>
       <c r="D37" t="n">
-        <v>43.97</v>
+        <v>43.74</v>
       </c>
       <c r="E37" t="n">
-        <v>1.298377862216179</v>
+        <v>4.253714982681259</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7793220484574219</v>
+        <v>2.593977062443169</v>
       </c>
       <c r="G37" t="n">
-        <v>3.736842105263158</v>
+        <v>15.92639061803779</v>
       </c>
       <c r="H37" t="n">
-        <v>1.794117647058824</v>
+        <v>8.528545175119591</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>26.29494959145024</v>
       </c>
       <c r="J37" t="n">
-        <v>5.083333333333333</v>
+        <v>18.84989887913026</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>count_coming_short_runs_by_teammate_per_match</t>
+          <t>count_pass_attempts_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21.92259436469963</v>
+        <v>5.08347487392941</v>
       </c>
       <c r="C38" t="n">
-        <v>15.24728498358529</v>
+        <v>3.538213447155103</v>
       </c>
       <c r="D38" t="n">
-        <v>43.78</v>
+        <v>43.67</v>
       </c>
       <c r="E38" t="n">
-        <v>4.559836611056546</v>
+        <v>1.211369892880222</v>
       </c>
       <c r="F38" t="n">
-        <v>2.723656701221386</v>
+        <v>0.7524676646857715</v>
       </c>
       <c r="G38" t="n">
-        <v>16.21052631578947</v>
+        <v>3.683891265200748</v>
       </c>
       <c r="H38" t="n">
-        <v>8.970588235294118</v>
+        <v>1.701415062672218</v>
       </c>
       <c r="I38" t="n">
-        <v>27.16666666666667</v>
+        <v>6.708893006592959</v>
       </c>
       <c r="J38" t="n">
-        <v>19.78947368421053</v>
+        <v>5.081096066199758</v>
       </c>
     </row>
     <row r="39">
@@ -1745,99 +1745,99 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.75704412546518</v>
+        <v>20.10152141627162</v>
       </c>
       <c r="C39" t="n">
-        <v>14.45409842922227</v>
+        <v>13.99755387132092</v>
       </c>
       <c r="D39" t="n">
         <v>43.61</v>
       </c>
       <c r="E39" t="n">
-        <v>4.1352418021065</v>
+        <v>3.867679285531462</v>
       </c>
       <c r="F39" t="n">
-        <v>2.58094224284664</v>
+        <v>2.449464990548523</v>
       </c>
       <c r="G39" t="n">
-        <v>15.3421052631579</v>
+        <v>15.0713745184087</v>
       </c>
       <c r="H39" t="n">
-        <v>8.735294117647058</v>
+        <v>8.308320341846075</v>
       </c>
       <c r="I39" t="n">
-        <v>25.52777777777778</v>
+        <v>24.75076374219708</v>
       </c>
       <c r="J39" t="n">
-        <v>18.71052631578947</v>
+        <v>17.81160993119432</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_dropping_off_runs</t>
+          <t>count_completed_pass_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21.01837023079407</v>
+        <v>3.972479079888821</v>
       </c>
       <c r="C40" t="n">
-        <v>14.76803803694954</v>
+        <v>2.79680088838971</v>
       </c>
       <c r="D40" t="n">
-        <v>42.32</v>
+        <v>42.04</v>
       </c>
       <c r="E40" t="n">
-        <v>2.763509334991506</v>
+        <v>1.112646650365773</v>
       </c>
       <c r="F40" t="n">
-        <v>3.80662895122379</v>
+        <v>0.6202022178400777</v>
       </c>
       <c r="G40" t="n">
-        <v>16.79432450265784</v>
+        <v>2.637694531828928</v>
       </c>
       <c r="H40" t="n">
-        <v>9.158782394076511</v>
+        <v>1.200187731296499</v>
       </c>
       <c r="I40" t="n">
-        <v>23.53001531363374</v>
+        <v>5.477336981278088</v>
       </c>
       <c r="J40" t="n">
-        <v>24.79931198187777</v>
+        <v>3.823711096378764</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_overlap_runs_per_match</t>
+          <t>pass_completion_ratio_to_dropping_off_runs</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.137320574162679</v>
+        <v>20.79913882693846</v>
       </c>
       <c r="C41" t="n">
-        <v>2.912222158537948</v>
+        <v>14.66586753956858</v>
       </c>
       <c r="D41" t="n">
-        <v>42.07</v>
+        <v>41.82</v>
       </c>
       <c r="E41" t="n">
-        <v>1.193543786461426</v>
+        <v>2.9520291208224</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6437641101682281</v>
+        <v>4.199234716084947</v>
       </c>
       <c r="G41" t="n">
-        <v>2.657894736842105</v>
+        <v>16.69630876689527</v>
       </c>
       <c r="H41" t="n">
-        <v>1.264705882352941</v>
+        <v>8.738868765389897</v>
       </c>
       <c r="I41" t="n">
-        <v>5.710526315789473</v>
+        <v>24.1338283096588</v>
       </c>
       <c r="J41" t="n">
-        <v>3.833333333333333</v>
+        <v>24.03432661674489</v>
       </c>
     </row>
     <row r="42">
@@ -1847,405 +1847,405 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.030508624195228</v>
+        <v>7.66237293264024</v>
       </c>
       <c r="C42" t="n">
-        <v>5.699320521379111</v>
+        <v>5.452482518637209</v>
       </c>
       <c r="D42" t="n">
-        <v>40.9</v>
+        <v>40.53</v>
       </c>
       <c r="E42" t="n">
-        <v>3.333732385933883</v>
+        <v>3.162231285123788</v>
       </c>
       <c r="F42" t="n">
-        <v>1.902630130248079</v>
+        <v>1.796005170944811</v>
       </c>
       <c r="G42" t="n">
-        <v>5.119040496540497</v>
+        <v>4.859673434151964</v>
       </c>
       <c r="H42" t="n">
-        <v>3.588590896283204</v>
+        <v>3.432290072933242</v>
       </c>
       <c r="I42" t="n">
-        <v>12.53867422051633</v>
+        <v>11.96018934329979</v>
       </c>
       <c r="J42" t="n">
-        <v>10.38232600732601</v>
+        <v>9.778073255442171</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_overlap_runs_per_match</t>
+          <t>count_completed_pass_to_runs_in_behind_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.415364167995747</v>
+        <v>0.2135455822917222</v>
       </c>
       <c r="C43" t="n">
-        <v>1.009944966740632</v>
+        <v>0.1534347531925934</v>
       </c>
       <c r="D43" t="n">
-        <v>40.14</v>
+        <v>39.18</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4346533618383672</v>
+        <v>0.08986115451384043</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2625587391707159</v>
+        <v>0.07482700822301465</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.09977392064587302</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.03541215817430651</v>
       </c>
       <c r="I43" t="n">
-        <v>1.916666666666667</v>
+        <v>0.3207538680717995</v>
       </c>
       <c r="J43" t="n">
-        <v>1.5</v>
+        <v>0.2870960312867608</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_in_behind_leading_to_goal_per_match</t>
+          <t>overlap_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2245614035087719</v>
+        <v>0.05042828758973843</v>
       </c>
       <c r="C44" t="n">
-        <v>0.16074123369789</v>
+        <v>0.03626890023220196</v>
       </c>
       <c r="D44" t="n">
-        <v>39.7</v>
+        <v>39.04</v>
       </c>
       <c r="E44" t="n">
-        <v>0.09375324168215329</v>
+        <v>0.01324855723683216</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07816888951910041</v>
+        <v>0.009963576973333596</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.03210413073538131</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.014786312459056</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.06756701846273237</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2972972972972973</v>
+        <v>0.05081902441384387</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_overlap_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.772461456671983</v>
+        <v>1.35403183080922</v>
       </c>
       <c r="C45" t="n">
-        <v>0.554121639415757</v>
+        <v>0.9739221211963575</v>
       </c>
       <c r="D45" t="n">
-        <v>39.4</v>
+        <v>39.03</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2090990724852695</v>
+        <v>0.4099537947796971</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1617233594834925</v>
+        <v>0.2466986453495705</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.8775730780830012</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.6399916875177338</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9722222222222222</v>
+        <v>1.825509959536449</v>
       </c>
       <c r="J45" t="n">
-        <v>0.8157894736842105</v>
+        <v>1.435943556368682</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_overlap_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.05258904837852206</v>
+        <v>9.505853968034604</v>
       </c>
       <c r="C46" t="n">
-        <v>0.03783609767866734</v>
+        <v>6.850726938113378</v>
       </c>
       <c r="D46" t="n">
-        <v>38.99</v>
+        <v>38.76</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01408770508782789</v>
+        <v>2.393946278138404</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01036590595022292</v>
+        <v>1.394548009810548</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03263157894736842</v>
+        <v>6.721983613130561</v>
       </c>
       <c r="H46" t="n">
-        <v>0.01558823529411765</v>
+        <v>3.420282832729487</v>
       </c>
       <c r="I46" t="n">
-        <v>0.07026315789473685</v>
+        <v>12.66666683553635</v>
       </c>
       <c r="J46" t="n">
-        <v>0.05352941176470588</v>
+        <v>8.714789577293956</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_underlap_runs_leading_to_shot_per_match</t>
+          <t>count_opportunities_to_pass_to_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1987772461456672</v>
+        <v>9.369486939004195</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1430112819586503</v>
+        <v>6.75209880410805</v>
       </c>
       <c r="D47" t="n">
-        <v>38.99</v>
+        <v>38.76</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09238076473647858</v>
+        <v>2.350089015994052</v>
       </c>
       <c r="F47" t="n">
-        <v>0.08875550393671731</v>
+        <v>1.367071350745709</v>
       </c>
       <c r="G47" t="n">
-        <v>0.131578947368421</v>
+        <v>6.6185294205987</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>3.420282832729487</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3421052631578947</v>
+        <v>12.46899820011807</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2647058823529412</v>
+        <v>8.518408835324962</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>count_overlap_runs_by_teammate_per_match</t>
+          <t>pass_opportunities_to_overlap_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9.909223817118555</v>
+        <v>0.120982001408596</v>
       </c>
       <c r="C48" t="n">
-        <v>7.134457910262864</v>
+        <v>0.08726845588031681</v>
       </c>
       <c r="D48" t="n">
-        <v>38.89</v>
+        <v>38.63</v>
       </c>
       <c r="E48" t="n">
-        <v>2.558864270249696</v>
+        <v>0.03199707051991967</v>
       </c>
       <c r="F48" t="n">
-        <v>1.47160142984801</v>
+        <v>0.01957041174460731</v>
       </c>
       <c r="G48" t="n">
-        <v>6.868421052631579</v>
+        <v>0.08104831047134493</v>
       </c>
       <c r="H48" t="n">
-        <v>3.617647058823529</v>
+        <v>0.04548077019707405</v>
       </c>
       <c r="I48" t="n">
-        <v>13.21052631578947</v>
+        <v>0.1674011786038391</v>
       </c>
       <c r="J48" t="n">
-        <v>9.184210526315789</v>
+        <v>0.1145988691534196</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_overlap_runs_per_match</t>
+          <t>count_completed_pass_to_underlap_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>9.76576289207868</v>
+        <v>0.1910973827440965</v>
       </c>
       <c r="C49" t="n">
-        <v>7.033932277631968</v>
+        <v>0.1380628272055065</v>
       </c>
       <c r="D49" t="n">
-        <v>38.84</v>
+        <v>38.41</v>
       </c>
       <c r="E49" t="n">
-        <v>2.510649100167856</v>
+        <v>0.08935612061990407</v>
       </c>
       <c r="F49" t="n">
-        <v>1.444755714892453</v>
+        <v>0.08561906913292289</v>
       </c>
       <c r="G49" t="n">
-        <v>6.763157894736842</v>
+        <v>0.1279447018048879</v>
       </c>
       <c r="H49" t="n">
-        <v>3.617647058823529</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>13</v>
+        <v>0.3307808460040286</v>
       </c>
       <c r="J49" t="n">
-        <v>9.026315789473685</v>
+        <v>0.2500393633235942</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_overlap_runs_threat_per_match</t>
+          <t>count_pass_attempts_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1261562998405104</v>
+        <v>0.7379131636286844</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09090690446340602</v>
+        <v>0.5334000645990753</v>
       </c>
       <c r="D50" t="n">
-        <v>38.78</v>
+        <v>38.34</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03388403707017947</v>
+        <v>0.1940373898120226</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02083702382423889</v>
+        <v>0.1546782795880632</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08263157894736843</v>
+        <v>0.4691513112831923</v>
       </c>
       <c r="H50" t="n">
-        <v>0.04823529411764706</v>
+        <v>0.3024775191665245</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1742105263157895</v>
+        <v>0.9217754109582798</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1213157894736842</v>
+        <v>0.7874367100323143</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_overlap_runs_per_match</t>
+          <t>count_pass_attempts_to_underlap_runs_per_match</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.5838383838383838</v>
+        <v>1.793710409004018</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4219985424474588</v>
+        <v>1.303193771982009</v>
       </c>
       <c r="D51" t="n">
-        <v>38.35</v>
+        <v>37.64</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1371095085784541</v>
+        <v>0.7768892774976199</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1269475425694791</v>
+        <v>0.4071753280878269</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3947368421052632</v>
+        <v>1.077146536748976</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.8707654219402323</v>
       </c>
       <c r="I51" t="n">
-        <v>0.7222222222222222</v>
+        <v>2.660189164318265</v>
       </c>
       <c r="J51" t="n">
-        <v>0.6052631578947368</v>
+        <v>2.298605044433457</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>overlap_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_overlap_runs_per_match</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.06679718234981394</v>
+        <v>0.5570006549210023</v>
       </c>
       <c r="C52" t="n">
-        <v>0.04861688470016644</v>
+        <v>0.4053010263260542</v>
       </c>
       <c r="D52" t="n">
-        <v>37.4</v>
+        <v>37.43</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01539676269851974</v>
+        <v>0.1278856890568061</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01219744123268287</v>
+        <v>0.1225221283844429</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04447368421052631</v>
+        <v>0.3853418227103356</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02264705882352941</v>
+        <v>0.2248018999987785</v>
       </c>
       <c r="I52" t="n">
-        <v>0.08605263157894737</v>
+        <v>0.6861656053616277</v>
       </c>
       <c r="J52" t="n">
-        <v>0.06736842105263158</v>
+        <v>0.5889562113109272</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_underlap_runs_per_match</t>
+          <t>overlap_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.874109516214779</v>
+        <v>0.06409090271509656</v>
       </c>
       <c r="C53" t="n">
-        <v>1.36515960011316</v>
+        <v>0.0467305042880819</v>
       </c>
       <c r="D53" t="n">
-        <v>37.28</v>
+        <v>37.15</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8149169058290308</v>
+        <v>0.01431500208143708</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4221810782229654</v>
+        <v>0.01166017806652007</v>
       </c>
       <c r="G53" t="n">
-        <v>1.138888888888889</v>
+        <v>0.04383537869120108</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.02144588393645222</v>
       </c>
       <c r="I53" t="n">
-        <v>2.763157894736842</v>
+        <v>0.08256757498119111</v>
       </c>
       <c r="J53" t="n">
-        <v>2.421052631578947</v>
+        <v>0.06384269823626731</v>
       </c>
     </row>
     <row r="54">
@@ -2255,31 +2255,31 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2382509303561935</v>
+        <v>0.2275193966776171</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1759954574041261</v>
+        <v>0.166335826130847</v>
       </c>
       <c r="D54" t="n">
-        <v>35.37</v>
+        <v>36.78</v>
       </c>
       <c r="E54" t="n">
-        <v>0.05894793922278726</v>
+        <v>0.05354099993738425</v>
       </c>
       <c r="F54" t="n">
-        <v>0.07611795573018633</v>
+        <v>0.07154420840113322</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1795021619615148</v>
       </c>
       <c r="H54" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.03587830080367394</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3139493106178282</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.2491913911424775</v>
       </c>
     </row>
     <row r="55">
@@ -2289,31 +2289,31 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3.854492291334397</v>
+        <v>3.700781000705617</v>
       </c>
       <c r="C55" t="n">
-        <v>2.87751236419967</v>
+        <v>2.751287860372667</v>
       </c>
       <c r="D55" t="n">
-        <v>33.95</v>
+        <v>34.51</v>
       </c>
       <c r="E55" t="n">
-        <v>1.755132211642269</v>
+        <v>1.66748074994108</v>
       </c>
       <c r="F55" t="n">
-        <v>0.783211066934259</v>
+        <v>0.7453118672729634</v>
       </c>
       <c r="G55" t="n">
-        <v>1.947368421052632</v>
+        <v>1.903191762696566</v>
       </c>
       <c r="H55" t="n">
-        <v>1.833333333333333</v>
+        <v>1.726408908794998</v>
       </c>
       <c r="I55" t="n">
-        <v>5.921052631578948</v>
+        <v>5.701089164654104</v>
       </c>
       <c r="J55" t="n">
-        <v>4.75</v>
+        <v>4.561738543577996</v>
       </c>
     </row>
     <row r="56">
@@ -2323,99 +2323,99 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3.91347687400319</v>
+        <v>3.757251747448798</v>
       </c>
       <c r="C56" t="n">
-        <v>2.935170938297873</v>
+        <v>2.805897668052571</v>
       </c>
       <c r="D56" t="n">
-        <v>33.33</v>
+        <v>33.91</v>
       </c>
       <c r="E56" t="n">
-        <v>1.754844870546226</v>
+        <v>1.666988743928578</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8003134823506522</v>
+        <v>0.7611724366745801</v>
       </c>
       <c r="G56" t="n">
-        <v>2.078947368421053</v>
+        <v>2.031051535865021</v>
       </c>
       <c r="H56" t="n">
-        <v>1.888888888888889</v>
+        <v>1.778692187063353</v>
       </c>
       <c r="I56" t="n">
-        <v>6.026315789473684</v>
+        <v>5.800628189032689</v>
       </c>
       <c r="J56" t="n">
-        <v>4.833333333333333</v>
+        <v>4.640151964461744</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>runs_in_behind_to_which_pass_completed_threat_per_match</t>
+          <t>count_completed_pass_to_support_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1703508771929825</v>
+        <v>1.138964704123914</v>
       </c>
       <c r="C57" t="n">
-        <v>0.128257151549876</v>
+        <v>0.8522879959429833</v>
       </c>
       <c r="D57" t="n">
-        <v>32.82</v>
+        <v>33.64</v>
       </c>
       <c r="E57" t="n">
-        <v>0.03241676791050085</v>
+        <v>0.3841638596270158</v>
       </c>
       <c r="F57" t="n">
-        <v>0.02527464306668938</v>
+        <v>0.2593980229894283</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1363157894736842</v>
+        <v>0.7936331307919149</v>
       </c>
       <c r="H57" t="n">
-        <v>0.09351351351351352</v>
+        <v>0.4963446359878012</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2133333333333333</v>
+        <v>1.792306653793551</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1816216216216216</v>
+        <v>1.41427477223882</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_support_runs_leading_to_shot_per_match</t>
+          <t>runs_in_behind_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.179053694843168</v>
+        <v>0.1632526958583627</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8925146324836727</v>
+        <v>0.1234514257387734</v>
       </c>
       <c r="D58" t="n">
-        <v>32.1</v>
+        <v>32.24</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4101147361485835</v>
+        <v>0.02987188971316714</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2738250933187529</v>
+        <v>0.02293884943701496</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.1326410591809256</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.09097001887860201</v>
       </c>
       <c r="I58" t="n">
-        <v>1.868421052631579</v>
+        <v>0.2032163018657365</v>
       </c>
       <c r="J58" t="n">
-        <v>1.5</v>
+        <v>0.1748016868818062</v>
       </c>
     </row>
     <row r="59">
@@ -2425,167 +2425,167 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6.201169590643275</v>
+        <v>5.977553480259678</v>
       </c>
       <c r="C59" t="n">
-        <v>4.747585306532676</v>
+        <v>4.586049130716059</v>
       </c>
       <c r="D59" t="n">
-        <v>30.62</v>
+        <v>30.34</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2916320385722768</v>
+        <v>0.2766762833032031</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8480400210466086</v>
+        <v>0.7416548971072823</v>
       </c>
       <c r="G59" t="n">
-        <v>5.763157894736842</v>
+        <v>5.552732119257718</v>
       </c>
       <c r="H59" t="n">
-        <v>3.307692307692307</v>
+        <v>3.269397818444383</v>
       </c>
       <c r="I59" t="n">
-        <v>6.555555555555555</v>
+        <v>6.324945661709162</v>
       </c>
       <c r="J59" t="n">
-        <v>6.815789473684211</v>
+        <v>6.506500545350757</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_to_which_pass_completed_threat_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01481632110579479</v>
+        <v>7.687139462697983</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01139389391603014</v>
+        <v>5.90908028359936</v>
       </c>
       <c r="D60" t="n">
-        <v>30.04</v>
+        <v>30.09</v>
       </c>
       <c r="E60" t="n">
-        <v>0.002588378020452085</v>
+        <v>0.8741171588524475</v>
       </c>
       <c r="F60" t="n">
-        <v>0.002649874107172696</v>
+        <v>0.7417058929117042</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01138888888888889</v>
+        <v>6.74656598771038</v>
       </c>
       <c r="H60" t="n">
-        <v>0.005</v>
+        <v>4.865875406536608</v>
       </c>
       <c r="I60" t="n">
-        <v>0.01757575757575758</v>
+        <v>8.546668116350498</v>
       </c>
       <c r="J60" t="n">
-        <v>0.016</v>
+        <v>8.032919619328823</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>count_completed_pass_to_runs_in_behind_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>7.971717171717172</v>
+        <v>1.224796965021663</v>
       </c>
       <c r="C61" t="n">
-        <v>6.141240623640005</v>
+        <v>0.946140291355925</v>
       </c>
       <c r="D61" t="n">
-        <v>29.81</v>
+        <v>29.45</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9369148019345326</v>
+        <v>0.3052214877387194</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8179205206053947</v>
+        <v>0.2418081901971004</v>
       </c>
       <c r="G61" t="n">
-        <v>6.921052631578948</v>
+        <v>0.8640357164167249</v>
       </c>
       <c r="H61" t="n">
-        <v>5</v>
+        <v>0.4768505595821581</v>
       </c>
       <c r="I61" t="n">
-        <v>8.969696969696969</v>
+        <v>1.673141479264647</v>
       </c>
       <c r="J61" t="n">
-        <v>8.375</v>
+        <v>1.384593289811995</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_in_behind_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.271690590111643</v>
+        <v>2.093835321528646</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9854171697979747</v>
+        <v>1.62028522599243</v>
       </c>
       <c r="D62" t="n">
-        <v>29.05</v>
+        <v>29.23</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3374039900815267</v>
+        <v>0.336338144362938</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2547489201182062</v>
+        <v>0.3423723992556244</v>
       </c>
       <c r="G62" t="n">
-        <v>0.868421052631579</v>
+        <v>1.59069956049276</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.9809733042093258</v>
       </c>
       <c r="I62" t="n">
-        <v>1.757575757575758</v>
+        <v>2.469068706773217</v>
       </c>
       <c r="J62" t="n">
-        <v>1.432432432432432</v>
+        <v>2.486062486072644</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_pulling_half_space_runs_per_match</t>
+          <t>pulling_wide_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.06730462519936205</v>
+        <v>0.01411021239223246</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0942594084234951</v>
+        <v>0.01094800385238607</v>
       </c>
       <c r="D63" t="n">
-        <v>-28.6</v>
+        <v>28.88</v>
       </c>
       <c r="E63" t="n">
-        <v>0.04779966583816886</v>
+        <v>0.002451293337347248</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06168800765294646</v>
+        <v>0.002380076179123382</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.01073076393290315</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.005588487127071651</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.01663130349500499</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.01527262894738029</v>
       </c>
     </row>
     <row r="64">
@@ -2595,99 +2595,99 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.5112440191387559</v>
+        <v>0.4918133036853042</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3997322757384677</v>
+        <v>0.3852156837018458</v>
       </c>
       <c r="D64" t="n">
-        <v>27.9</v>
+        <v>27.67</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1709578967577173</v>
+        <v>0.1564335850186376</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1329702557499557</v>
+        <v>0.1253131150238788</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3322480138908401</v>
       </c>
       <c r="H64" t="n">
-        <v>0.2</v>
+        <v>0.1891521372365591</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.68767055953697</v>
       </c>
       <c r="J64" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.566086383658738</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_pulling_wide_runs_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.04223790536948432</v>
+        <v>0.06470302367493022</v>
       </c>
       <c r="C65" t="n">
-        <v>0.03311035833915091</v>
+        <v>0.08895364833732182</v>
       </c>
       <c r="D65" t="n">
-        <v>27.57</v>
+        <v>-27.26</v>
       </c>
       <c r="E65" t="n">
-        <v>0.007041173184908361</v>
+        <v>0.04616731960727523</v>
       </c>
       <c r="F65" t="n">
-        <v>0.007156383585813325</v>
+        <v>0.05786405479537203</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03277777777777777</v>
+        <v>0.02512087326854381</v>
       </c>
       <c r="H65" t="n">
-        <v>0.01538461538461539</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.04921052631578948</v>
+        <v>0.1340442271341148</v>
       </c>
       <c r="J65" t="n">
-        <v>0.042</v>
+        <v>0.1902045745991937</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>pass_opportunities_to_pulling_wide_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2.160287081339713</v>
+        <v>0.04057208145851546</v>
       </c>
       <c r="C66" t="n">
-        <v>1.69675131634884</v>
+        <v>0.03191681074512846</v>
       </c>
       <c r="D66" t="n">
-        <v>27.32</v>
+        <v>27.12</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3694673443946401</v>
+        <v>0.006919349956292814</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3600007275425254</v>
+        <v>0.006383887551608983</v>
       </c>
       <c r="G66" t="n">
-        <v>1.611111111111111</v>
+        <v>0.03127586684171663</v>
       </c>
       <c r="H66" t="n">
-        <v>1.028571428571428</v>
+        <v>0.0167921385556787</v>
       </c>
       <c r="I66" t="n">
-        <v>2.555555555555555</v>
+        <v>0.04719774889244961</v>
       </c>
       <c r="J66" t="n">
-        <v>2.583333333333333</v>
+        <v>0.04020890141901903</v>
       </c>
     </row>
     <row r="67">
@@ -2697,31 +2697,31 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>14.17809675704413</v>
+        <v>13.68247684105678</v>
       </c>
       <c r="C67" t="n">
-        <v>11.16443559863064</v>
+        <v>10.79808194077142</v>
       </c>
       <c r="D67" t="n">
-        <v>26.99</v>
+        <v>26.71</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9406842430761921</v>
+        <v>0.9462080802886066</v>
       </c>
       <c r="F67" t="n">
-        <v>1.871268119446379</v>
+        <v>1.664276947288417</v>
       </c>
       <c r="G67" t="n">
-        <v>12.66666666666667</v>
+        <v>12.2566046314584</v>
       </c>
       <c r="H67" t="n">
-        <v>7.676470588235294</v>
+        <v>7.282764667979333</v>
       </c>
       <c r="I67" t="n">
-        <v>15.21052631578947</v>
+        <v>14.89684964097549</v>
       </c>
       <c r="J67" t="n">
-        <v>15.3421052631579</v>
+        <v>14.70433861238212</v>
       </c>
     </row>
     <row r="68">
@@ -2731,99 +2731,99 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>14.56326422115896</v>
+        <v>14.05844737129741</v>
       </c>
       <c r="C68" t="n">
-        <v>11.48337532357656</v>
+        <v>11.1043023570061</v>
       </c>
       <c r="D68" t="n">
-        <v>26.82</v>
+        <v>26.6</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9438480824826646</v>
+        <v>0.958115262291825</v>
       </c>
       <c r="F68" t="n">
-        <v>1.973549312288972</v>
+        <v>1.752679977057661</v>
       </c>
       <c r="G68" t="n">
-        <v>13.02777777777778</v>
+        <v>12.59600810459902</v>
       </c>
       <c r="H68" t="n">
-        <v>7.882352941176471</v>
+        <v>7.476926947491707</v>
       </c>
       <c r="I68" t="n">
-        <v>15.57894736842105</v>
+        <v>15.25640363923737</v>
       </c>
       <c r="J68" t="n">
-        <v>15.81578947368421</v>
+        <v>15.14752727596714</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_runs_in_behind_per_match</t>
+          <t>support_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.888463583200426</v>
+        <v>0.08917765420895993</v>
       </c>
       <c r="C69" t="n">
-        <v>2.284618137512874</v>
+        <v>0.07082437232899899</v>
       </c>
       <c r="D69" t="n">
-        <v>26.43</v>
+        <v>25.91</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6097956633147544</v>
+        <v>0.02397923872669656</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5673305018799231</v>
+        <v>0.01467240237815739</v>
       </c>
       <c r="G69" t="n">
-        <v>2.184210526315789</v>
+        <v>0.06051941799462957</v>
       </c>
       <c r="H69" t="n">
-        <v>1.571428571428571</v>
+        <v>0.04935004101728546</v>
       </c>
       <c r="I69" t="n">
-        <v>3.606060606060606</v>
+        <v>0.1259774102095286</v>
       </c>
       <c r="J69" t="n">
-        <v>3.351351351351351</v>
+        <v>0.104804306580696</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_coming_short_runs_per_match</t>
+          <t>count_completed_pass_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1317650186071239</v>
+        <v>2.768515677578048</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1042780818787011</v>
+        <v>2.200493982003523</v>
       </c>
       <c r="D70" t="n">
-        <v>26.36</v>
+        <v>25.81</v>
       </c>
       <c r="E70" t="n">
-        <v>0.06210813605285252</v>
+        <v>0.5679614954397826</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06291899445918324</v>
+        <v>0.5354125487700294</v>
       </c>
       <c r="G70" t="n">
-        <v>0.05555555555555555</v>
+        <v>2.124075885347074</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1.506429286328157</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2105263157894737</v>
+        <v>3.43477849444528</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2083333333333333</v>
+        <v>3.235384761044709</v>
       </c>
     </row>
     <row r="71">
@@ -2833,65 +2833,65 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3.893035619351409</v>
+        <v>3.728797796709321</v>
       </c>
       <c r="C71" t="n">
-        <v>3.086553582126338</v>
+        <v>2.96894275318955</v>
       </c>
       <c r="D71" t="n">
-        <v>26.13</v>
+        <v>25.59</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7217914169377956</v>
+        <v>0.6632564584713536</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6638248325216249</v>
+        <v>0.6135322603108869</v>
       </c>
       <c r="G71" t="n">
-        <v>2.894736842105263</v>
+        <v>2.846917566430038</v>
       </c>
       <c r="H71" t="n">
-        <v>2.162162162162162</v>
+        <v>2.076137338105963</v>
       </c>
       <c r="I71" t="n">
-        <v>4.757575757575758</v>
+        <v>4.524086970104023</v>
       </c>
       <c r="J71" t="n">
-        <v>4.447368421052632</v>
+        <v>4.203494790274763</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>support_runs_to_which_pass_completed_threat_per_match</t>
+          <t>runs_ahead_of_the_ball_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.09279479000531633</v>
+        <v>0.1623688400014212</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07372414583978051</v>
+        <v>0.129303022795442</v>
       </c>
       <c r="D72" t="n">
-        <v>25.87</v>
+        <v>25.57</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0252986844558563</v>
+        <v>0.03435365804025051</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0152818683670421</v>
+        <v>0.02263551077658012</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06131578947368421</v>
+        <v>0.1257008812620407</v>
       </c>
       <c r="H72" t="n">
-        <v>0.05</v>
+        <v>0.08264122840170904</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1307894736842105</v>
+        <v>0.2027012435331872</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1094736842105263</v>
+        <v>0.17960091487884</v>
       </c>
     </row>
     <row r="73">
@@ -2901,235 +2901,235 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.3569954811270601</v>
+        <v>0.3423438800621242</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2836865269447313</v>
+        <v>0.2726896762404879</v>
       </c>
       <c r="D73" t="n">
-        <v>25.84</v>
+        <v>25.54</v>
       </c>
       <c r="E73" t="n">
-        <v>0.055015202699941</v>
+        <v>0.049938533249717</v>
       </c>
       <c r="F73" t="n">
-        <v>0.04490121791396212</v>
+        <v>0.04114695833197015</v>
       </c>
       <c r="G73" t="n">
-        <v>0.3113157894736842</v>
+        <v>0.3046877645721799</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2103846153846154</v>
+        <v>0.2114282433042596</v>
       </c>
       <c r="I73" t="n">
-        <v>0.4406060606060606</v>
+        <v>0.4200866169361527</v>
       </c>
       <c r="J73" t="n">
-        <v>0.3744444444444445</v>
+        <v>0.3581106004484174</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_coming_short_runs</t>
+          <t>count_pass_opportunities_to_dangerous_coming_short_runs_per_match</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>32.2916615388938</v>
+        <v>0.1274866008208675</v>
       </c>
       <c r="C74" t="n">
-        <v>25.71185356452228</v>
+        <v>0.1015806831330232</v>
       </c>
       <c r="D74" t="n">
-        <v>25.59</v>
+        <v>25.5</v>
       </c>
       <c r="E74" t="n">
-        <v>6.012205785730768</v>
+        <v>0.06019229305511591</v>
       </c>
       <c r="F74" t="n">
-        <v>4.051534694216945</v>
+        <v>0.06304317859994694</v>
       </c>
       <c r="G74" t="n">
-        <v>23.10157611978665</v>
+        <v>0.05277293040552941</v>
       </c>
       <c r="H74" t="n">
-        <v>16.97986429257017</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>39.35260571751481</v>
+        <v>0.2011082144919496</v>
       </c>
       <c r="J74" t="n">
-        <v>31.39541642567958</v>
+        <v>0.2246517573666104</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_runs_in_behind_threat_per_match</t>
+          <t>pass_opportunities_to_runs_ahead_of_the_ball_threat_per_match</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.7324946836788943</v>
+        <v>0.5276712934710963</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5840615768543013</v>
+        <v>0.4217651819394101</v>
       </c>
       <c r="D75" t="n">
-        <v>25.41</v>
+        <v>25.11</v>
       </c>
       <c r="E75" t="n">
-        <v>0.08211390507039952</v>
+        <v>0.07585381554763145</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07699856364071148</v>
+        <v>0.04146269010463297</v>
       </c>
       <c r="G75" t="n">
-        <v>0.64</v>
+        <v>0.4336439412001174</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4526923076923077</v>
+        <v>0.3525899205320931</v>
       </c>
       <c r="I75" t="n">
-        <v>0.8442424242424242</v>
+        <v>0.6195454026572904</v>
       </c>
       <c r="J75" t="n">
-        <v>0.7044736842105263</v>
+        <v>0.5213434471096208</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_runs_in_behind_per_match</t>
+          <t>pass_opportunities_to_runs_in_behind_threat_per_match</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>12.99269005847953</v>
+        <v>0.7039635740644308</v>
       </c>
       <c r="C76" t="n">
-        <v>10.39697044661441</v>
+        <v>0.5627597616268275</v>
       </c>
       <c r="D76" t="n">
-        <v>24.97</v>
+        <v>25.09</v>
       </c>
       <c r="E76" t="n">
-        <v>1.773999765622277</v>
+        <v>0.07265299716275728</v>
       </c>
       <c r="F76" t="n">
-        <v>1.455802489423242</v>
+        <v>0.06959745666166925</v>
       </c>
       <c r="G76" t="n">
-        <v>11.08333333333333</v>
+        <v>0.6181993243226478</v>
       </c>
       <c r="H76" t="n">
-        <v>8.384615384615385</v>
+        <v>0.4654723762980029</v>
       </c>
       <c r="I76" t="n">
-        <v>15</v>
+        <v>0.8037033767824244</v>
       </c>
       <c r="J76" t="n">
-        <v>12.81578947368421</v>
+        <v>0.6689256837468175</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_runs_ahead_of_the_ball_threat_per_match</t>
+          <t>count_completed_pass_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5475552897395003</v>
+        <v>1.115409400106504</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4383853420664566</v>
+        <v>0.8919581834075941</v>
       </c>
       <c r="D77" t="n">
-        <v>24.9</v>
+        <v>25.05</v>
       </c>
       <c r="E77" t="n">
-        <v>0.08250663531520426</v>
+        <v>0.2102887942565692</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0446394349023931</v>
+        <v>0.241901491781543</v>
       </c>
       <c r="G77" t="n">
-        <v>0.4444736842105264</v>
+        <v>0.9471713056884417</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3677142857142857</v>
+        <v>0.5410935351718462</v>
       </c>
       <c r="I77" t="n">
-        <v>0.6512121212121212</v>
+        <v>1.466276584039368</v>
       </c>
       <c r="J77" t="n">
-        <v>0.5391666666666667</v>
+        <v>1.426189324710462</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_to_which_pass_completed_threat_per_match</t>
+          <t>pass_completion_ratio_to_coming_short_runs</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1680417331206805</v>
+        <v>31.48953107644592</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1346827798590956</v>
+        <v>25.2512193628826</v>
       </c>
       <c r="D78" t="n">
-        <v>24.77</v>
+        <v>24.7</v>
       </c>
       <c r="E78" t="n">
-        <v>0.03727744254124315</v>
+        <v>5.504095022983958</v>
       </c>
       <c r="F78" t="n">
-        <v>0.02393215019938939</v>
+        <v>4.222298271536009</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1278947368421053</v>
+        <v>22.83099874423256</v>
       </c>
       <c r="H78" t="n">
-        <v>0.08657142857142858</v>
+        <v>16.12298687895233</v>
       </c>
       <c r="I78" t="n">
-        <v>0.213030303030303</v>
+        <v>37.58230133576249</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1854166666666667</v>
+        <v>30.22410823057863</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dangerous_support_runs_per_match</t>
+          <t>count_pass_opportunities_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1.161111111111111</v>
+        <v>12.48295209780123</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9315374001906509</v>
+        <v>10.01860382611605</v>
       </c>
       <c r="D79" t="n">
-        <v>24.64</v>
+        <v>24.6</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2207854057915824</v>
+        <v>1.586461484524125</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2533362582684691</v>
+        <v>1.350737338762643</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9736842105263158</v>
+        <v>10.71029020416446</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5675675675675675</v>
+        <v>8.313992052503286</v>
       </c>
       <c r="I79" t="n">
-        <v>1.526315789473684</v>
+        <v>14.27577618281587</v>
       </c>
       <c r="J79" t="n">
-        <v>1.5</v>
+        <v>12.14808543002632</v>
       </c>
     </row>
     <row r="80">
@@ -3139,65 +3139,65 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1242158426368953</v>
+        <v>0.1184608601419528</v>
       </c>
       <c r="C80" t="n">
-        <v>0.163447131512147</v>
+        <v>0.1555973813678843</v>
       </c>
       <c r="D80" t="n">
-        <v>-24</v>
+        <v>-23.87</v>
       </c>
       <c r="E80" t="n">
-        <v>0.07299177711471423</v>
+        <v>0.06879126675078452</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09714542085205485</v>
+        <v>0.09246490512307017</v>
       </c>
       <c r="G80" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05247105885571478</v>
       </c>
       <c r="H80" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02647379623648512</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.2289095620300661</v>
       </c>
       <c r="J80" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2870370110961435</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_runs_in_behind_per_match</t>
+          <t>count_pass_attempts_to_dangerous_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6.136842105263158</v>
+        <v>3.038905878620171</v>
       </c>
       <c r="C81" t="n">
-        <v>4.968884861965356</v>
+        <v>2.457193144389512</v>
       </c>
       <c r="D81" t="n">
-        <v>23.51</v>
+        <v>23.67</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9164839582130793</v>
+        <v>0.4889772522072393</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9320900922517436</v>
+        <v>0.3715057419458593</v>
       </c>
       <c r="G81" t="n">
-        <v>5.052631578947368</v>
+        <v>2.37349734772966</v>
       </c>
       <c r="H81" t="n">
-        <v>3.769230769230769</v>
+        <v>1.60966006458874</v>
       </c>
       <c r="I81" t="n">
-        <v>7.333333333333333</v>
+        <v>3.70950971641804</v>
       </c>
       <c r="J81" t="n">
-        <v>6.416666666666667</v>
+        <v>3.267854487311322</v>
       </c>
     </row>
     <row r="82">
@@ -3207,31 +3207,31 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>20.21804970748136</v>
+        <v>19.6261188506772</v>
       </c>
       <c r="C82" t="n">
-        <v>16.3998533682045</v>
+        <v>15.89020142307482</v>
       </c>
       <c r="D82" t="n">
-        <v>23.28</v>
+        <v>23.51</v>
       </c>
       <c r="E82" t="n">
-        <v>3.881318065808832</v>
+        <v>3.624023929149497</v>
       </c>
       <c r="F82" t="n">
-        <v>3.175849043326482</v>
+        <v>3.084802667259557</v>
       </c>
       <c r="G82" t="n">
-        <v>15.98777002237529</v>
+        <v>15.95521364153558</v>
       </c>
       <c r="H82" t="n">
-        <v>7.935446906035143</v>
+        <v>7.528017048784484</v>
       </c>
       <c r="I82" t="n">
-        <v>25.33295745920746</v>
+        <v>24.63431920568855</v>
       </c>
       <c r="J82" t="n">
-        <v>20.20998372241793</v>
+        <v>19.69579292912287</v>
       </c>
     </row>
     <row r="83">
@@ -3241,167 +3241,167 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>6.234077618288145</v>
+        <v>5.985994544288959</v>
       </c>
       <c r="C83" t="n">
-        <v>5.058724723941443</v>
+        <v>4.858734805984374</v>
       </c>
       <c r="D83" t="n">
-        <v>23.23</v>
+        <v>23.2</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8614962274943924</v>
+        <v>0.7729454059910652</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8565877024306049</v>
+        <v>0.7860307980133596</v>
       </c>
       <c r="G83" t="n">
-        <v>5.361111111111111</v>
+        <v>5.191779082441256</v>
       </c>
       <c r="H83" t="n">
-        <v>3.269230769230769</v>
+        <v>3.307953186806509</v>
       </c>
       <c r="I83" t="n">
-        <v>7.606060606060606</v>
+        <v>7.242433824047136</v>
       </c>
       <c r="J83" t="n">
-        <v>6.648648648648648</v>
+        <v>6.380329714499732</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_pulling_wide_runs_per_match</t>
+          <t>count_pass_attempts_to_dangerous_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6.948936735778841</v>
+        <v>5.887067637376103</v>
       </c>
       <c r="C84" t="n">
-        <v>5.657527439493384</v>
+        <v>4.778960963427489</v>
       </c>
       <c r="D84" t="n">
-        <v>22.83</v>
+        <v>23.19</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3398735610758218</v>
+        <v>0.8241606672311588</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8969355587174642</v>
+        <v>0.8799375581190092</v>
       </c>
       <c r="G84" t="n">
-        <v>6.447368421052632</v>
+        <v>4.929319635480576</v>
       </c>
       <c r="H84" t="n">
-        <v>3.846153846153846</v>
+        <v>3.715302641038229</v>
       </c>
       <c r="I84" t="n">
-        <v>7.333333333333333</v>
+        <v>6.987742612539294</v>
       </c>
       <c r="J84" t="n">
-        <v>7.684210526315789</v>
+        <v>6.129109257353157</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_pulling_wide_runs_per_match</t>
+          <t>pass_opportunities_to_pulling_half_space_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01687931951089846</v>
+        <v>0.07213427973006949</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0137468671679198</v>
+        <v>0.05880900082288898</v>
       </c>
       <c r="D85" t="n">
-        <v>22.79</v>
+        <v>22.66</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01547451310773831</v>
+        <v>0.008745966865998959</v>
       </c>
       <c r="F85" t="n">
-        <v>0.02129033999860699</v>
+        <v>0.01195204855344685</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.06422467369180355</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>0.03806080142513804</v>
       </c>
       <c r="I85" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.08572150913147954</v>
       </c>
       <c r="J85" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.07674740804297868</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_runs_ahead_of_the_ball_per_match</t>
+          <t>count_pass_attempts_to_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3.139606592238171</v>
+        <v>6.695108661435813</v>
       </c>
       <c r="C86" t="n">
-        <v>2.562089867229186</v>
+        <v>5.458455599236677</v>
       </c>
       <c r="D86" t="n">
-        <v>22.54</v>
+        <v>22.66</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5171623132421171</v>
+        <v>0.3141535992446212</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3946994386337258</v>
+        <v>0.7673582116339751</v>
       </c>
       <c r="G86" t="n">
-        <v>2.444444444444445</v>
+        <v>6.21570638190741</v>
       </c>
       <c r="H86" t="n">
-        <v>1.685714285714286</v>
+        <v>4.085632208073718</v>
       </c>
       <c r="I86" t="n">
-        <v>3.833333333333333</v>
+        <v>7.064858147803979</v>
       </c>
       <c r="J86" t="n">
-        <v>3.416666666666667</v>
+        <v>7.330046176647929</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_pulling_half_space_runs_threat_per_match</t>
+          <t>runs_ahead_of_the_ball_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.07507363104731526</v>
+        <v>0.2260434026498106</v>
       </c>
       <c r="C87" t="n">
-        <v>0.06136862725345697</v>
+        <v>0.1854141144255749</v>
       </c>
       <c r="D87" t="n">
-        <v>22.33</v>
+        <v>21.91</v>
       </c>
       <c r="E87" t="n">
-        <v>0.009867693549027581</v>
+        <v>0.03884380460828338</v>
       </c>
       <c r="F87" t="n">
-        <v>0.01299923450511425</v>
+        <v>0.02431085981771654</v>
       </c>
       <c r="G87" t="n">
-        <v>0.06526315789473684</v>
+        <v>0.1827668114298825</v>
       </c>
       <c r="H87" t="n">
-        <v>0.03615384615384615</v>
+        <v>0.1266464416679219</v>
       </c>
       <c r="I87" t="n">
-        <v>0.08947368421052632</v>
+        <v>0.2674705333291578</v>
       </c>
       <c r="J87" t="n">
-        <v>0.08111111111111111</v>
+        <v>0.2315002702860994</v>
       </c>
     </row>
     <row r="88">
@@ -3411,337 +3411,337 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.2684702286018076</v>
+        <v>0.2579036447391696</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2206244617222945</v>
+        <v>0.2123738276382653</v>
       </c>
       <c r="D88" t="n">
-        <v>21.69</v>
+        <v>21.44</v>
       </c>
       <c r="E88" t="n">
-        <v>0.05226615813498027</v>
+        <v>0.04816222620491314</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03463815295081612</v>
+        <v>0.03130311447582791</v>
       </c>
       <c r="G88" t="n">
-        <v>0.195</v>
+        <v>0.1929328579628029</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1688461538461539</v>
+        <v>0.1705001127037513</v>
       </c>
       <c r="I88" t="n">
-        <v>0.3224242424242424</v>
+        <v>0.307320178846344</v>
       </c>
       <c r="J88" t="n">
-        <v>0.2936842105263158</v>
+        <v>0.2783145280425882</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>runs_ahead_of_the_ball_to_which_pass_attempted_threat_per_match</t>
+          <t>count_opportunities_to_pass_to_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.2340180754917597</v>
+        <v>24.53594968274539</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1928400670871259</v>
+        <v>20.21073247763699</v>
       </c>
       <c r="D89" t="n">
-        <v>21.35</v>
+        <v>21.4</v>
       </c>
       <c r="E89" t="n">
-        <v>0.04185769988797056</v>
+        <v>1.984745031079</v>
       </c>
       <c r="F89" t="n">
-        <v>0.02652012705821316</v>
+        <v>2.85512494437561</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1888888888888889</v>
+        <v>22.07580769816288</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1322857142857143</v>
+        <v>14.98595776076449</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2809090909090909</v>
+        <v>27.13263786156501</v>
       </c>
       <c r="J89" t="n">
-        <v>0.24</v>
+        <v>24.80862271469254</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_runs_in_behind_per_match</t>
+          <t>count_runs_in_behind_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>25.49572036150984</v>
+        <v>27.55229931734613</v>
       </c>
       <c r="C90" t="n">
-        <v>21.01192668053349</v>
+        <v>22.71630324409752</v>
       </c>
       <c r="D90" t="n">
-        <v>21.34</v>
+        <v>21.29</v>
       </c>
       <c r="E90" t="n">
-        <v>2.334168368089303</v>
+        <v>2.254484071751433</v>
       </c>
       <c r="F90" t="n">
-        <v>3.140645698433149</v>
+        <v>3.340046894381222</v>
       </c>
       <c r="G90" t="n">
-        <v>22.75</v>
+        <v>24.55468713821862</v>
       </c>
       <c r="H90" t="n">
-        <v>14.53846153846154</v>
+        <v>16.78786082427481</v>
       </c>
       <c r="I90" t="n">
-        <v>28.51515151515152</v>
+        <v>30.51820067779659</v>
       </c>
       <c r="J90" t="n">
-        <v>26.10526315789474</v>
+        <v>27.86911197262524</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>count_runs_in_behind_by_teammate_per_match</t>
+          <t>count_completed_pass_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>28.62674109516215</v>
+        <v>2.127370402653955</v>
       </c>
       <c r="C91" t="n">
-        <v>23.62952434062341</v>
+        <v>1.760843841323249</v>
       </c>
       <c r="D91" t="n">
-        <v>21.15</v>
+        <v>20.82</v>
       </c>
       <c r="E91" t="n">
-        <v>2.63073088535929</v>
+        <v>0.3856164817584161</v>
       </c>
       <c r="F91" t="n">
-        <v>3.644748328855818</v>
+        <v>0.3425344383831301</v>
       </c>
       <c r="G91" t="n">
-        <v>25.30555555555556</v>
+        <v>1.610608768258456</v>
       </c>
       <c r="H91" t="n">
-        <v>16.38461538461538</v>
+        <v>1.261033711566061</v>
       </c>
       <c r="I91" t="n">
-        <v>32.06060606060606</v>
+        <v>2.58135663038796</v>
       </c>
       <c r="J91" t="n">
-        <v>29.11111111111111</v>
+        <v>2.570187166782691</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_cross_receiver_runs_per_match</t>
+          <t>count_opportunities_to_pass_to_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2.223710792131845</v>
+        <v>10.64772021154789</v>
       </c>
       <c r="C92" t="n">
-        <v>1.841712796047162</v>
+        <v>8.828711998912059</v>
       </c>
       <c r="D92" t="n">
-        <v>20.74</v>
+        <v>20.6</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4226107300108091</v>
+        <v>1.721649932672391</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3708260891772009</v>
+        <v>1.585394321170845</v>
       </c>
       <c r="G92" t="n">
-        <v>1.657894736842105</v>
+        <v>7.889952473778215</v>
       </c>
       <c r="H92" t="n">
-        <v>1.269230769230769</v>
+        <v>5.947457893730178</v>
       </c>
       <c r="I92" t="n">
-        <v>2.722222222222222</v>
+        <v>12.51413937681352</v>
       </c>
       <c r="J92" t="n">
-        <v>2.736842105263158</v>
+        <v>11.43058947804573</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_pulling_wide_runs</t>
+          <t>count_pass_opportunities_to_dangerous_cross_receiver_runs_per_match</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>29.37793669029151</v>
+        <v>10.12833373107926</v>
       </c>
       <c r="C93" t="n">
-        <v>24.38589495125144</v>
+        <v>8.422294446419748</v>
       </c>
       <c r="D93" t="n">
-        <v>20.47</v>
+        <v>20.26</v>
       </c>
       <c r="E93" t="n">
-        <v>1.537649093729627</v>
+        <v>1.612306989966827</v>
       </c>
       <c r="F93" t="n">
-        <v>3.197209366153767</v>
+        <v>1.557934643168292</v>
       </c>
       <c r="G93" t="n">
-        <v>28.00427143032406</v>
+        <v>7.597272885342143</v>
       </c>
       <c r="H93" t="n">
-        <v>19.39360475309005</v>
+        <v>5.618113840619974</v>
       </c>
       <c r="I93" t="n">
-        <v>31.35255845032161</v>
+        <v>11.99401948503192</v>
       </c>
       <c r="J93" t="n">
-        <v>32.41392049434484</v>
+        <v>11.06482713813868</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_cross_receiver_runs_per_match</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>11.08607123870282</v>
+        <v>1.461691982562175</v>
       </c>
       <c r="C94" t="n">
-        <v>9.223705224463737</v>
+        <v>1.217712335110632</v>
       </c>
       <c r="D94" t="n">
-        <v>20.19</v>
+        <v>20.04</v>
       </c>
       <c r="E94" t="n">
-        <v>1.931986322586868</v>
+        <v>0.3814292850352343</v>
       </c>
       <c r="F94" t="n">
-        <v>1.662902232878674</v>
+        <v>0.283837305780191</v>
       </c>
       <c r="G94" t="n">
-        <v>8.026315789473685</v>
+        <v>1.047135046151757</v>
       </c>
       <c r="H94" t="n">
-        <v>6</v>
+        <v>0.7105546248371911</v>
       </c>
       <c r="I94" t="n">
-        <v>13.18181818181818</v>
+        <v>2.041192844198285</v>
       </c>
       <c r="J94" t="n">
-        <v>11.81578947368421</v>
+        <v>1.730700076015461</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_cross_receiver_runs</t>
+          <t>count_pass_attempts_to_dangerous_pulling_wide_runs_per_match</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>11.21789437050633</v>
+        <v>0.01628943236514609</v>
       </c>
       <c r="C95" t="n">
-        <v>9.351953240837268</v>
+        <v>0.01360447845745598</v>
       </c>
       <c r="D95" t="n">
-        <v>19.95</v>
+        <v>19.74</v>
       </c>
       <c r="E95" t="n">
-        <v>1.101020655446361</v>
+        <v>0.0148846001233821</v>
       </c>
       <c r="F95" t="n">
-        <v>1.607677292566216</v>
+        <v>0.02061495642448809</v>
       </c>
       <c r="G95" t="n">
-        <v>9.732209128590707</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>7.296396897220427</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>12.26859177859178</v>
+        <v>0.02821248515317969</v>
       </c>
       <c r="J95" t="n">
-        <v>13.72743028243686</v>
+        <v>0.0520436149983971</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>count_pass_opportunities_to_dangerous_cross_receiver_runs_per_match</t>
+          <t>pass_completion_ratio_to_cross_receiver_runs</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>10.54306220095694</v>
+        <v>10.75709508147331</v>
       </c>
       <c r="C96" t="n">
-        <v>8.799279008706256</v>
+        <v>9.003132036148184</v>
       </c>
       <c r="D96" t="n">
-        <v>19.82</v>
+        <v>19.48</v>
       </c>
       <c r="E96" t="n">
-        <v>1.810373707869774</v>
+        <v>0.9638816285636767</v>
       </c>
       <c r="F96" t="n">
-        <v>1.630089637113462</v>
+        <v>1.432485758303632</v>
       </c>
       <c r="G96" t="n">
-        <v>7.736842105263158</v>
+        <v>9.476175230743848</v>
       </c>
       <c r="H96" t="n">
-        <v>5.653846153846154</v>
+        <v>6.901074047780839</v>
       </c>
       <c r="I96" t="n">
-        <v>12.63636363636364</v>
+        <v>11.69265788246855</v>
       </c>
       <c r="J96" t="n">
-        <v>11.5</v>
+        <v>12.91349089103222</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_leading_to_shot_per_match</t>
+          <t>pass_completion_ratio_to_pulling_wide_runs</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.517437533227007</v>
+        <v>28.61240705142681</v>
       </c>
       <c r="C97" t="n">
-        <v>1.266745264299444</v>
+        <v>24.01502871301769</v>
       </c>
       <c r="D97" t="n">
-        <v>19.79</v>
+        <v>19.14</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4133863832551441</v>
+        <v>1.294667875511563</v>
       </c>
       <c r="F97" t="n">
-        <v>0.302164738136412</v>
+        <v>2.937361212194753</v>
       </c>
       <c r="G97" t="n">
-        <v>1.052631578947368</v>
+        <v>27.45534830102494</v>
       </c>
       <c r="H97" t="n">
-        <v>0.7428571428571429</v>
+        <v>18.42011803485164</v>
       </c>
       <c r="I97" t="n">
-        <v>2.151515151515151</v>
+        <v>30.57779652542968</v>
       </c>
       <c r="J97" t="n">
-        <v>1.815789473684211</v>
+        <v>31.23314598539291</v>
       </c>
     </row>
     <row r="98">
@@ -3751,31 +3751,31 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>9.749840510366827</v>
+        <v>9.371717978678657</v>
       </c>
       <c r="C98" t="n">
-        <v>8.181918405323978</v>
+        <v>7.869648341080041</v>
       </c>
       <c r="D98" t="n">
-        <v>19.16</v>
+        <v>19.09</v>
       </c>
       <c r="E98" t="n">
-        <v>2.296493115525232</v>
+        <v>2.157483708462336</v>
       </c>
       <c r="F98" t="n">
-        <v>1.336894984634964</v>
+        <v>1.282334725378575</v>
       </c>
       <c r="G98" t="n">
-        <v>6.842105263157895</v>
+        <v>6.703745063504279</v>
       </c>
       <c r="H98" t="n">
-        <v>5.617647058823529</v>
+        <v>5.319265912698251</v>
       </c>
       <c r="I98" t="n">
-        <v>12.39393939393939</v>
+        <v>11.81044748054271</v>
       </c>
       <c r="J98" t="n">
-        <v>10.36842105263158</v>
+        <v>9.916290756557228</v>
       </c>
     </row>
     <row r="99">
@@ -3785,269 +3785,269 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.079160021265285</v>
+        <v>1.99051546350065</v>
       </c>
       <c r="C99" t="n">
-        <v>1.750732991181908</v>
+        <v>1.674485158003387</v>
       </c>
       <c r="D99" t="n">
-        <v>18.76</v>
+        <v>18.87</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3880653771298014</v>
+        <v>0.3537227979553954</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3751997978782409</v>
+        <v>0.3483914656273279</v>
       </c>
       <c r="G99" t="n">
-        <v>1.605263157894737</v>
+        <v>1.560073286165434</v>
       </c>
       <c r="H99" t="n">
-        <v>1.230769230769231</v>
+        <v>1.218491852030352</v>
       </c>
       <c r="I99" t="n">
-        <v>2.555555555555555</v>
+        <v>2.424403713149857</v>
       </c>
       <c r="J99" t="n">
-        <v>2.657894736842105</v>
+        <v>2.497923130356271</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_cross_receiver_runs_leading_to_shot_per_match</t>
+          <t>pass_opportunities_to_cross_receiver_runs_threat_per_match</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1.042503987240829</v>
+        <v>0.7593089890541822</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8809580301221167</v>
+        <v>0.6398765761136691</v>
       </c>
       <c r="D100" t="n">
-        <v>18.34</v>
+        <v>18.66</v>
       </c>
       <c r="E100" t="n">
-        <v>0.122731276886913</v>
+        <v>0.1807228812379515</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2997064964491624</v>
+        <v>0.145073470670898</v>
       </c>
       <c r="G100" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.558747838517449</v>
       </c>
       <c r="H100" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.428006964644076</v>
       </c>
       <c r="I100" t="n">
-        <v>1.181818181818182</v>
+        <v>1.027566635456139</v>
       </c>
       <c r="J100" t="n">
-        <v>1.526315789473684</v>
+        <v>0.9222997856179972</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>pass_opportunities_to_cross_receiver_runs_threat_per_match</t>
+          <t>count_completed_pass_to_cross_receiver_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.790531100478469</v>
+        <v>0.9959423463467452</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6687463552825783</v>
+        <v>0.841201799626096</v>
       </c>
       <c r="D101" t="n">
-        <v>18.21</v>
+        <v>18.4</v>
       </c>
       <c r="E101" t="n">
-        <v>0.196629067840156</v>
+        <v>0.1086472585037747</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1524475829188356</v>
+        <v>0.2783420898549153</v>
       </c>
       <c r="G101" t="n">
-        <v>0.5694736842105264</v>
+        <v>0.8631176151655433</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4303846153846154</v>
+        <v>0.4442366934505494</v>
       </c>
       <c r="I101" t="n">
-        <v>1.081515151515152</v>
+        <v>1.122149525675173</v>
       </c>
       <c r="J101" t="n">
-        <v>0.9763157894736842</v>
+        <v>1.426589067061377</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>pulling_wide_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_cross_receiver_runs_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.01847102604997342</v>
+        <v>15.94582607278141</v>
       </c>
       <c r="C102" t="n">
-        <v>0.01562685586617475</v>
+        <v>13.48233161248254</v>
       </c>
       <c r="D102" t="n">
-        <v>18.2</v>
+        <v>18.27</v>
       </c>
       <c r="E102" t="n">
-        <v>0.003013882669579191</v>
+        <v>3.050060721873436</v>
       </c>
       <c r="F102" t="n">
-        <v>0.003540703606744128</v>
+        <v>2.586632204708736</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01416666666666667</v>
+        <v>12.31442001158282</v>
       </c>
       <c r="H102" t="n">
-        <v>0.007692307692307693</v>
+        <v>9.061024922843604</v>
       </c>
       <c r="I102" t="n">
-        <v>0.02212121212121212</v>
+        <v>20.24149209310142</v>
       </c>
       <c r="J102" t="n">
-        <v>0.022</v>
+        <v>17.96911900377212</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>count_cross_receiver_runs_by_teammate_per_match</t>
+          <t>count_opportunities_to_pass_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>16.62668793195109</v>
+        <v>8.964644952816384</v>
       </c>
       <c r="C103" t="n">
-        <v>14.09788737160254</v>
+        <v>7.623554623580443</v>
       </c>
       <c r="D103" t="n">
-        <v>17.94</v>
+        <v>17.59</v>
       </c>
       <c r="E103" t="n">
-        <v>3.373897299657252</v>
+        <v>1.395798543063034</v>
       </c>
       <c r="F103" t="n">
-        <v>2.692324369443055</v>
+        <v>1.496560382633329</v>
       </c>
       <c r="G103" t="n">
-        <v>12.57894736842105</v>
+        <v>7.73119180465535</v>
       </c>
       <c r="H103" t="n">
-        <v>9.153846153846153</v>
+        <v>4.393852669714256</v>
       </c>
       <c r="I103" t="n">
-        <v>21.3030303030303</v>
+        <v>10.90941177234919</v>
       </c>
       <c r="J103" t="n">
-        <v>18.54285714285714</v>
+        <v>10.02521747851699</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>support_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_pass_attempts_to_runs_in_behind_per_match</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1212301967038809</v>
+        <v>12.17213606136899</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1030939038926655</v>
+        <v>10.35960661643592</v>
       </c>
       <c r="D104" t="n">
-        <v>17.59</v>
+        <v>17.5</v>
       </c>
       <c r="E104" t="n">
-        <v>0.02423231197125125</v>
+        <v>1.174020886652972</v>
       </c>
       <c r="F104" t="n">
-        <v>0.02192183192376168</v>
+        <v>1.332160500592276</v>
       </c>
       <c r="G104" t="n">
-        <v>0.08921052631578948</v>
+        <v>11.36032491500891</v>
       </c>
       <c r="H104" t="n">
-        <v>0.06538461538461539</v>
+        <v>7.253398912037339</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1555263157894737</v>
+        <v>14.02227572543774</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1418421052631579</v>
+        <v>12.72501125119771</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_runs_in_behind_per_match</t>
+          <t>support_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>12.67323232323232</v>
+        <v>0.1163842481624612</v>
       </c>
       <c r="C105" t="n">
-        <v>10.78180223822639</v>
+        <v>0.09915406223754956</v>
       </c>
       <c r="D105" t="n">
-        <v>17.54</v>
+        <v>17.38</v>
       </c>
       <c r="E105" t="n">
-        <v>1.329563680032534</v>
+        <v>0.02266222290121013</v>
       </c>
       <c r="F105" t="n">
-        <v>1.463959353540492</v>
+        <v>0.02072959921089551</v>
       </c>
       <c r="G105" t="n">
-        <v>11.60526315789474</v>
+        <v>0.0878586147417208</v>
       </c>
       <c r="H105" t="n">
-        <v>7.230769230769231</v>
+        <v>0.06659920991057962</v>
       </c>
       <c r="I105" t="n">
-        <v>14.72727272727273</v>
+        <v>0.1496176185127357</v>
       </c>
       <c r="J105" t="n">
-        <v>13.30555555555556</v>
+        <v>0.1351820715964795</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>count_opportunities_to_pass_to_pulling_half_space_runs_per_match</t>
+          <t>pulling_wide_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>9.312094630515682</v>
+        <v>0.0176184806581799</v>
       </c>
       <c r="C106" t="n">
-        <v>7.934444194645433</v>
+        <v>0.01501148138793233</v>
       </c>
       <c r="D106" t="n">
-        <v>17.36</v>
+        <v>17.37</v>
       </c>
       <c r="E106" t="n">
-        <v>1.508688492372259</v>
+        <v>0.002844928870708962</v>
       </c>
       <c r="F106" t="n">
-        <v>1.602553851798389</v>
+        <v>0.003160048399879374</v>
       </c>
       <c r="G106" t="n">
-        <v>7.894736842105263</v>
+        <v>0.01337788929829718</v>
       </c>
       <c r="H106" t="n">
-        <v>4.647058823529412</v>
+        <v>0.008276660428613625</v>
       </c>
       <c r="I106" t="n">
-        <v>11.44444444444444</v>
+        <v>0.0209099955999618</v>
       </c>
       <c r="J106" t="n">
-        <v>10.45714285714286</v>
+        <v>0.02097993993857954</v>
       </c>
     </row>
     <row r="107">
@@ -4057,31 +4057,31 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>5.735725677830941</v>
+        <v>5.506485962754843</v>
       </c>
       <c r="C107" t="n">
-        <v>4.905530811831122</v>
+        <v>4.692936726866745</v>
       </c>
       <c r="D107" t="n">
-        <v>16.92</v>
+        <v>17.34</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8147371509941732</v>
+        <v>0.7218642827273016</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8802044637766423</v>
+        <v>0.8371509286140051</v>
       </c>
       <c r="G107" t="n">
-        <v>4.894736842105263</v>
+        <v>4.700102522453864</v>
       </c>
       <c r="H107" t="n">
-        <v>3.115384615384615</v>
+        <v>3.082990191622258</v>
       </c>
       <c r="I107" t="n">
-        <v>6.757575757575758</v>
+        <v>6.42844030515089</v>
       </c>
       <c r="J107" t="n">
-        <v>6.6</v>
+        <v>6.379168019916104</v>
       </c>
     </row>
     <row r="108">
@@ -4091,99 +4091,99 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>5.509888357256779</v>
+        <v>5.291332804274901</v>
       </c>
       <c r="C108" t="n">
-        <v>4.72050912920882</v>
+        <v>4.516380158976162</v>
       </c>
       <c r="D108" t="n">
-        <v>16.72</v>
+        <v>17.16</v>
       </c>
       <c r="E108" t="n">
-        <v>0.8329548177270555</v>
+        <v>0.7455594414194604</v>
       </c>
       <c r="F108" t="n">
-        <v>0.901592200140979</v>
+        <v>0.8612909991240741</v>
       </c>
       <c r="G108" t="n">
-        <v>4.552631578947368</v>
+        <v>4.375322719238325</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2.974643937553805</v>
       </c>
       <c r="I108" t="n">
-        <v>6.575757575757576</v>
+        <v>6.255641185692651</v>
       </c>
       <c r="J108" t="n">
-        <v>6.428571428571429</v>
+        <v>6.216186383625909</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_runs_ahead_of_the_ball_per_match</t>
+          <t>cross_receiver_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>14.27546517809676</v>
+        <v>0.4319075943825004</v>
       </c>
       <c r="C109" t="n">
-        <v>12.23444039146826</v>
+        <v>0.3690864722584314</v>
       </c>
       <c r="D109" t="n">
-        <v>16.68</v>
+        <v>17.02</v>
       </c>
       <c r="E109" t="n">
-        <v>3.925689644010172</v>
+        <v>0.1143036593092601</v>
       </c>
       <c r="F109" t="n">
-        <v>1.733131668999674</v>
+        <v>0.09476065195091933</v>
       </c>
       <c r="G109" t="n">
-        <v>8.921052631578947</v>
+        <v>0.2885768104472534</v>
       </c>
       <c r="H109" t="n">
-        <v>8.657142857142857</v>
+        <v>0.2181383249827122</v>
       </c>
       <c r="I109" t="n">
-        <v>19.54545454545455</v>
+        <v>0.5873668171351689</v>
       </c>
       <c r="J109" t="n">
-        <v>15.81578947368421</v>
+        <v>0.5583292295379476</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_completed_pass_to_runs_ahead_of_the_ball_per_match</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.4495013290802765</v>
+        <v>13.75756777618557</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3859165695532569</v>
+        <v>11.76696898881413</v>
       </c>
       <c r="D110" t="n">
-        <v>16.48</v>
+        <v>16.92</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1219690905414599</v>
+        <v>3.653701167328248</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09964279579611722</v>
+        <v>1.63979755023475</v>
       </c>
       <c r="G110" t="n">
-        <v>0.3015789473684211</v>
+        <v>8.755704260718744</v>
       </c>
       <c r="H110" t="n">
-        <v>0.2188461538461539</v>
+        <v>8.288084013693993</v>
       </c>
       <c r="I110" t="n">
-        <v>0.6172727272727273</v>
+        <v>18.59195606335347</v>
       </c>
       <c r="J110" t="n">
-        <v>0.5782857142857143</v>
+        <v>15.01713074093464</v>
       </c>
     </row>
     <row r="111">
@@ -4193,65 +4193,65 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>41.0829346092504</v>
+        <v>39.58710980176389</v>
       </c>
       <c r="C111" t="n">
-        <v>35.34740188032757</v>
+        <v>34.04312348824718</v>
       </c>
       <c r="D111" t="n">
-        <v>16.23</v>
+        <v>16.29</v>
       </c>
       <c r="E111" t="n">
-        <v>7.894947265823874</v>
+        <v>7.263591636491538</v>
       </c>
       <c r="F111" t="n">
-        <v>2.889248277923943</v>
+        <v>2.682710905434911</v>
       </c>
       <c r="G111" t="n">
-        <v>29.5</v>
+        <v>28.87854017773408</v>
       </c>
       <c r="H111" t="n">
-        <v>31.37142857142857</v>
+        <v>29.74626048933041</v>
       </c>
       <c r="I111" t="n">
-        <v>50.81818181818182</v>
+        <v>48.37566657616198</v>
       </c>
       <c r="J111" t="n">
-        <v>41.89473684210526</v>
+        <v>39.91002388485341</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_runs_in_behind</t>
+          <t>cross_receiver_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>24.69225654937095</v>
+        <v>0.1547778244482809</v>
       </c>
       <c r="C112" t="n">
-        <v>21.24557409050115</v>
+        <v>0.1331624516156398</v>
       </c>
       <c r="D112" t="n">
-        <v>16.22</v>
+        <v>16.23</v>
       </c>
       <c r="E112" t="n">
-        <v>2.99978711887871</v>
+        <v>0.0360381635963151</v>
       </c>
       <c r="F112" t="n">
-        <v>2.222018354028797</v>
+        <v>0.0385573973054503</v>
       </c>
       <c r="G112" t="n">
-        <v>20.31320948804282</v>
+        <v>0.1157672047996998</v>
       </c>
       <c r="H112" t="n">
-        <v>16.74492667588822</v>
+        <v>0.09585580684313855</v>
       </c>
       <c r="I112" t="n">
-        <v>28.64156924893289</v>
+        <v>0.1879760483929353</v>
       </c>
       <c r="J112" t="n">
-        <v>25.60170782149949</v>
+        <v>0.2172967101519451</v>
       </c>
     </row>
     <row r="113">
@@ -4261,133 +4261,133 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>9.498484848484848</v>
+        <v>9.141752437788364</v>
       </c>
       <c r="C113" t="n">
-        <v>8.190893012224283</v>
+        <v>7.869887944804041</v>
       </c>
       <c r="D113" t="n">
-        <v>15.96</v>
+        <v>16.16</v>
       </c>
       <c r="E113" t="n">
-        <v>1.594373888824295</v>
+        <v>1.479336305571537</v>
       </c>
       <c r="F113" t="n">
-        <v>1.678882831370662</v>
+        <v>1.570445840087762</v>
       </c>
       <c r="G113" t="n">
-        <v>8.026315789473685</v>
+        <v>7.829177684302989</v>
       </c>
       <c r="H113" t="n">
-        <v>4.794117647058823</v>
+        <v>4.532161952164736</v>
       </c>
       <c r="I113" t="n">
-        <v>11.77777777777778</v>
+        <v>11.22388146894158</v>
       </c>
       <c r="J113" t="n">
-        <v>10.74285714285714</v>
+        <v>10.29731333971318</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>cross_receiver_runs_to_which_pass_completed_threat_per_match</t>
+          <t>pass_completion_ratio_to_runs_in_behind</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.1612916002126528</v>
+        <v>23.8876466336153</v>
       </c>
       <c r="C114" t="n">
-        <v>0.139126270260326</v>
+        <v>20.61918509069845</v>
       </c>
       <c r="D114" t="n">
-        <v>15.93</v>
+        <v>15.85</v>
       </c>
       <c r="E114" t="n">
-        <v>0.03893324676864831</v>
+        <v>2.738967562410693</v>
       </c>
       <c r="F114" t="n">
-        <v>0.04136865290964695</v>
+        <v>1.827456089159901</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1181578947368421</v>
+        <v>19.98075110152504</v>
       </c>
       <c r="H114" t="n">
-        <v>0.09346153846153847</v>
+        <v>16.80825926157314</v>
       </c>
       <c r="I114" t="n">
-        <v>0.196969696969697</v>
+        <v>27.27378295771291</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2318421052631579</v>
+        <v>24.70258086112979</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_dangerous_support_runs_per_match</t>
+          <t>count_pass_attempts_to_support_runs_per_match</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1.649441786283891</v>
+        <v>11.05397058524158</v>
       </c>
       <c r="C115" t="n">
-        <v>1.428765620994723</v>
+        <v>9.604033989106052</v>
       </c>
       <c r="D115" t="n">
-        <v>15.45</v>
+        <v>15.1</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1941031900215543</v>
+        <v>2.17597514051513</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3861335147896592</v>
+        <v>1.470031487329712</v>
       </c>
       <c r="G115" t="n">
-        <v>1.447368421052632</v>
+        <v>8.458295859800048</v>
       </c>
       <c r="H115" t="n">
-        <v>0.7567567567567568</v>
+        <v>6.831082906772033</v>
       </c>
       <c r="I115" t="n">
-        <v>1.921052631578947</v>
+        <v>13.65321927647139</v>
       </c>
       <c r="J115" t="n">
-        <v>2.105263157894737</v>
+        <v>11.64534371356469</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_support_runs_per_match</t>
+          <t>count_pass_attempts_to_dangerous_support_runs_per_match</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>11.49970760233918</v>
+        <v>1.581105912367472</v>
       </c>
       <c r="C116" t="n">
-        <v>9.978589601236658</v>
+        <v>1.373806911929663</v>
       </c>
       <c r="D116" t="n">
-        <v>15.24</v>
+        <v>15.09</v>
       </c>
       <c r="E116" t="n">
-        <v>2.339593439567457</v>
+        <v>0.1758555634506908</v>
       </c>
       <c r="F116" t="n">
-        <v>1.545674176590114</v>
+        <v>0.364119247177867</v>
       </c>
       <c r="G116" t="n">
-        <v>8.605263157894736</v>
+        <v>1.410171325380577</v>
       </c>
       <c r="H116" t="n">
-        <v>7.192307692307693</v>
+        <v>0.7306056053698939</v>
       </c>
       <c r="I116" t="n">
-        <v>14.33333333333333</v>
+        <v>1.841322578395607</v>
       </c>
       <c r="J116" t="n">
-        <v>12.21052631578947</v>
+        <v>1.995535908801016</v>
       </c>
     </row>
     <row r="117">
@@ -4397,99 +4397,99 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>23.85486443381181</v>
+        <v>22.98053525240239</v>
       </c>
       <c r="C117" t="n">
-        <v>20.76773857329585</v>
+        <v>19.98594506136187</v>
       </c>
       <c r="D117" t="n">
-        <v>14.87</v>
+        <v>14.98</v>
       </c>
       <c r="E117" t="n">
-        <v>4.617908968421725</v>
+        <v>4.232877141015396</v>
       </c>
       <c r="F117" t="n">
-        <v>2.556961577506765</v>
+        <v>2.361048373128305</v>
       </c>
       <c r="G117" t="n">
-        <v>18.28947368421053</v>
+        <v>18.02801145602385</v>
       </c>
       <c r="H117" t="n">
-        <v>15.69230769230769</v>
+        <v>16.19925198228655</v>
       </c>
       <c r="I117" t="n">
-        <v>30.48484848484848</v>
+        <v>29.05527840735407</v>
       </c>
       <c r="J117" t="n">
-        <v>24.84210526315789</v>
+        <v>23.59494760634299</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_support_runs</t>
+          <t>count_runs_ahead_of_the_ball_by_teammate_per_match</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>39.305134817203</v>
+        <v>45.96842891424791</v>
       </c>
       <c r="C118" t="n">
-        <v>34.36203264556487</v>
+        <v>40.20421267856833</v>
       </c>
       <c r="D118" t="n">
-        <v>14.39</v>
+        <v>14.34</v>
       </c>
       <c r="E118" t="n">
-        <v>5.86922566258893</v>
+        <v>8.398242571701978</v>
       </c>
       <c r="F118" t="n">
-        <v>3.87914215502784</v>
+        <v>3.226718425685616</v>
       </c>
       <c r="G118" t="n">
-        <v>32.26337116830538</v>
+        <v>33.39511106914102</v>
       </c>
       <c r="H118" t="n">
-        <v>26.73423744392862</v>
+        <v>35.05702999773747</v>
       </c>
       <c r="I118" t="n">
-        <v>47.74719148528239</v>
+        <v>56.32195317346225</v>
       </c>
       <c r="J118" t="n">
-        <v>40.90977432091718</v>
+        <v>46.83064656282328</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>count_runs_ahead_of_the_ball_by_teammate_per_match</t>
+          <t>pass_completion_ratio_to_support_runs</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>47.69989367357788</v>
+        <v>38.06212268954539</v>
       </c>
       <c r="C119" t="n">
-        <v>41.73955136165662</v>
+        <v>33.35328413083518</v>
       </c>
       <c r="D119" t="n">
-        <v>14.28</v>
+        <v>14.12</v>
       </c>
       <c r="E119" t="n">
-        <v>9.140860466962945</v>
+        <v>5.309782923154098</v>
       </c>
       <c r="F119" t="n">
-        <v>3.449195528286039</v>
+        <v>3.767300662602181</v>
       </c>
       <c r="G119" t="n">
-        <v>34.10526315789474</v>
+        <v>31.7559757204431</v>
       </c>
       <c r="H119" t="n">
-        <v>36.57142857142857</v>
+        <v>25.37406472478974</v>
       </c>
       <c r="I119" t="n">
-        <v>59.15151515151515</v>
+        <v>45.53134140523768</v>
       </c>
       <c r="J119" t="n">
-        <v>49.1578947368421</v>
+        <v>39.65149532982142</v>
       </c>
     </row>
     <row r="120">
@@ -4499,31 +4499,31 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>26.72671451355662</v>
+        <v>25.73905085286936</v>
       </c>
       <c r="C120" t="n">
-        <v>23.63210502664063</v>
+        <v>22.73720757233494</v>
       </c>
       <c r="D120" t="n">
-        <v>13.09</v>
+        <v>13.2</v>
       </c>
       <c r="E120" t="n">
-        <v>5.158440698700184</v>
+        <v>4.72313846651471</v>
       </c>
       <c r="F120" t="n">
-        <v>2.937656398005756</v>
+        <v>2.692295477566636</v>
       </c>
       <c r="G120" t="n">
-        <v>20.65789473684211</v>
+        <v>20.38524792513851</v>
       </c>
       <c r="H120" t="n">
-        <v>17.73076923076923</v>
+        <v>18.4170936977371</v>
       </c>
       <c r="I120" t="n">
-        <v>34.18181818181818</v>
+        <v>32.58867182846464</v>
       </c>
       <c r="J120" t="n">
-        <v>28</v>
+        <v>26.62602900517239</v>
       </c>
     </row>
     <row r="121">
@@ -4533,99 +4533,99 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>18.66222753854333</v>
+        <v>17.99098295958903</v>
       </c>
       <c r="C121" t="n">
-        <v>16.53122797345707</v>
+        <v>15.91501650047373</v>
       </c>
       <c r="D121" t="n">
-        <v>12.89</v>
+        <v>13.04</v>
       </c>
       <c r="E121" t="n">
-        <v>4.293509446234657</v>
+        <v>3.993239223965565</v>
       </c>
       <c r="F121" t="n">
-        <v>1.926995096454771</v>
+        <v>1.761942215891795</v>
       </c>
       <c r="G121" t="n">
-        <v>12.8421052631579</v>
+        <v>12.56671843316581</v>
       </c>
       <c r="H121" t="n">
-        <v>12.48571428571429</v>
+        <v>11.97274342823138</v>
       </c>
       <c r="I121" t="n">
-        <v>24.24242424242424</v>
+        <v>23.07568644190864</v>
       </c>
       <c r="J121" t="n">
-        <v>20.73684210526316</v>
+        <v>19.71879748949334</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_pulling_half_space_runs</t>
+          <t>pass_completion_ratio_to_runs_ahead_of_the_ball</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>12.54784503255325</v>
+        <v>47.473386345598</v>
       </c>
       <c r="C122" t="n">
-        <v>11.41096479281354</v>
+        <v>43.25015827267743</v>
       </c>
       <c r="D122" t="n">
-        <v>9.960000000000001</v>
+        <v>9.76</v>
       </c>
       <c r="E122" t="n">
-        <v>2.594375181120105</v>
+        <v>6.456154736064646</v>
       </c>
       <c r="F122" t="n">
-        <v>2.255417273083699</v>
+        <v>3.722522520071951</v>
       </c>
       <c r="G122" t="n">
-        <v>9.670131462105147</v>
+        <v>39.10351659301977</v>
       </c>
       <c r="H122" t="n">
-        <v>8.093817946759124</v>
+        <v>36.01887016990565</v>
       </c>
       <c r="I122" t="n">
-        <v>15.73244393569394</v>
+        <v>55.48365069027602</v>
       </c>
       <c r="J122" t="n">
-        <v>15.14505138380138</v>
+        <v>49.74249424012559</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>pass_completion_ratio_to_runs_ahead_of_the_ball</t>
+          <t>pass_completion_ratio_to_pulling_half_space_runs</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>48.78791290712506</v>
+        <v>12.10357861369282</v>
       </c>
       <c r="C123" t="n">
-        <v>44.39259856822326</v>
+        <v>11.07987876076387</v>
       </c>
       <c r="D123" t="n">
-        <v>9.9</v>
+        <v>9.24</v>
       </c>
       <c r="E123" t="n">
-        <v>7.269190238884624</v>
+        <v>2.315904009576553</v>
       </c>
       <c r="F123" t="n">
-        <v>3.520974159749989</v>
+        <v>2.2208122745246</v>
       </c>
       <c r="G123" t="n">
-        <v>39.53600906549591</v>
+        <v>9.600572173518533</v>
       </c>
       <c r="H123" t="n">
-        <v>37.48174980257837</v>
+        <v>7.640707942759553</v>
       </c>
       <c r="I123" t="n">
-        <v>58.22417655072201</v>
+        <v>14.91583499775829</v>
       </c>
       <c r="J123" t="n">
-        <v>51.06240541056166</v>
+        <v>15.14208112291276</v>
       </c>
     </row>
     <row r="124">
@@ -4635,53 +4635,53 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2.123657628920787</v>
+        <v>2.038287373946507</v>
       </c>
       <c r="C124" t="n">
-        <v>1.941730762845314</v>
+        <v>1.869874267629734</v>
       </c>
       <c r="D124" t="n">
-        <v>9.369999999999999</v>
+        <v>9.01</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5640030617943346</v>
+        <v>0.519480984839208</v>
       </c>
       <c r="F124" t="n">
-        <v>0.4741819586366319</v>
+        <v>0.455963560939911</v>
       </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>1.469282088103444</v>
       </c>
       <c r="H124" t="n">
-        <v>1.235294117647059</v>
+        <v>1.167168829588944</v>
       </c>
       <c r="I124" t="n">
-        <v>2.861111111111111</v>
+        <v>2.711934139437917</v>
       </c>
       <c r="J124" t="n">
-        <v>2.805555555555555</v>
+        <v>2.747031254466318</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_goal_per_match</t>
+          <t>count_completed_pass_to_underlap_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.01687931951089846</v>
+        <v>0.01165503626560365</v>
       </c>
       <c r="C125" t="n">
-        <v>0.0183908233753435</v>
+        <v>0.01256661772446701</v>
       </c>
       <c r="D125" t="n">
-        <v>-8.220000000000001</v>
+        <v>-7.25</v>
       </c>
       <c r="E125" t="n">
-        <v>0.01547451310773831</v>
+        <v>0.02606145337011505</v>
       </c>
       <c r="F125" t="n">
-        <v>0.02188008093373701</v>
+        <v>0.02009908204724337</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -4690,100 +4690,100 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.05827518132801825</v>
       </c>
       <c r="J125" t="n">
-        <v>0.07894736842105263</v>
+        <v>0.0557448782447859</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>count_pass_attempts_to_pulling_half_space_runs_per_match</t>
+          <t>count_completed_pass_to_pulling_half_space_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2.575332270069112</v>
+        <v>0.01611433485633133</v>
       </c>
       <c r="C126" t="n">
-        <v>2.441076328088712</v>
+        <v>0.0172263170247704</v>
       </c>
       <c r="D126" t="n">
-        <v>5.5</v>
+        <v>-6.46</v>
       </c>
       <c r="E126" t="n">
-        <v>0.582010880209799</v>
+        <v>0.01478785581603344</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5316010318472384</v>
+        <v>0.0201789581084117</v>
       </c>
       <c r="G126" t="n">
-        <v>1.921052631578947</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>1.617647058823529</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>3.305555555555555</v>
+        <v>0.02929401425642027</v>
       </c>
       <c r="J126" t="n">
-        <v>3.277777777777778</v>
+        <v>0.07198130500332629</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_underlap_runs_leading_to_goal_per_match</t>
+          <t>count_pass_attempts_to_pulling_half_space_runs_per_match</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.01212121212121212</v>
+        <v>2.46946065944829</v>
       </c>
       <c r="C127" t="n">
-        <v>0.01272944771396784</v>
+        <v>2.348004344793333</v>
       </c>
       <c r="D127" t="n">
-        <v>-4.78</v>
+        <v>5.17</v>
       </c>
       <c r="E127" t="n">
-        <v>0.02710385427272472</v>
+        <v>0.5390701696824687</v>
       </c>
       <c r="F127" t="n">
-        <v>0.02020246296458674</v>
+        <v>0.5077614999513766</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1.875564100322488</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1.52733525485109</v>
       </c>
       <c r="I127" t="n">
-        <v>0.06060606060606061</v>
+        <v>3.137108808680871</v>
       </c>
       <c r="J127" t="n">
-        <v>0.05555555555555555</v>
+        <v>3.210843209522455</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dropping_off_runs_leading_to_shot_per_match</t>
+          <t>count_completed_pass_to_dropping_off_runs_leading_to_goal_per_match</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.06852737905369485</v>
+        <v>0.005231219920485457</v>
       </c>
       <c r="C128" t="n">
-        <v>0.07180293517754818</v>
+        <v>0.004996831096541846</v>
       </c>
       <c r="D128" t="n">
-        <v>-4.56</v>
+        <v>4.69</v>
       </c>
       <c r="E128" t="n">
-        <v>0.07450064618233364</v>
+        <v>0.01169736334745653</v>
       </c>
       <c r="F128" t="n">
-        <v>0.04622752224387967</v>
+        <v>0.01036221174774288</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -4792,112 +4792,112 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.02615609960242729</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.02664692820133235</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_to_which_pass_attempted_threat_per_match</t>
+          <t>count_completed_pass_to_dropping_off_runs_leading_to_shot_per_match</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.01848724082934609</v>
+        <v>0.06535100771653626</v>
       </c>
       <c r="C129" t="n">
-        <v>0.01891145802353233</v>
+        <v>0.06836240849648881</v>
       </c>
       <c r="D129" t="n">
-        <v>-2.24</v>
+        <v>-4.41</v>
       </c>
       <c r="E129" t="n">
-        <v>0.004632509484687489</v>
+        <v>0.07064535103247051</v>
       </c>
       <c r="F129" t="n">
-        <v>0.005437960567837122</v>
+        <v>0.04509620364079518</v>
       </c>
       <c r="G129" t="n">
-        <v>0.01342105263157895</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0.008571428571428572</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0.025</v>
+        <v>0.1726536802826588</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02972222222222222</v>
+        <v>0.1612420982701315</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>pulling_half_space_runs_to_which_pass_completed_threat_per_match</t>
+          <t>pulling_half_space_runs_to_which_pass_attempted_threat_per_match</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.01357469431153642</v>
+        <v>0.01768107484846534</v>
       </c>
       <c r="C130" t="n">
-        <v>0.01331661603766867</v>
+        <v>0.01811008086998324</v>
       </c>
       <c r="D130" t="n">
-        <v>1.94</v>
+        <v>-2.37</v>
       </c>
       <c r="E130" t="n">
-        <v>0.004748625609360703</v>
+        <v>0.004349504919323321</v>
       </c>
       <c r="F130" t="n">
-        <v>0.004170198488322049</v>
+        <v>0.005133842242721486</v>
       </c>
       <c r="G130" t="n">
-        <v>0.007894736842105263</v>
+        <v>0.01300925037286694</v>
       </c>
       <c r="H130" t="n">
-        <v>0.006285714285714286</v>
+        <v>0.008281533153920023</v>
       </c>
       <c r="I130" t="n">
-        <v>0.01947368421052632</v>
+        <v>0.02394614417599471</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02</v>
+        <v>0.02830137939018781</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>count_completed_pass_to_dropping_off_runs_leading_to_goal_per_match</t>
+          <t>pulling_half_space_runs_to_which_pass_completed_threat_per_match</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.005555555555555555</v>
+        <v>0.01300864586021658</v>
       </c>
       <c r="C131" t="n">
-        <v>0.005510999721526037</v>
+        <v>0.01274024153378339</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.11</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01242259987499883</v>
+        <v>0.004487404913159761</v>
       </c>
       <c r="F131" t="n">
-        <v>0.01141704701484088</v>
+        <v>0.003913238595064279</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>0.007666479652918429</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>0.006115631250201266</v>
       </c>
       <c r="I131" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.01870304178016453</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.0191124270095402</v>
       </c>
     </row>
   </sheetData>
